--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E3779C-39C4-4E83-8C90-DD375D569624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62298F8-B108-41A1-99A4-B0F2D96B824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -99,15 +99,9 @@
     <t>Verify Back to top button at the end of the home page is working</t>
   </si>
   <si>
-    <t>2. Scroll dowan to the Back to top button</t>
-  </si>
-  <si>
     <t>3. Click the Back to top button</t>
   </si>
   <si>
-    <t>top of the home page is displayed</t>
-  </si>
-  <si>
     <t>4. choose Español - ES</t>
   </si>
   <si>
@@ -145,6 +139,73 @@
   </si>
   <si>
     <t>first presented items conatain the words 'amazon basics'</t>
+  </si>
+  <si>
+    <t>SK_6</t>
+  </si>
+  <si>
+    <t>2. User isn't logged in</t>
+  </si>
+  <si>
+    <t>Cart button - not logged in</t>
+  </si>
+  <si>
+    <t>Verify that when the user isn't logged in, clicking the cart button suggests signing in or up.</t>
+  </si>
+  <si>
+    <t>2. Click the cart symbol in the top right area</t>
+  </si>
+  <si>
+    <t>3. The cart is empty</t>
+  </si>
+  <si>
+    <t>Top of the home page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The header of the page is Your Amazon Cart is empty
+</t>
+  </si>
+  <si>
+    <t>Sign In button and Sign Up button are presented</t>
+  </si>
+  <si>
+    <t>SK_7</t>
+  </si>
+  <si>
+    <t>2. Scroll down to the Back to top button</t>
+  </si>
+  <si>
+    <t>2. Scroll down to the main content section</t>
+  </si>
+  <si>
+    <t>3. Click the shop now button of the first section</t>
+  </si>
+  <si>
+    <t>SK_8</t>
+  </si>
+  <si>
+    <t>Main Content Items</t>
+  </si>
+  <si>
+    <t>Verify that each item in the first section in the main content contains all of the parts for item's description</t>
+  </si>
+  <si>
+    <t>Each item in the displayed page contains an image, description, rating and price in dollars</t>
+  </si>
+  <si>
+    <t>Search By Department</t>
+  </si>
+  <si>
+    <t>3. Choose Arts &amp; Crafts from the drop down</t>
+  </si>
+  <si>
+    <t>4. Search for 'color'</t>
+  </si>
+  <si>
+    <t>The department that's presented is Arts &amp; Crafts</t>
+  </si>
+  <si>
+    <t>Verify that search using filter for the department works</t>
   </si>
 </sst>
 </file>
@@ -252,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -692,11 +753,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -745,94 +856,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -852,6 +875,130 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1205,155 +1352,155 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="41"/>
+      <c r="C3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="35"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="49" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="53"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="13"/>
       <c r="F12" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>29</v>
+      <c r="D13" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>9</v>
@@ -1361,134 +1508,244 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F18" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="53"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
+  <mergeCells count="32">
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A16:A18"/>
@@ -1500,6 +1757,16 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62298F8-B108-41A1-99A4-B0F2D96B824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4107638-6709-4B5A-8EC6-833EE6D98657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -206,6 +206,87 @@
   </si>
   <si>
     <t>Verify that search using filter for the department works</t>
+  </si>
+  <si>
+    <t>SK_9</t>
+  </si>
+  <si>
+    <t>2. Click the Deliver to Button</t>
+  </si>
+  <si>
+    <t>A popup window to Choose your location is displayed</t>
+  </si>
+  <si>
+    <t>3. Click the dropdown option</t>
+  </si>
+  <si>
+    <t>4. Choose United Kingdom</t>
+  </si>
+  <si>
+    <t>5. Click the Done button</t>
+  </si>
+  <si>
+    <t>The displayed location is United Kingdoms</t>
+  </si>
+  <si>
+    <t>Change Location By Country</t>
+  </si>
+  <si>
+    <t>Verify that changing delivery location using the country dropdown feature works</t>
+  </si>
+  <si>
+    <t>SK_10</t>
+  </si>
+  <si>
+    <t>Change Location By US zip code</t>
+  </si>
+  <si>
+    <t>Verify that changing delivery location using US zip code feature works</t>
+  </si>
+  <si>
+    <t>3. Enter the zip code 32958</t>
+  </si>
+  <si>
+    <t>4. Click the Apply button</t>
+  </si>
+  <si>
+    <t>5. Click the Continue button</t>
+  </si>
+  <si>
+    <t>zip code 32958 is displayed in the popover window</t>
+  </si>
+  <si>
+    <t>The displayed location is Sebastian 32958</t>
+  </si>
+  <si>
+    <t>A popover window to Choose your location is displayed</t>
+  </si>
+  <si>
+    <t>SK_11</t>
+  </si>
+  <si>
+    <t>Menu - Amazon Music - Amazon Music Unlimited</t>
+  </si>
+  <si>
+    <t>Verify that using the menu to reach the Amazon Music Unlimited page function works</t>
+  </si>
+  <si>
+    <t>2. Click the menu</t>
+  </si>
+  <si>
+    <t>3. Choose Amazon Music</t>
+  </si>
+  <si>
+    <t>Menu content is visible</t>
+  </si>
+  <si>
+    <t>Amazon Music submenu is visible</t>
+  </si>
+  <si>
+    <t>4. Choose Amazon Music Unlimited</t>
+  </si>
+  <si>
+    <t>Amazon Music Unlimited is displayed</t>
   </si>
 </sst>
 </file>
@@ -313,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -803,11 +884,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -840,7 +947,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -868,14 +974,29 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,26 +1086,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1001,6 +1110,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1352,56 +1468,56 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -1410,29 +1526,29 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="37" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="19" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -1440,39 +1556,39 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="14" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="15" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1480,39 +1596,39 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="17" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1520,48 +1636,48 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="17" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="13" t="s">
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -1569,91 +1685,91 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="60" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="26" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="61" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="17" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="13" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="11" t="s">
@@ -1661,49 +1777,49 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="66"/>
-      <c r="C27" s="37"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="63"/>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="66"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="63"/>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="24" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="66"/>
-      <c r="C29" s="37"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="63"/>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -1711,30 +1827,223 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="66"/>
-      <c r="C30" s="37"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="63"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="66"/>
-      <c r="C31" s="32"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="64"/>
-      <c r="E31" s="13"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
+    <row r="32" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="68"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="45"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="68"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="69"/>
+      <c r="F46" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="44">
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="B26:B31"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4107638-6709-4B5A-8EC6-833EE6D98657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B2E154-0EEF-4F0F-A324-C9E430215EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="134">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -265,12 +265,6 @@
     <t>SK_11</t>
   </si>
   <si>
-    <t>Menu - Amazon Music - Amazon Music Unlimited</t>
-  </si>
-  <si>
-    <t>Verify that using the menu to reach the Amazon Music Unlimited page function works</t>
-  </si>
-  <si>
     <t>2. Click the menu</t>
   </si>
   <si>
@@ -283,10 +277,158 @@
     <t>Amazon Music submenu is visible</t>
   </si>
   <si>
-    <t>4. Choose Amazon Music Unlimited</t>
-  </si>
-  <si>
-    <t>Amazon Music Unlimited is displayed</t>
+    <t>Menu - Amazon Music - Amazon Music HD</t>
+  </si>
+  <si>
+    <t>Verify that using the menu to reach the Amazon Music HD page function works</t>
+  </si>
+  <si>
+    <t>4. Choose Amazon Music HD</t>
+  </si>
+  <si>
+    <t>Amazon Music HD is displayed</t>
+  </si>
+  <si>
+    <t>SK_12</t>
+  </si>
+  <si>
+    <t>Verify that clicking the Returns &amp; Orders button in the home page when the user isn't logged in, displayes a signing in page</t>
+  </si>
+  <si>
+    <t>Returns &amp; Orders - not logged in</t>
+  </si>
+  <si>
+    <t>2. Click the Returns &amp; Orders button</t>
+  </si>
+  <si>
+    <t>Sign In page is displayed</t>
+  </si>
+  <si>
+    <t>SK_13</t>
+  </si>
+  <si>
+    <t>Account &amp; Lists - Create a list - not logged in</t>
+  </si>
+  <si>
+    <t>Verify that whike trying to create a list, user is required to sign in</t>
+  </si>
+  <si>
+    <t>2. Hover over the Account &amp; Lists</t>
+  </si>
+  <si>
+    <t>3. Click Create a List link</t>
+  </si>
+  <si>
+    <t>The Lists page is presented, including a sign in button</t>
+  </si>
+  <si>
+    <t>A sign in button is presented, in addition to links under Your Lists and Your Account categories</t>
+  </si>
+  <si>
+    <t>SK_14</t>
+  </si>
+  <si>
+    <t>3. Click Account</t>
+  </si>
+  <si>
+    <t>4. Click Your Profiles button</t>
+  </si>
+  <si>
+    <t>SK_15</t>
+  </si>
+  <si>
+    <t>Buy Now Item - not logged in</t>
+  </si>
+  <si>
+    <t>Verify that while trying to buy now an item, user is required to sign in</t>
+  </si>
+  <si>
+    <t>3. Click the first presented result item</t>
+  </si>
+  <si>
+    <t>The item's name is as was presented in the results page</t>
+  </si>
+  <si>
+    <t>SK_16</t>
+  </si>
+  <si>
+    <t>Add to Cart Item</t>
+  </si>
+  <si>
+    <t>4. Click the Add to Cart button</t>
+  </si>
+  <si>
+    <t>4. Click the Buy Now button</t>
+  </si>
+  <si>
+    <t>5. Click the cart symbol in the top right area</t>
+  </si>
+  <si>
+    <t>The item is presented in the cart</t>
+  </si>
+  <si>
+    <t>Verify that Add to Cart function works</t>
+  </si>
+  <si>
+    <t>SK_17</t>
+  </si>
+  <si>
+    <t>Add to List Item - not logged in</t>
+  </si>
+  <si>
+    <t>Verify that while trying to add to list an item, user is required to sign in</t>
+  </si>
+  <si>
+    <t>4. Click the Add to List button</t>
+  </si>
+  <si>
+    <t>Your Account page is presented</t>
+  </si>
+  <si>
+    <t>There are 7 card categories: Your Orders, Login &amp; security, Prime, Gift cards, Your Payments, Your profiles, Your devices and content
+6 more categories: Ordering and shopping preferences, Digital content and devices, Memberships and subscriptions, Communication and content, Shopping programs and rentals, Other programs</t>
+  </si>
+  <si>
+    <t>Account &amp; Lists - Account's Profiles - not logged in</t>
+  </si>
+  <si>
+    <t>Verify that while trying to enter your account's profiles, user is required to sign in</t>
+  </si>
+  <si>
+    <t>3. Click a presented result item</t>
+  </si>
+  <si>
+    <t>SK_18</t>
+  </si>
+  <si>
+    <t>Change Currency</t>
+  </si>
+  <si>
+    <t>The goal is to verify change currency function works</t>
+  </si>
+  <si>
+    <t>3. Click the Change link</t>
+  </si>
+  <si>
+    <t>A page with the titles Language Settings and Currency Settings is displayed</t>
+  </si>
+  <si>
+    <t>4. Click the currency dropdown</t>
+  </si>
+  <si>
+    <t>Currency Options are presented</t>
+  </si>
+  <si>
+    <t>5. Choose ILS</t>
+  </si>
+  <si>
+    <t>6. Click the Save Changes button</t>
+  </si>
+  <si>
+    <t>7. Search for 'watch'</t>
+  </si>
+  <si>
+    <t>The presented results' price is in ILS (₪)</t>
   </si>
 </sst>
 </file>
@@ -851,21 +993,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -906,6 +1033,21 @@
       </right>
       <top/>
       <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -914,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -974,12 +1116,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -992,34 +1128,85 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,24 +1219,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1095,28 +1270,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1468,56 +1640,56 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -1526,16 +1698,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1544,10 +1716,10 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1556,16 +1728,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="58" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -1574,20 +1746,20 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="48"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="48"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
@@ -1596,26 +1768,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="49"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1624,10 +1796,10 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
@@ -1636,10 +1808,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
@@ -1647,36 +1819,36 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="40"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="40"/>
+    <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -1685,16 +1857,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -1703,50 +1875,50 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="22" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="27" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="19"/>
       <c r="F22" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -1755,20 +1927,20 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="40"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
@@ -1777,16 +1949,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -1795,30 +1967,30 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="63"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="24" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="63"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
@@ -1827,36 +1999,36 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="63"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="64"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -1865,10 +2037,10 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="63"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="16" t="s">
         <v>61</v>
       </c>
@@ -1877,30 +2049,30 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="24" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="22" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="63"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="64"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -1909,28 +2081,28 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="28"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="63"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="16" t="s">
         <v>61</v>
       </c>
@@ -1939,20 +2111,20 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="24" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="63"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="16" t="s">
         <v>73</v>
       </c>
@@ -1961,10 +2133,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="64"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="18" t="s">
         <v>74</v>
       </c>
@@ -1973,65 +2145,464 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="54" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="28"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="26" t="s">
+      <c r="A43" s="40"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="24" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="16" t="s">
+      <c r="A45" s="41"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="18" t="s">
         <v>85</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="69"/>
-      <c r="F46" s="6"/>
+    <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="48"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A49" s="49"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="40"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="40"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="40"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="40"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="40"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="40"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="40"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="40"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="40"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A71" s="40"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="40"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="40"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="40"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="73">
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="B69:B75"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
@@ -2076,6 +2647,31 @@
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A65:A68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B2E154-0EEF-4F0F-A324-C9E430215EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01923CAC-623C-4A6B-A886-AEDBFDE0C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="185">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -428,7 +428,160 @@
     <t>7. Search for 'watch'</t>
   </si>
   <si>
-    <t>The presented results' price is in ILS (₪)</t>
+    <t>The presented results' prices is in ILS (₪)</t>
+  </si>
+  <si>
+    <t>SK_19</t>
+  </si>
+  <si>
+    <t>Delete Item From Cart</t>
+  </si>
+  <si>
+    <t>Compare Item From Cart With Similar Objects</t>
+  </si>
+  <si>
+    <t>Save For Later Cart Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu - Electronics Department - Accessories &amp; Supplies  </t>
+  </si>
+  <si>
+    <t>Menu - Amazon Live</t>
+  </si>
+  <si>
+    <t>Menu - Customer Service</t>
+  </si>
+  <si>
+    <t>2. Cart isn't empty</t>
+  </si>
+  <si>
+    <t>3. Click the delete link on the first item in the cart</t>
+  </si>
+  <si>
+    <t>Item isn't presented in the cart anymore.</t>
+  </si>
+  <si>
+    <t>Verify delete option in the shopping cart works</t>
+  </si>
+  <si>
+    <t>SK_20</t>
+  </si>
+  <si>
+    <t>Verify compare with similar items option for an item in the shopping cart works</t>
+  </si>
+  <si>
+    <t>A popup window for the comparing is presented</t>
+  </si>
+  <si>
+    <t>Cart's item is presented, with all the correct information</t>
+  </si>
+  <si>
+    <t>SK_21</t>
+  </si>
+  <si>
+    <t>3. Click the compare with similar items link on the first item</t>
+  </si>
+  <si>
+    <t>3. Click the Save for later link on the first item</t>
+  </si>
+  <si>
+    <t>Verify Save for later option for an item in the shopping cart works</t>
+  </si>
+  <si>
+    <t>Item is shown under Saved for later category</t>
+  </si>
+  <si>
+    <t>SK_22</t>
+  </si>
+  <si>
+    <t>2. Click the menu button</t>
+  </si>
+  <si>
+    <t>3. Click Electronics category, under Shop By Department title</t>
+  </si>
+  <si>
+    <t>4. Click Accessories &amp; Supplies</t>
+  </si>
+  <si>
+    <t>Electronics submenu is presented</t>
+  </si>
+  <si>
+    <t>The search dropdown shows Accessories &amp; Supplies</t>
+  </si>
+  <si>
+    <t>Results page is displayed</t>
+  </si>
+  <si>
+    <t>Verify that using the menu to reach the Accessories &amp; Supplies results page function works</t>
+  </si>
+  <si>
+    <t>SK_23</t>
+  </si>
+  <si>
+    <t>4. Click All gift cards</t>
+  </si>
+  <si>
+    <t>3. Click Gift Cards, under Programs &amp; Features category</t>
+  </si>
+  <si>
+    <t>Give A Gift Card and Manage Your Gift Card submenues are presented</t>
+  </si>
+  <si>
+    <t>Gift Cards page is presented</t>
+  </si>
+  <si>
+    <t>5. Under Shop by occasion title, select Birthday</t>
+  </si>
+  <si>
+    <t>Birthday Gift Cards page is displayed</t>
+  </si>
+  <si>
+    <t>Verify that using the menu to reach the Birthday Gift Cards page works</t>
+  </si>
+  <si>
+    <t>Menu - Birthday Gift Cards</t>
+  </si>
+  <si>
+    <t>SK_24</t>
+  </si>
+  <si>
+    <t>3. Click Amazon Live, under Programs &amp; Features category</t>
+  </si>
+  <si>
+    <t>Amazon Live submenu is presented</t>
+  </si>
+  <si>
+    <t>4. Click Live</t>
+  </si>
+  <si>
+    <t>amazon live page is displayed</t>
+  </si>
+  <si>
+    <t>A video Player is displayed</t>
+  </si>
+  <si>
+    <t>SK_25</t>
+  </si>
+  <si>
+    <t>Verify that using the menu to reach the Amazon Live page works</t>
+  </si>
+  <si>
+    <t>3. Click Customer Service, under Help &amp; Settings category</t>
+  </si>
+  <si>
+    <t>Boxes with different information are dispalyed, with the following titles: Your Orders, Returns &amp; Funds, Get Product Help, Digital Services and Device Support, Manage Prime, Payments &amp; Gift Cards, Your Account, Amazon and Covid-19, Safe Online Shopping.</t>
+  </si>
+  <si>
+    <t>A search option in the help library is displayed</t>
+  </si>
+  <si>
+    <t>Browse Help Topics section is displayed</t>
+  </si>
+  <si>
+    <t>Verify that using the menu to reach the Customer Service page works</t>
+  </si>
+  <si>
+    <t>Several other items are presented</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1140,52 +1293,161 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,101 +1455,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1640,26 +1807,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1668,8 +1835,8 @@
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="37"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1678,8 +1845,8 @@
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="37"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
@@ -1688,8 +1855,8 @@
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="53"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -1698,16 +1865,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="56" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1716,10 +1883,10 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="38"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1728,16 +1895,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="62" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -1746,20 +1913,20 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="59"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="59"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
@@ -1768,26 +1935,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="60"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="56" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1796,10 +1963,10 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="55"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
@@ -1808,10 +1975,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="53"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
@@ -1819,36 +1986,36 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="38"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -1857,13 +2024,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -1875,9 +2042,9 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="28" t="s">
         <v>39</v>
       </c>
@@ -1887,9 +2054,9 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="28" t="s">
         <v>43</v>
       </c>
@@ -1899,9 +2066,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="21"/>
       <c r="E22" s="19"/>
       <c r="F22" s="11" t="s">
@@ -1909,16 +2076,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="56" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -1927,20 +2094,20 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="37"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
@@ -1949,16 +2116,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -1967,30 +2134,30 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="43"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
@@ -1999,20 +2166,20 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="43"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="44"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>36</v>
@@ -2025,10 +2192,10 @@
       <c r="B32" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -2039,8 +2206,8 @@
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="37"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="16" t="s">
         <v>61</v>
       </c>
@@ -2051,8 +2218,8 @@
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="22" t="s">
         <v>63</v>
       </c>
@@ -2061,8 +2228,8 @@
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="37"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
@@ -2071,8 +2238,8 @@
     <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="38"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -2087,10 +2254,10 @@
       <c r="B37" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -2101,8 +2268,8 @@
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="37"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="16" t="s">
         <v>61</v>
       </c>
@@ -2113,8 +2280,8 @@
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="37"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="22" t="s">
         <v>72</v>
       </c>
@@ -2123,8 +2290,8 @@
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="40"/>
       <c r="B40" s="37"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="16" t="s">
         <v>73</v>
       </c>
@@ -2135,8 +2302,8 @@
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="38"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="18" t="s">
         <v>74</v>
       </c>
@@ -2151,10 +2318,10 @@
       <c r="B42" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="58" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -2165,8 +2332,8 @@
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="40"/>
       <c r="B43" s="37"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="55"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="24" t="s">
         <v>79</v>
       </c>
@@ -2177,8 +2344,8 @@
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="40"/>
       <c r="B44" s="37"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="55"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="22" t="s">
         <v>80</v>
       </c>
@@ -2189,8 +2356,8 @@
     <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="53"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="18" t="s">
         <v>85</v>
       </c>
@@ -2198,17 +2365,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="47" t="s">
+    <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="49" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E46" s="22" t="s">
@@ -2217,9 +2384,9 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="31"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="27" t="s">
         <v>39</v>
       </c>
@@ -2231,13 +2398,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="49" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="42" t="s">
         <v>94</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -2249,9 +2416,9 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="37"/>
-      <c r="C49" s="30"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="28" t="s">
         <v>39</v>
       </c>
@@ -2263,9 +2430,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="31"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="27"/>
       <c r="E50" s="12" t="s">
         <v>96</v>
@@ -2281,10 +2448,10 @@
       <c r="B51" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="82" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -2295,8 +2462,8 @@
     <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A52" s="40"/>
       <c r="B52" s="37"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="46"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="83"/>
       <c r="E52" s="16" t="s">
         <v>95</v>
       </c>
@@ -2307,8 +2474,8 @@
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="40"/>
       <c r="B53" s="37"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="46"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="83"/>
       <c r="E53" s="22" t="s">
         <v>100</v>
       </c>
@@ -2319,8 +2486,8 @@
     <row r="54" spans="1:6" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A54" s="40"/>
       <c r="B54" s="37"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="34" t="s">
+      <c r="C54" s="43"/>
+      <c r="D54" s="52" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="16"/>
@@ -2331,8 +2498,8 @@
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="38"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="35"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="53"/>
       <c r="E55" s="18" t="s">
         <v>101</v>
       </c>
@@ -2347,10 +2514,10 @@
       <c r="B56" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -2361,8 +2528,8 @@
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="37"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="33"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="24" t="s">
         <v>20</v>
       </c>
@@ -2371,8 +2538,8 @@
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="40"/>
       <c r="B58" s="37"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="34" t="s">
+      <c r="C58" s="43"/>
+      <c r="D58" s="52" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -2385,8 +2552,8 @@
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="38"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="35"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="18" t="s">
         <v>110</v>
       </c>
@@ -2401,10 +2568,10 @@
       <c r="B60" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -2415,8 +2582,8 @@
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="40"/>
       <c r="B61" s="37"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="16" t="s">
         <v>20</v>
       </c>
@@ -2425,8 +2592,8 @@
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="40"/>
       <c r="B62" s="37"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="22" t="s">
         <v>105</v>
       </c>
@@ -2437,8 +2604,8 @@
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="40"/>
       <c r="B63" s="37"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="16" t="s">
         <v>109</v>
       </c>
@@ -2447,8 +2614,8 @@
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="38"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="18" t="s">
         <v>111</v>
       </c>
@@ -2463,10 +2630,10 @@
       <c r="B65" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -2477,8 +2644,8 @@
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="40"/>
       <c r="B66" s="37"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="33"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="24" t="s">
         <v>20</v>
       </c>
@@ -2487,8 +2654,8 @@
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="40"/>
       <c r="B67" s="37"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="34" t="s">
+      <c r="C67" s="43"/>
+      <c r="D67" s="52" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -2501,8 +2668,8 @@
     <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="38"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="35"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="18" t="s">
         <v>117</v>
       </c>
@@ -2517,10 +2684,10 @@
       <c r="B69" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="56" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -2531,8 +2698,8 @@
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="40"/>
       <c r="B70" s="37"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="55"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="24" t="s">
         <v>10</v>
       </c>
@@ -2541,9 +2708,9 @@
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A71" s="40"/>
       <c r="B71" s="37"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="79" t="s">
+      <c r="C71" s="80"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="30" t="s">
         <v>126</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -2553,8 +2720,8 @@
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="40"/>
       <c r="B72" s="37"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="55"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="22" t="s">
         <v>128</v>
       </c>
@@ -2565,8 +2732,8 @@
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="40"/>
       <c r="B73" s="37"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="55"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="24" t="s">
         <v>130</v>
       </c>
@@ -2575,8 +2742,8 @@
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="40"/>
       <c r="B74" s="37"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="55"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="22" t="s">
         <v>131</v>
       </c>
@@ -2585,8 +2752,8 @@
     <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="38"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="53"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="18" t="s">
         <v>132</v>
       </c>
@@ -2594,11 +2761,429 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="78"/>
-    </row>
+    <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="50"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="25"/>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="40"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="40"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="40"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" s="16"/>
+      <c r="F82" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="40"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="40"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="41"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="25"/>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="40"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="40"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="40"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="40"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A95" s="40"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="40"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="25"/>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="40"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="40"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="40"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="41"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="25"/>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="40"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="40"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="40"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="102">
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
     <mergeCell ref="A69:A75"/>
     <mergeCell ref="D69:D75"/>
     <mergeCell ref="C69:C75"/>
@@ -2607,25 +3192,25 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A16:A18"/>
@@ -2647,19 +3232,6 @@
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
     <mergeCell ref="D60:D64"/>
     <mergeCell ref="A60:A64"/>
     <mergeCell ref="B60:B64"/>
@@ -2667,11 +3239,45 @@
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
     <mergeCell ref="C65:C68"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="B65:B68"/>
     <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A98:A102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01923CAC-623C-4A6B-A886-AEDBFDE0C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4799BC3A-34C9-4D17-8607-6BB554EA22A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -569,9 +569,6 @@
     <t>3. Click Customer Service, under Help &amp; Settings category</t>
   </si>
   <si>
-    <t>Boxes with different information are dispalyed, with the following titles: Your Orders, Returns &amp; Funds, Get Product Help, Digital Services and Device Support, Manage Prime, Payments &amp; Gift Cards, Your Account, Amazon and Covid-19, Safe Online Shopping.</t>
-  </si>
-  <si>
     <t>A search option in the help library is displayed</t>
   </si>
   <si>
@@ -582,6 +579,33 @@
   </si>
   <si>
     <t>Several other items are presented</t>
+  </si>
+  <si>
+    <t>Boxes with different information are dispalyed, with the following titles: Your Orders, Returns &amp; Refunds, Get Product Help, Digital Services and Device Support, Manage Prime, Payments &amp; Gift Cards, Your Account, Amazon and COVID-19, Safe Online Shopping.</t>
+  </si>
+  <si>
+    <t>Search The Help Library</t>
+  </si>
+  <si>
+    <t>SK_26</t>
+  </si>
+  <si>
+    <t>Verify that searching the help library function works</t>
+  </si>
+  <si>
+    <t>2. Click Customer Service in the top menu</t>
+  </si>
+  <si>
+    <t>3. Write 'menu' in the search the help library</t>
+  </si>
+  <si>
+    <t>The search suugestions 'menu', 'menu button' are presented</t>
+  </si>
+  <si>
+    <t>4. Search</t>
+  </si>
+  <si>
+    <t>Search results for menu are presented</t>
   </si>
 </sst>
 </file>
@@ -1314,6 +1338,15 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1323,15 +1356,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1339,6 +1363,103 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,114 +1468,17 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1770,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1783,7 +1807,7 @@
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1807,56 +1831,56 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="43"/>
-      <c r="D4" s="59"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="59"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="43"/>
-      <c r="D6" s="57"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -1865,16 +1889,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1883,10 +1907,10 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="44"/>
-      <c r="D8" s="57"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -1895,16 +1919,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="65" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -1913,20 +1937,20 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="63"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="63"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
@@ -1935,26 +1959,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="60" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1963,10 +1987,10 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="43"/>
-      <c r="D14" s="59"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
@@ -1975,10 +1999,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="44"/>
-      <c r="D15" s="57"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
@@ -1986,36 +2010,36 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="43"/>
-      <c r="D17" s="59"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="44"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -2024,10 +2048,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="60" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="42" t="s">
@@ -2042,8 +2066,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="43"/>
       <c r="D20" s="28" t="s">
         <v>39</v>
@@ -2054,8 +2078,8 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="43"/>
       <c r="D21" s="28" t="s">
         <v>43</v>
@@ -2066,8 +2090,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="44"/>
       <c r="D22" s="21"/>
       <c r="E22" s="19"/>
@@ -2076,16 +2100,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="39" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2094,20 +2118,20 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="43"/>
-      <c r="D24" s="59"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="44"/>
-      <c r="D25" s="57"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
@@ -2116,10 +2140,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="63" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="42" t="s">
@@ -2134,8 +2158,8 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="43"/>
       <c r="D27" s="34"/>
       <c r="E27" s="16" t="s">
@@ -2144,8 +2168,8 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="43"/>
       <c r="D28" s="34"/>
       <c r="E28" s="22" t="s">
@@ -2154,8 +2178,8 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="43"/>
       <c r="D29" s="34"/>
       <c r="E29" s="16" t="s">
@@ -2166,8 +2190,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="43"/>
       <c r="D30" s="34"/>
       <c r="E30" s="16"/>
@@ -2176,8 +2200,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="44"/>
       <c r="D31" s="35"/>
       <c r="E31" s="12"/>
@@ -2186,10 +2210,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="42" t="s">
@@ -2204,8 +2228,8 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="43"/>
       <c r="D33" s="34"/>
       <c r="E33" s="16" t="s">
@@ -2216,8 +2240,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="43"/>
       <c r="D34" s="34"/>
       <c r="E34" s="22" t="s">
@@ -2226,8 +2250,8 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="43"/>
       <c r="D35" s="34"/>
       <c r="E35" s="16" t="s">
@@ -2236,8 +2260,8 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="44"/>
       <c r="D36" s="35"/>
       <c r="E36" s="19" t="s">
@@ -2248,10 +2272,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="39" t="s">
         <v>70</v>
       </c>
       <c r="C37" s="42" t="s">
@@ -2266,8 +2290,8 @@
       <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="43"/>
       <c r="D38" s="34"/>
       <c r="E38" s="16" t="s">
@@ -2278,8 +2302,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="40"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="43"/>
       <c r="D39" s="34"/>
       <c r="E39" s="22" t="s">
@@ -2288,8 +2312,8 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="43"/>
       <c r="D40" s="34"/>
       <c r="E40" s="16" t="s">
@@ -2300,8 +2324,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="44"/>
       <c r="D41" s="35"/>
       <c r="E41" s="18" t="s">
@@ -2312,16 +2336,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -2330,10 +2354,10 @@
       <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="59"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="24" t="s">
         <v>79</v>
       </c>
@@ -2342,10 +2366,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="43"/>
-      <c r="D44" s="59"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="22" t="s">
         <v>80</v>
       </c>
@@ -2354,10 +2378,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="44"/>
-      <c r="D45" s="57"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="18" t="s">
         <v>85</v>
       </c>
@@ -2366,10 +2390,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="39" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="42" t="s">
@@ -2384,8 +2408,8 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="44"/>
       <c r="D47" s="27" t="s">
         <v>39</v>
@@ -2398,10 +2422,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="39" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="42" t="s">
@@ -2416,8 +2440,8 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="43"/>
       <c r="D49" s="28" t="s">
         <v>39</v>
@@ -2430,8 +2454,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="44"/>
       <c r="D50" s="27"/>
       <c r="E50" s="12" t="s">
@@ -2442,16 +2466,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="39" t="s">
         <v>120</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="82" t="s">
+      <c r="D51" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -2460,10 +2484,10 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
-      <c r="B52" s="37"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="43"/>
-      <c r="D52" s="83"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="16" t="s">
         <v>95</v>
       </c>
@@ -2472,10 +2496,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
-      <c r="B53" s="37"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="43"/>
-      <c r="D53" s="83"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="22" t="s">
         <v>100</v>
       </c>
@@ -2484,10 +2508,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
-      <c r="B54" s="37"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="43"/>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="16"/>
@@ -2496,10 +2520,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="38"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="44"/>
-      <c r="D55" s="53"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="18" t="s">
         <v>101</v>
       </c>
@@ -2508,16 +2532,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="39" t="s">
         <v>103</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -2526,20 +2550,20 @@
       <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="40"/>
-      <c r="B57" s="37"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="43"/>
-      <c r="D57" s="46"/>
+      <c r="D57" s="79"/>
       <c r="E57" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="40"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="43"/>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -2550,10 +2574,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="44"/>
-      <c r="D59" s="53"/>
+      <c r="D59" s="81"/>
       <c r="E59" s="18" t="s">
         <v>110</v>
       </c>
@@ -2562,10 +2586,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="39" t="s">
         <v>108</v>
       </c>
       <c r="C60" s="42" t="s">
@@ -2580,8 +2604,8 @@
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="43"/>
       <c r="D61" s="34"/>
       <c r="E61" s="16" t="s">
@@ -2590,8 +2614,8 @@
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="40"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="43"/>
       <c r="D62" s="34"/>
       <c r="E62" s="22" t="s">
@@ -2602,8 +2626,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="40"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="43"/>
       <c r="D63" s="34"/>
       <c r="E63" s="16" t="s">
@@ -2612,8 +2636,8 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="44"/>
       <c r="D64" s="35"/>
       <c r="E64" s="18" t="s">
@@ -2624,16 +2648,16 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="39" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -2642,20 +2666,20 @@
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="43"/>
-      <c r="D66" s="46"/>
+      <c r="D66" s="79"/>
       <c r="E66" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="43"/>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -2666,10 +2690,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="44"/>
-      <c r="D68" s="53"/>
+      <c r="D68" s="81"/>
       <c r="E68" s="18" t="s">
         <v>117</v>
       </c>
@@ -2678,16 +2702,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="56" t="s">
+      <c r="D69" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -2696,20 +2720,20 @@
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="40"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="59"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="40"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="59"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="30" t="s">
         <v>126</v>
       </c>
@@ -2718,10 +2742,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="40"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="59"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="46"/>
       <c r="E72" s="22" t="s">
         <v>128</v>
       </c>
@@ -2730,30 +2754,30 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="40"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="59"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="46"/>
       <c r="E73" s="24" t="s">
         <v>130</v>
       </c>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="40"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="59"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="22" t="s">
         <v>131</v>
       </c>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="57"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="18" t="s">
         <v>132</v>
       </c>
@@ -2762,16 +2786,16 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="39" t="s">
         <v>135</v>
       </c>
       <c r="C76" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="15" t="s">
@@ -2780,18 +2804,18 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="50"/>
-      <c r="B77" s="37"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="43"/>
-      <c r="D77" s="46"/>
+      <c r="D77" s="79"/>
       <c r="E77" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="38"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="44"/>
       <c r="D78" s="31" t="s">
         <v>141</v>
@@ -2804,16 +2828,16 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="39" t="s">
         <v>136</v>
       </c>
       <c r="C79" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="45" t="s">
+      <c r="D79" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="15" t="s">
@@ -2822,20 +2846,20 @@
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="40"/>
-      <c r="B80" s="37"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="43"/>
-      <c r="D80" s="46"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="40"/>
-      <c r="B81" s="37"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="43"/>
-      <c r="D81" s="46"/>
+      <c r="D81" s="79"/>
       <c r="E81" s="22" t="s">
         <v>150</v>
       </c>
@@ -2844,10 +2868,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="40"/>
-      <c r="B82" s="37"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="43"/>
-      <c r="D82" s="47" t="s">
+      <c r="D82" s="82" t="s">
         <v>141</v>
       </c>
       <c r="E82" s="16"/>
@@ -2856,26 +2880,26 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="38"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="44"/>
-      <c r="D83" s="48"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="18"/>
       <c r="F83" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="39" t="s">
         <v>137</v>
       </c>
       <c r="C84" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="45" t="s">
+      <c r="D84" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="16" t="s">
@@ -2884,18 +2908,18 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="40"/>
-      <c r="B85" s="37"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="43"/>
-      <c r="D85" s="46"/>
+      <c r="D85" s="79"/>
       <c r="E85" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="40"/>
-      <c r="B86" s="37"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="43"/>
       <c r="D86" s="32" t="s">
         <v>141</v>
@@ -2908,8 +2932,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
-      <c r="B87" s="38"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="44"/>
       <c r="D87" s="31"/>
       <c r="E87" s="18"/>
@@ -2918,10 +2942,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="39" t="s">
         <v>138</v>
       </c>
       <c r="C88" s="42" t="s">
@@ -2936,8 +2960,8 @@
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="40"/>
-      <c r="B89" s="37"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="43"/>
       <c r="D89" s="34"/>
       <c r="E89" s="16" t="s">
@@ -2948,8 +2972,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="40"/>
-      <c r="B90" s="37"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="43"/>
       <c r="D90" s="34"/>
       <c r="E90" s="22" t="s">
@@ -2960,8 +2984,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="40"/>
-      <c r="B91" s="37"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="43"/>
       <c r="D91" s="34"/>
       <c r="E91" s="16" t="s">
@@ -2972,8 +2996,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="44"/>
       <c r="D92" s="35"/>
       <c r="E92" s="18"/>
@@ -2982,10 +3006,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="39" t="s">
         <v>170</v>
       </c>
       <c r="C93" s="42" t="s">
@@ -3000,8 +3024,8 @@
       <c r="F93" s="25"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="40"/>
-      <c r="B94" s="37"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="43"/>
       <c r="D94" s="34"/>
       <c r="E94" s="16" t="s">
@@ -3012,8 +3036,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A95" s="40"/>
-      <c r="B95" s="37"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="43"/>
       <c r="D95" s="34"/>
       <c r="E95" s="22" t="s">
@@ -3024,8 +3048,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="40"/>
-      <c r="B96" s="37"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="43"/>
       <c r="D96" s="34"/>
       <c r="E96" s="16" t="s">
@@ -3036,8 +3060,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
-      <c r="B97" s="38"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="44"/>
       <c r="D97" s="35"/>
       <c r="E97" s="18" t="s">
@@ -3048,10 +3072,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="39" t="s">
+      <c r="A98" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="39" t="s">
         <v>139</v>
       </c>
       <c r="C98" s="42" t="s">
@@ -3066,8 +3090,8 @@
       <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="40"/>
-      <c r="B99" s="37"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="43"/>
       <c r="D99" s="34"/>
       <c r="E99" s="16" t="s">
@@ -3078,8 +3102,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="40"/>
-      <c r="B100" s="37"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="43"/>
       <c r="D100" s="34"/>
       <c r="E100" s="22" t="s">
@@ -3090,8 +3114,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="40"/>
-      <c r="B101" s="37"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="43"/>
       <c r="D101" s="34"/>
       <c r="E101" s="16" t="s">
@@ -3102,8 +3126,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="38"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="41"/>
       <c r="C102" s="44"/>
       <c r="D102" s="35"/>
       <c r="E102" s="18"/>
@@ -3112,14 +3136,14 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="39" t="s">
+      <c r="A103" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="39" t="s">
         <v>140</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D103" s="33" t="s">
         <v>27</v>
@@ -3130,8 +3154,8 @@
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="40"/>
-      <c r="B104" s="37"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="43"/>
       <c r="D104" s="34"/>
       <c r="E104" s="16" t="s">
@@ -3142,40 +3166,174 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="40"/>
-      <c r="B105" s="37"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="43"/>
       <c r="D105" s="34"/>
       <c r="E105" s="22" t="s">
         <v>179</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="40"/>
-      <c r="B106" s="37"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="43"/>
       <c r="D106" s="34"/>
       <c r="E106" s="16"/>
       <c r="F106" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
-      <c r="B107" s="38"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="41"/>
       <c r="C107" s="44"/>
       <c r="D107" s="35"/>
       <c r="E107" s="18"/>
       <c r="F107" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D108" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A110" s="37"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="38"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="106">
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
@@ -3200,84 +3358,6 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="D51:D53"/>
     <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A98:A102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4799BC3A-34C9-4D17-8607-6BB554EA22A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB06206-36F9-4F86-A4C4-A5603757CF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="256">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -606,6 +606,195 @@
   </si>
   <si>
     <t>Search results for menu are presented</t>
+  </si>
+  <si>
+    <t>SK_27</t>
+  </si>
+  <si>
+    <t>Item Ratings</t>
+  </si>
+  <si>
+    <t>Item Answered Questions</t>
+  </si>
+  <si>
+    <t>Change Shipping Location Effect On Item's Delivery</t>
+  </si>
+  <si>
+    <t>Item Change Color</t>
+  </si>
+  <si>
+    <t>Item's Have a Question Function</t>
+  </si>
+  <si>
+    <t>Get to Know US - Careers</t>
+  </si>
+  <si>
+    <t>Sell on Amazon</t>
+  </si>
+  <si>
+    <t>Registry &amp; Gifting</t>
+  </si>
+  <si>
+    <t>4. Click ratings link</t>
+  </si>
+  <si>
+    <t>Page was scrolled to Customer reviews section</t>
+  </si>
+  <si>
+    <t>Number of ratings and rating is the same as presented at the top of the page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviews are presented </t>
+  </si>
+  <si>
+    <t>Verify that an item's page has a ratings section</t>
+  </si>
+  <si>
+    <t>SK_28</t>
+  </si>
+  <si>
+    <t>4. Click answered questions link</t>
+  </si>
+  <si>
+    <t>Number of answered questions is the same as presented at the top of the page</t>
+  </si>
+  <si>
+    <t>some questions and answers are displayed, as well as a link to the other answered questions</t>
+  </si>
+  <si>
+    <t>Verify that an item's page has a answered questions section</t>
+  </si>
+  <si>
+    <t>SK_29</t>
+  </si>
+  <si>
+    <t>4. Click a different color</t>
+  </si>
+  <si>
+    <t>Color category changes according to the selection</t>
+  </si>
+  <si>
+    <t>Verify change color of an item function works</t>
+  </si>
+  <si>
+    <t>SK_30</t>
+  </si>
+  <si>
+    <t>4. Scroll to Have a question? Section</t>
+  </si>
+  <si>
+    <t>A search bar is presented</t>
+  </si>
+  <si>
+    <t>5. Search for 'size'</t>
+  </si>
+  <si>
+    <t>QA/Reviews that contain the word 'size' are presented</t>
+  </si>
+  <si>
+    <t>Verify Have a Question about an item function works</t>
+  </si>
+  <si>
+    <t>SK_31</t>
+  </si>
+  <si>
+    <t>Add Quantity of Items to The Cart</t>
+  </si>
+  <si>
+    <t>4. Click the quantity dropdown</t>
+  </si>
+  <si>
+    <t>options 1 2 3 are presented</t>
+  </si>
+  <si>
+    <t>5. Click 2</t>
+  </si>
+  <si>
+    <t>Qty: 2 is presented</t>
+  </si>
+  <si>
+    <t>6. Click the Add to Cart button</t>
+  </si>
+  <si>
+    <t>7. Click the cart symbol in the top right area</t>
+  </si>
+  <si>
+    <t>The item is presented in the cart and the Qty:2 is presented also</t>
+  </si>
+  <si>
+    <t>SK_32</t>
+  </si>
+  <si>
+    <t>The delivery information in the item's page has changed and refers to United Kingdoms</t>
+  </si>
+  <si>
+    <t>4. Click the Deliver to Button</t>
+  </si>
+  <si>
+    <t>5. Click the dropdown option</t>
+  </si>
+  <si>
+    <t>6. Choose United Kingdom</t>
+  </si>
+  <si>
+    <t>7. Click the Done button</t>
+  </si>
+  <si>
+    <t>SK_33</t>
+  </si>
+  <si>
+    <t>2. Scroll to navigation footer</t>
+  </si>
+  <si>
+    <t>3. Click Careers, under Get to Know Us</t>
+  </si>
+  <si>
+    <t>Find jobs title and search bar are presented</t>
+  </si>
+  <si>
+    <t>Apply now option is avilable</t>
+  </si>
+  <si>
+    <t>A selected employee is presented</t>
+  </si>
+  <si>
+    <t>SK_34</t>
+  </si>
+  <si>
+    <t>Verify that amazon jobs page is displayed when Careers link is pressed in the home page</t>
+  </si>
+  <si>
+    <t>2. Click Sell in the top menu</t>
+  </si>
+  <si>
+    <t>Sell on Amazon page is displayed</t>
+  </si>
+  <si>
+    <t>Introduction to ecommerce selling section that contains the titles: What is ecommerce?, Build a business, Ecommerce fulfillment, Inventory management, What is dropshipping?, Create an Amazon storefront, Sell books on Amazon, Seller University</t>
+  </si>
+  <si>
+    <t>Start selling today section is presented</t>
+  </si>
+  <si>
+    <t>Verify Sell on Amazon page is displayed properly after clicking the Sell link</t>
+  </si>
+  <si>
+    <t>SK_35</t>
+  </si>
+  <si>
+    <t>2. Click Registry in the top menu</t>
+  </si>
+  <si>
+    <t>Registry &amp; Gifting page is displayed</t>
+  </si>
+  <si>
+    <t>Find a registry or gift lift section is presented. It includes a Search by Registrant name option, search using a dropdown and a Search button</t>
+  </si>
+  <si>
+    <t>The following categories are presented, and each of them has a picture: Wedding Registry, Baby Registry, Birthday Gift List, Custom Gift List</t>
+  </si>
+  <si>
+    <t>Verify Registry &amp; Gifting page is displayed properly after clicking the Registry link</t>
   </si>
 </sst>
 </file>
@@ -1338,6 +1527,24 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,33 +1554,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1381,18 +1582,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1847,19 +2036,19 @@
       <c r="B3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="43"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="46"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
@@ -1867,9 +2056,9 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="43"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="46"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
@@ -1877,9 +2066,9 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="40"/>
-      <c r="C6" s="43"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="47"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
@@ -1889,16 +2078,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1907,9 +2096,9 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="41"/>
-      <c r="C8" s="44"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="47"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
@@ -1975,10 +2164,10 @@
       <c r="B13" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1989,7 +2178,7 @@
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="72"/>
       <c r="B14" s="61"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="46"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
@@ -2001,7 +2190,7 @@
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" s="62"/>
-      <c r="C15" s="44"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="47"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
@@ -2010,25 +2199,25 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="40"/>
-      <c r="C17" s="43"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="46"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
@@ -2036,9 +2225,9 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="46"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
@@ -2054,7 +2243,7 @@
       <c r="B19" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -2068,7 +2257,7 @@
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="58"/>
       <c r="B20" s="61"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="28" t="s">
         <v>39</v>
       </c>
@@ -2080,7 +2269,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58"/>
       <c r="B21" s="61"/>
-      <c r="C21" s="43"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="28" t="s">
         <v>43</v>
       </c>
@@ -2092,7 +2281,7 @@
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
       <c r="B22" s="62"/>
-      <c r="C22" s="44"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="21"/>
       <c r="E22" s="19"/>
       <c r="F22" s="11" t="s">
@@ -2100,16 +2289,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2118,9 +2307,9 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="40"/>
-      <c r="C24" s="43"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="46"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
@@ -2128,9 +2317,9 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="44"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="47"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
@@ -2140,13 +2329,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="36" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -2158,9 +2347,9 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="64"/>
-      <c r="C27" s="43"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="34"/>
       <c r="E27" s="16" t="s">
         <v>49</v>
@@ -2168,9 +2357,9 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="64"/>
-      <c r="C28" s="43"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="34"/>
       <c r="E28" s="22" t="s">
         <v>56</v>
@@ -2178,9 +2367,9 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="64"/>
-      <c r="C29" s="43"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="34"/>
       <c r="E29" s="16" t="s">
         <v>57</v>
@@ -2190,9 +2379,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="64"/>
-      <c r="C30" s="43"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="34"/>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
@@ -2200,9 +2389,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="64"/>
-      <c r="C31" s="44"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="35"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
@@ -2210,13 +2399,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="36" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="33" t="s">
@@ -2228,9 +2417,9 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="40"/>
-      <c r="C33" s="43"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="34"/>
       <c r="E33" s="16" t="s">
         <v>61</v>
@@ -2240,9 +2429,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="40"/>
-      <c r="C34" s="43"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="34"/>
       <c r="E34" s="22" t="s">
         <v>63</v>
@@ -2250,9 +2439,9 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="40"/>
-      <c r="C35" s="43"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="34"/>
       <c r="E35" s="16" t="s">
         <v>64</v>
@@ -2260,9 +2449,9 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="41"/>
-      <c r="C36" s="44"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="35"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
@@ -2272,13 +2461,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="36" t="s">
         <v>71</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -2290,9 +2479,9 @@
       <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="40"/>
-      <c r="C38" s="43"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="34"/>
       <c r="E38" s="16" t="s">
         <v>61</v>
@@ -2302,9 +2491,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="40"/>
-      <c r="C39" s="43"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="34"/>
       <c r="E39" s="22" t="s">
         <v>72</v>
@@ -2312,9 +2501,9 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="40"/>
-      <c r="C40" s="43"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="34"/>
       <c r="E40" s="16" t="s">
         <v>73</v>
@@ -2324,9 +2513,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="41"/>
-      <c r="C41" s="44"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="35"/>
       <c r="E41" s="18" t="s">
         <v>74</v>
@@ -2336,16 +2525,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="42" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -2354,9 +2543,9 @@
       <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="40"/>
-      <c r="C43" s="43"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="46"/>
       <c r="E43" s="24" t="s">
         <v>79</v>
@@ -2366,9 +2555,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="40"/>
-      <c r="C44" s="43"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="46"/>
       <c r="E44" s="22" t="s">
         <v>80</v>
@@ -2378,9 +2567,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="41"/>
-      <c r="C45" s="44"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="47"/>
       <c r="E45" s="18" t="s">
         <v>85</v>
@@ -2390,13 +2579,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="48" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="36" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="29" t="s">
@@ -2408,9 +2597,9 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="41"/>
-      <c r="C47" s="44"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="27" t="s">
         <v>39</v>
       </c>
@@ -2422,13 +2611,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="48" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -2440,9 +2629,9 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="40"/>
-      <c r="C49" s="43"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="28" t="s">
         <v>39</v>
       </c>
@@ -2454,9 +2643,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="41"/>
-      <c r="C50" s="44"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="27"/>
       <c r="E50" s="12" t="s">
         <v>96</v>
@@ -2466,13 +2655,13 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="36" t="s">
         <v>121</v>
       </c>
       <c r="D51" s="55" t="s">
@@ -2484,9 +2673,9 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A52" s="37"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="40"/>
-      <c r="C52" s="43"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="56"/>
       <c r="E52" s="16" t="s">
         <v>95</v>
@@ -2496,9 +2685,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="37"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="40"/>
-      <c r="C53" s="43"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="56"/>
       <c r="E53" s="22" t="s">
         <v>100</v>
@@ -2508,9 +2697,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="37"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="40"/>
-      <c r="C54" s="43"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="80" t="s">
         <v>39</v>
       </c>
@@ -2520,9 +2709,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="41"/>
-      <c r="C55" s="44"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="81"/>
       <c r="E55" s="18" t="s">
         <v>101</v>
@@ -2532,13 +2721,13 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="42" t="s">
         <v>102</v>
       </c>
       <c r="B56" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="36" t="s">
         <v>104</v>
       </c>
       <c r="D56" s="78" t="s">
@@ -2550,9 +2739,9 @@
       <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="37"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="43"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="79"/>
       <c r="E57" s="24" t="s">
         <v>20</v>
@@ -2560,9 +2749,9 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="37"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="43"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
@@ -2574,9 +2763,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="41"/>
-      <c r="C59" s="44"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="81"/>
       <c r="E59" s="18" t="s">
         <v>110</v>
@@ -2586,13 +2775,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="42" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="36" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="33" t="s">
@@ -2604,9 +2793,9 @@
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="37"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="40"/>
-      <c r="C61" s="43"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="34"/>
       <c r="E61" s="16" t="s">
         <v>20</v>
@@ -2614,9 +2803,9 @@
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="37"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="40"/>
-      <c r="C62" s="43"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="34"/>
       <c r="E62" s="22" t="s">
         <v>105</v>
@@ -2626,9 +2815,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="37"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="40"/>
-      <c r="C63" s="43"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="34"/>
       <c r="E63" s="16" t="s">
         <v>109</v>
@@ -2636,9 +2825,9 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="41"/>
-      <c r="C64" s="44"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="35"/>
       <c r="E64" s="18" t="s">
         <v>111</v>
@@ -2648,13 +2837,13 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="42" t="s">
         <v>114</v>
       </c>
       <c r="B65" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D65" s="78" t="s">
@@ -2666,9 +2855,9 @@
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="37"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="40"/>
-      <c r="C66" s="43"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="79"/>
       <c r="E66" s="24" t="s">
         <v>20</v>
@@ -2676,9 +2865,9 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="37"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="40"/>
-      <c r="C67" s="43"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="80" t="s">
         <v>39</v>
       </c>
@@ -2690,9 +2879,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="41"/>
-      <c r="C68" s="44"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="81"/>
       <c r="E68" s="18" t="s">
         <v>117</v>
@@ -2702,16 +2891,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="42" t="s">
         <v>123</v>
       </c>
       <c r="B69" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -2720,9 +2909,9 @@
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="37"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="40"/>
-      <c r="C70" s="49"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="46"/>
       <c r="E70" s="24" t="s">
         <v>10</v>
@@ -2730,9 +2919,9 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="40"/>
-      <c r="C71" s="49"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="46"/>
       <c r="E71" s="30" t="s">
         <v>126</v>
@@ -2742,9 +2931,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="40"/>
-      <c r="C72" s="49"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="46"/>
       <c r="E72" s="22" t="s">
         <v>128</v>
@@ -2754,9 +2943,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="40"/>
-      <c r="C73" s="49"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="46"/>
       <c r="E73" s="24" t="s">
         <v>130</v>
@@ -2764,9 +2953,9 @@
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="40"/>
-      <c r="C74" s="49"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="46"/>
       <c r="E74" s="22" t="s">
         <v>131</v>
@@ -2774,9 +2963,9 @@
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="44"/>
       <c r="B75" s="41"/>
-      <c r="C75" s="50"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="47"/>
       <c r="E75" s="18" t="s">
         <v>132</v>
@@ -2786,13 +2975,13 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="48" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="36" t="s">
         <v>144</v>
       </c>
       <c r="D76" s="78" t="s">
@@ -2804,9 +2993,9 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="40"/>
-      <c r="C77" s="43"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="79"/>
       <c r="E77" s="22" t="s">
         <v>42</v>
@@ -2814,9 +3003,9 @@
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="41"/>
-      <c r="C78" s="44"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="31" t="s">
         <v>141</v>
       </c>
@@ -2828,13 +3017,13 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="42" t="s">
         <v>145</v>
       </c>
       <c r="B79" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="36" t="s">
         <v>146</v>
       </c>
       <c r="D79" s="78" t="s">
@@ -2846,9 +3035,9 @@
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="40"/>
-      <c r="C80" s="43"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="79"/>
       <c r="E80" s="16" t="s">
         <v>42</v>
@@ -2856,9 +3045,9 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="40"/>
-      <c r="C81" s="43"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="79"/>
       <c r="E81" s="22" t="s">
         <v>150</v>
@@ -2868,9 +3057,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="40"/>
-      <c r="C82" s="43"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="82" t="s">
         <v>141</v>
       </c>
@@ -2880,9 +3069,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="41"/>
-      <c r="C83" s="44"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="83"/>
       <c r="E83" s="18"/>
       <c r="F83" s="11" t="s">
@@ -2890,13 +3079,13 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="42" t="s">
         <v>149</v>
       </c>
       <c r="B84" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="36" t="s">
         <v>152</v>
       </c>
       <c r="D84" s="78" t="s">
@@ -2908,9 +3097,9 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="37"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="40"/>
-      <c r="C85" s="43"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="79"/>
       <c r="E85" s="22" t="s">
         <v>42</v>
@@ -2918,9 +3107,9 @@
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="37"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="40"/>
-      <c r="C86" s="43"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="32" t="s">
         <v>141</v>
       </c>
@@ -2932,9 +3121,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
+      <c r="A87" s="44"/>
       <c r="B87" s="41"/>
-      <c r="C87" s="44"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="31"/>
       <c r="E87" s="18"/>
       <c r="F87" s="11" t="s">
@@ -2942,13 +3131,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="42" t="s">
         <v>154</v>
       </c>
       <c r="B88" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="42" t="s">
+      <c r="C88" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D88" s="33" t="s">
@@ -2960,9 +3149,9 @@
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="40"/>
-      <c r="C89" s="43"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="34"/>
       <c r="E89" s="16" t="s">
         <v>155</v>
@@ -2972,9 +3161,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="40"/>
-      <c r="C90" s="43"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="34"/>
       <c r="E90" s="22" t="s">
         <v>156</v>
@@ -2984,9 +3173,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="40"/>
-      <c r="C91" s="43"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="34"/>
       <c r="E91" s="16" t="s">
         <v>157</v>
@@ -2996,9 +3185,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="41"/>
-      <c r="C92" s="44"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="35"/>
       <c r="E92" s="18"/>
       <c r="F92" s="11" t="s">
@@ -3006,13 +3195,13 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="36" t="s">
+      <c r="A93" s="42" t="s">
         <v>162</v>
       </c>
       <c r="B93" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="36" t="s">
         <v>169</v>
       </c>
       <c r="D93" s="33" t="s">
@@ -3024,9 +3213,9 @@
       <c r="F93" s="25"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="40"/>
-      <c r="C94" s="43"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="34"/>
       <c r="E94" s="16" t="s">
         <v>155</v>
@@ -3036,9 +3225,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="40"/>
-      <c r="C95" s="43"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="34"/>
       <c r="E95" s="22" t="s">
         <v>164</v>
@@ -3048,9 +3237,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
+      <c r="A96" s="43"/>
       <c r="B96" s="40"/>
-      <c r="C96" s="43"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="34"/>
       <c r="E96" s="16" t="s">
         <v>163</v>
@@ -3060,9 +3249,9 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="44"/>
       <c r="B97" s="41"/>
-      <c r="C97" s="44"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="35"/>
       <c r="E97" s="18" t="s">
         <v>167</v>
@@ -3072,13 +3261,13 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="36" t="s">
+      <c r="A98" s="42" t="s">
         <v>171</v>
       </c>
       <c r="B98" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="42" t="s">
+      <c r="C98" s="36" t="s">
         <v>178</v>
       </c>
       <c r="D98" s="33" t="s">
@@ -3090,9 +3279,9 @@
       <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="40"/>
-      <c r="C99" s="43"/>
+      <c r="C99" s="37"/>
       <c r="D99" s="34"/>
       <c r="E99" s="16" t="s">
         <v>155</v>
@@ -3102,9 +3291,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="40"/>
-      <c r="C100" s="43"/>
+      <c r="C100" s="37"/>
       <c r="D100" s="34"/>
       <c r="E100" s="22" t="s">
         <v>172</v>
@@ -3114,9 +3303,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
+      <c r="A101" s="43"/>
       <c r="B101" s="40"/>
-      <c r="C101" s="43"/>
+      <c r="C101" s="37"/>
       <c r="D101" s="34"/>
       <c r="E101" s="16" t="s">
         <v>174</v>
@@ -3126,9 +3315,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
+      <c r="A102" s="44"/>
       <c r="B102" s="41"/>
-      <c r="C102" s="44"/>
+      <c r="C102" s="38"/>
       <c r="D102" s="35"/>
       <c r="E102" s="18"/>
       <c r="F102" s="11" t="s">
@@ -3136,13 +3325,13 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="36" t="s">
+      <c r="A103" s="42" t="s">
         <v>177</v>
       </c>
       <c r="B103" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="42" t="s">
+      <c r="C103" s="36" t="s">
         <v>182</v>
       </c>
       <c r="D103" s="33" t="s">
@@ -3154,9 +3343,9 @@
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="37"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="40"/>
-      <c r="C104" s="43"/>
+      <c r="C104" s="37"/>
       <c r="D104" s="34"/>
       <c r="E104" s="16" t="s">
         <v>155</v>
@@ -3166,9 +3355,9 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="37"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="40"/>
-      <c r="C105" s="43"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="34"/>
       <c r="E105" s="22" t="s">
         <v>179</v>
@@ -3178,9 +3367,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="37"/>
+      <c r="A106" s="43"/>
       <c r="B106" s="40"/>
-      <c r="C106" s="43"/>
+      <c r="C106" s="37"/>
       <c r="D106" s="34"/>
       <c r="E106" s="16"/>
       <c r="F106" s="5" t="s">
@@ -3188,9 +3377,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
+      <c r="A107" s="44"/>
       <c r="B107" s="41"/>
-      <c r="C107" s="44"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="35"/>
       <c r="E107" s="18"/>
       <c r="F107" s="11" t="s">
@@ -3198,16 +3387,16 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="36" t="s">
+      <c r="A108" s="42" t="s">
         <v>186</v>
       </c>
       <c r="B108" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C108" s="42" t="s">
+      <c r="C108" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="15" t="s">
@@ -3216,9 +3405,9 @@
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="37"/>
+      <c r="A109" s="43"/>
       <c r="B109" s="40"/>
-      <c r="C109" s="43"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="46"/>
       <c r="E109" s="22" t="s">
         <v>188</v>
@@ -3226,9 +3415,9 @@
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="37"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="40"/>
-      <c r="C110" s="43"/>
+      <c r="C110" s="37"/>
       <c r="D110" s="46"/>
       <c r="E110" s="16" t="s">
         <v>189</v>
@@ -3238,9 +3427,9 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
+      <c r="A111" s="44"/>
       <c r="B111" s="41"/>
-      <c r="C111" s="44"/>
+      <c r="C111" s="38"/>
       <c r="D111" s="47"/>
       <c r="E111" s="18" t="s">
         <v>191</v>
@@ -3249,9 +3438,601 @@
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="25"/>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="49"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="49"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="49"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A116" s="49"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="50"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="25"/>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="49"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="49"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="49"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A122" s="49"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="50"/>
+      <c r="B123" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C123" s="38"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B124" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="43"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="43"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="44"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="43"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="43"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="43"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="44"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="25"/>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="43"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="43"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="43"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="43"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="43"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="44"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B140" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="43"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="43"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="43"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="43"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="43"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="44"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B147" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="43"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="43"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="43"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="44"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B152" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D152" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="43"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="43"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="44"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="47"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B156" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D156" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="43"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="43"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="44"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="142">
     <mergeCell ref="D108:D111"/>
     <mergeCell ref="C108:C111"/>
     <mergeCell ref="B108:B111"/>
@@ -3323,8 +4104,6 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -3334,6 +4113,24 @@
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="C112:C117"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="A118:A123"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
@@ -3350,14 +4147,34 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="C156:C159"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB06206-36F9-4F86-A4C4-A5603757CF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97591040-3942-4492-80CE-7002E2EA8D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
@@ -704,9 +704,6 @@
     <t>4. Click the quantity dropdown</t>
   </si>
   <si>
-    <t>options 1 2 3 are presented</t>
-  </si>
-  <si>
     <t>5. Click 2</t>
   </si>
   <si>
@@ -755,9 +752,6 @@
     <t>Apply now option is avilable</t>
   </si>
   <si>
-    <t>A selected employee is presented</t>
-  </si>
-  <si>
     <t>SK_34</t>
   </si>
   <si>
@@ -795,6 +789,12 @@
   </si>
   <si>
     <t>Verify Registry &amp; Gifting page is displayed properly after clicking the Registry link</t>
+  </si>
+  <si>
+    <t>options of consecutive numbers are presented</t>
+  </si>
+  <si>
+    <t>A selected employee is presented, including a name and a picture</t>
   </si>
 </sst>
 </file>
@@ -1518,6 +1518,42 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1527,41 +1563,17 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1572,16 +1584,74 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1590,84 +1660,14 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1985,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2020,26 +2020,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="A4" s="43"/>
       <c r="B4" s="40"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="A5" s="43"/>
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="A6" s="43"/>
       <c r="B6" s="40"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2078,7 +2078,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -2087,7 +2087,7 @@
       <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="59" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2096,10 +2096,10 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="41"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -2108,16 +2108,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="62" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -2126,20 +2126,20 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="66"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
@@ -2148,26 +2148,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="59" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2176,10 +2176,10 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2188,10 +2188,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="47"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
@@ -2199,7 +2199,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -2208,27 +2208,27 @@
       <c r="C16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="40"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="46"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="41"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="46"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -2237,10 +2237,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="68" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -2255,8 +2255,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="37"/>
       <c r="D20" s="28" t="s">
         <v>39</v>
@@ -2267,8 +2267,8 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="37"/>
       <c r="D21" s="28" t="s">
         <v>43</v>
@@ -2279,8 +2279,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="38"/>
       <c r="D22" s="21"/>
       <c r="E22" s="19"/>
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="52" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -2298,7 +2298,7 @@
       <c r="C23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="59" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2307,20 +2307,20 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="40"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="41"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="47"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
@@ -2329,16 +2329,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="77" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -2347,30 +2347,30 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
@@ -2379,20 +2379,20 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="37"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="35"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>36</v>
@@ -2408,7 +2408,7 @@
       <c r="C32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -2420,7 +2420,7 @@
       <c r="A33" s="43"/>
       <c r="B33" s="40"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="34"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="16" t="s">
         <v>61</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="A34" s="43"/>
       <c r="B34" s="40"/>
       <c r="C34" s="37"/>
-      <c r="D34" s="34"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="22" t="s">
         <v>63</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="A35" s="43"/>
       <c r="B35" s="40"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="34"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="A36" s="44"/>
       <c r="B36" s="41"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="35"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="C37" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -2482,7 +2482,7 @@
       <c r="A38" s="43"/>
       <c r="B38" s="40"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="34"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="16" t="s">
         <v>61</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="A39" s="43"/>
       <c r="B39" s="40"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="34"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="22" t="s">
         <v>72</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="A40" s="43"/>
       <c r="B40" s="40"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="16" t="s">
         <v>73</v>
       </c>
@@ -2516,7 +2516,7 @@
       <c r="A41" s="44"/>
       <c r="B41" s="41"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="35"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="18" t="s">
         <v>74</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="C42" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -2546,7 +2546,7 @@
       <c r="A43" s="43"/>
       <c r="B43" s="40"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="46"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="24" t="s">
         <v>79</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="A44" s="43"/>
       <c r="B44" s="40"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="22" t="s">
         <v>80</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="A45" s="44"/>
       <c r="B45" s="41"/>
       <c r="C45" s="38"/>
-      <c r="D45" s="47"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="18" t="s">
         <v>85</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="39" t="s">
@@ -2597,7 +2597,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="41"/>
       <c r="C47" s="38"/>
       <c r="D47" s="27" t="s">
@@ -2611,7 +2611,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="52" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="39" t="s">
@@ -2629,7 +2629,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="40"/>
       <c r="C49" s="37"/>
       <c r="D49" s="28" t="s">
@@ -2643,7 +2643,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="41"/>
       <c r="C50" s="38"/>
       <c r="D50" s="27"/>
@@ -2664,7 +2664,7 @@
       <c r="C51" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="79" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -2676,7 +2676,7 @@
       <c r="A52" s="43"/>
       <c r="B52" s="40"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="56"/>
+      <c r="D52" s="80"/>
       <c r="E52" s="16" t="s">
         <v>95</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="A53" s="43"/>
       <c r="B53" s="40"/>
       <c r="C53" s="37"/>
-      <c r="D53" s="56"/>
+      <c r="D53" s="80"/>
       <c r="E53" s="22" t="s">
         <v>100</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="A54" s="43"/>
       <c r="B54" s="40"/>
       <c r="C54" s="37"/>
-      <c r="D54" s="80" t="s">
+      <c r="D54" s="55" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="16"/>
@@ -2712,7 +2712,7 @@
       <c r="A55" s="44"/>
       <c r="B55" s="41"/>
       <c r="C55" s="38"/>
-      <c r="D55" s="81"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="18" t="s">
         <v>101</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="C56" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -2742,7 +2742,7 @@
       <c r="A57" s="43"/>
       <c r="B57" s="40"/>
       <c r="C57" s="37"/>
-      <c r="D57" s="79"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="24" t="s">
         <v>20</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="A58" s="43"/>
       <c r="B58" s="40"/>
       <c r="C58" s="37"/>
-      <c r="D58" s="80" t="s">
+      <c r="D58" s="55" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -2766,7 +2766,7 @@
       <c r="A59" s="44"/>
       <c r="B59" s="41"/>
       <c r="C59" s="38"/>
-      <c r="D59" s="81"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="18" t="s">
         <v>110</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="C60" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -2796,7 +2796,7 @@
       <c r="A61" s="43"/>
       <c r="B61" s="40"/>
       <c r="C61" s="37"/>
-      <c r="D61" s="34"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="16" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="A62" s="43"/>
       <c r="B62" s="40"/>
       <c r="C62" s="37"/>
-      <c r="D62" s="34"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="22" t="s">
         <v>105</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="A63" s="43"/>
       <c r="B63" s="40"/>
       <c r="C63" s="37"/>
-      <c r="D63" s="34"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="16" t="s">
         <v>109</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="A64" s="44"/>
       <c r="B64" s="41"/>
       <c r="C64" s="38"/>
-      <c r="D64" s="35"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="18" t="s">
         <v>111</v>
       </c>
@@ -2846,7 +2846,7 @@
       <c r="C65" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="78" t="s">
+      <c r="D65" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -2858,7 +2858,7 @@
       <c r="A66" s="43"/>
       <c r="B66" s="40"/>
       <c r="C66" s="37"/>
-      <c r="D66" s="79"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="24" t="s">
         <v>20</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="A67" s="43"/>
       <c r="B67" s="40"/>
       <c r="C67" s="37"/>
-      <c r="D67" s="80" t="s">
+      <c r="D67" s="55" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -2882,7 +2882,7 @@
       <c r="A68" s="44"/>
       <c r="B68" s="41"/>
       <c r="C68" s="38"/>
-      <c r="D68" s="81"/>
+      <c r="D68" s="56"/>
       <c r="E68" s="18" t="s">
         <v>117</v>
       </c>
@@ -2897,10 +2897,10 @@
       <c r="B69" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="59" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -2911,8 +2911,8 @@
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="43"/>
       <c r="B70" s="40"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="46"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="24" t="s">
         <v>10</v>
       </c>
@@ -2921,8 +2921,8 @@
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A71" s="43"/>
       <c r="B71" s="40"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="46"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="30" t="s">
         <v>126</v>
       </c>
@@ -2933,8 +2933,8 @@
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="43"/>
       <c r="B72" s="40"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="46"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="22" t="s">
         <v>128</v>
       </c>
@@ -2945,8 +2945,8 @@
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="43"/>
       <c r="B73" s="40"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="46"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="24" t="s">
         <v>130</v>
       </c>
@@ -2955,8 +2955,8 @@
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="43"/>
       <c r="B74" s="40"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="46"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="22" t="s">
         <v>131</v>
       </c>
@@ -2965,8 +2965,8 @@
     <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
       <c r="B75" s="41"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="47"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="18" t="s">
         <v>132</v>
       </c>
@@ -2975,7 +2975,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="52" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="39" t="s">
@@ -2984,7 +2984,7 @@
       <c r="C76" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="78" t="s">
+      <c r="D76" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="15" t="s">
@@ -2993,17 +2993,17 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="49"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="40"/>
       <c r="C77" s="37"/>
-      <c r="D77" s="79"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="41"/>
       <c r="C78" s="38"/>
       <c r="D78" s="31" t="s">
@@ -3026,7 +3026,7 @@
       <c r="C79" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="78" t="s">
+      <c r="D79" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="15" t="s">
@@ -3038,7 +3038,7 @@
       <c r="A80" s="43"/>
       <c r="B80" s="40"/>
       <c r="C80" s="37"/>
-      <c r="D80" s="79"/>
+      <c r="D80" s="49"/>
       <c r="E80" s="16" t="s">
         <v>42</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="A81" s="43"/>
       <c r="B81" s="40"/>
       <c r="C81" s="37"/>
-      <c r="D81" s="79"/>
+      <c r="D81" s="49"/>
       <c r="E81" s="22" t="s">
         <v>150</v>
       </c>
@@ -3060,7 +3060,7 @@
       <c r="A82" s="43"/>
       <c r="B82" s="40"/>
       <c r="C82" s="37"/>
-      <c r="D82" s="82" t="s">
+      <c r="D82" s="50" t="s">
         <v>141</v>
       </c>
       <c r="E82" s="16"/>
@@ -3072,7 +3072,7 @@
       <c r="A83" s="44"/>
       <c r="B83" s="41"/>
       <c r="C83" s="38"/>
-      <c r="D83" s="83"/>
+      <c r="D83" s="51"/>
       <c r="E83" s="18"/>
       <c r="F83" s="11" t="s">
         <v>183</v>
@@ -3088,7 +3088,7 @@
       <c r="C84" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="78" t="s">
+      <c r="D84" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="16" t="s">
@@ -3100,7 +3100,7 @@
       <c r="A85" s="43"/>
       <c r="B85" s="40"/>
       <c r="C85" s="37"/>
-      <c r="D85" s="79"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="22" t="s">
         <v>42</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="C88" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="15" t="s">
@@ -3152,7 +3152,7 @@
       <c r="A89" s="43"/>
       <c r="B89" s="40"/>
       <c r="C89" s="37"/>
-      <c r="D89" s="34"/>
+      <c r="D89" s="46"/>
       <c r="E89" s="16" t="s">
         <v>155</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="A90" s="43"/>
       <c r="B90" s="40"/>
       <c r="C90" s="37"/>
-      <c r="D90" s="34"/>
+      <c r="D90" s="46"/>
       <c r="E90" s="22" t="s">
         <v>156</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="A91" s="43"/>
       <c r="B91" s="40"/>
       <c r="C91" s="37"/>
-      <c r="D91" s="34"/>
+      <c r="D91" s="46"/>
       <c r="E91" s="16" t="s">
         <v>157</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="A92" s="44"/>
       <c r="B92" s="41"/>
       <c r="C92" s="38"/>
-      <c r="D92" s="35"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="18"/>
       <c r="F92" s="11" t="s">
         <v>159</v>
@@ -3204,7 +3204,7 @@
       <c r="C93" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="15" t="s">
@@ -3216,7 +3216,7 @@
       <c r="A94" s="43"/>
       <c r="B94" s="40"/>
       <c r="C94" s="37"/>
-      <c r="D94" s="34"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="16" t="s">
         <v>155</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="A95" s="43"/>
       <c r="B95" s="40"/>
       <c r="C95" s="37"/>
-      <c r="D95" s="34"/>
+      <c r="D95" s="46"/>
       <c r="E95" s="22" t="s">
         <v>164</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="A96" s="43"/>
       <c r="B96" s="40"/>
       <c r="C96" s="37"/>
-      <c r="D96" s="34"/>
+      <c r="D96" s="46"/>
       <c r="E96" s="16" t="s">
         <v>163</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="A97" s="44"/>
       <c r="B97" s="41"/>
       <c r="C97" s="38"/>
-      <c r="D97" s="35"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="18" t="s">
         <v>167</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="C98" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="15" t="s">
@@ -3282,7 +3282,7 @@
       <c r="A99" s="43"/>
       <c r="B99" s="40"/>
       <c r="C99" s="37"/>
-      <c r="D99" s="34"/>
+      <c r="D99" s="46"/>
       <c r="E99" s="16" t="s">
         <v>155</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="A100" s="43"/>
       <c r="B100" s="40"/>
       <c r="C100" s="37"/>
-      <c r="D100" s="34"/>
+      <c r="D100" s="46"/>
       <c r="E100" s="22" t="s">
         <v>172</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="A101" s="43"/>
       <c r="B101" s="40"/>
       <c r="C101" s="37"/>
-      <c r="D101" s="34"/>
+      <c r="D101" s="46"/>
       <c r="E101" s="16" t="s">
         <v>174</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="A102" s="44"/>
       <c r="B102" s="41"/>
       <c r="C102" s="38"/>
-      <c r="D102" s="35"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="18"/>
       <c r="F102" s="11" t="s">
         <v>176</v>
@@ -3334,7 +3334,7 @@
       <c r="C103" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="15" t="s">
@@ -3346,7 +3346,7 @@
       <c r="A104" s="43"/>
       <c r="B104" s="40"/>
       <c r="C104" s="37"/>
-      <c r="D104" s="34"/>
+      <c r="D104" s="46"/>
       <c r="E104" s="16" t="s">
         <v>155</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="A105" s="43"/>
       <c r="B105" s="40"/>
       <c r="C105" s="37"/>
-      <c r="D105" s="34"/>
+      <c r="D105" s="46"/>
       <c r="E105" s="22" t="s">
         <v>179</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="A106" s="43"/>
       <c r="B106" s="40"/>
       <c r="C106" s="37"/>
-      <c r="D106" s="34"/>
+      <c r="D106" s="46"/>
       <c r="E106" s="16"/>
       <c r="F106" s="5" t="s">
         <v>180</v>
@@ -3380,7 +3380,7 @@
       <c r="A107" s="44"/>
       <c r="B107" s="41"/>
       <c r="C107" s="38"/>
-      <c r="D107" s="35"/>
+      <c r="D107" s="47"/>
       <c r="E107" s="18"/>
       <c r="F107" s="11" t="s">
         <v>181</v>
@@ -3396,7 +3396,7 @@
       <c r="C108" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D108" s="45" t="s">
+      <c r="D108" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="15" t="s">
@@ -3408,7 +3408,7 @@
       <c r="A109" s="43"/>
       <c r="B109" s="40"/>
       <c r="C109" s="37"/>
-      <c r="D109" s="46"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="22" t="s">
         <v>188</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="A110" s="43"/>
       <c r="B110" s="40"/>
       <c r="C110" s="37"/>
-      <c r="D110" s="46"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="16" t="s">
         <v>189</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="A111" s="44"/>
       <c r="B111" s="41"/>
       <c r="C111" s="38"/>
-      <c r="D111" s="47"/>
+      <c r="D111" s="35"/>
       <c r="E111" s="18" t="s">
         <v>191</v>
       </c>
@@ -3439,7 +3439,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="52" t="s">
         <v>193</v>
       </c>
       <c r="B112" s="39" t="s">
@@ -3448,7 +3448,7 @@
       <c r="C112" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D112" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="15" t="s">
@@ -3457,20 +3457,20 @@
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="49"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="40"/>
       <c r="C113" s="37"/>
-      <c r="D113" s="34"/>
+      <c r="D113" s="46"/>
       <c r="E113" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="49"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="40"/>
       <c r="C114" s="37"/>
-      <c r="D114" s="34"/>
+      <c r="D114" s="46"/>
       <c r="E114" s="16" t="s">
         <v>122</v>
       </c>
@@ -3479,10 +3479,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="49"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="40"/>
       <c r="C115" s="37"/>
-      <c r="D115" s="34"/>
+      <c r="D115" s="46"/>
       <c r="E115" s="22" t="s">
         <v>202</v>
       </c>
@@ -3491,27 +3491,27 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A116" s="49"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="40"/>
       <c r="C116" s="37"/>
-      <c r="D116" s="34"/>
+      <c r="D116" s="46"/>
       <c r="E116" s="16"/>
       <c r="F116" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="50"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="41"/>
       <c r="C117" s="38"/>
-      <c r="D117" s="35"/>
+      <c r="D117" s="47"/>
       <c r="E117" s="18"/>
       <c r="F117" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="48" t="s">
+      <c r="A118" s="52" t="s">
         <v>207</v>
       </c>
       <c r="B118" s="39" t="s">
@@ -3520,7 +3520,7 @@
       <c r="C118" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E118" s="15" t="s">
@@ -3529,20 +3529,20 @@
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="49"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="40"/>
       <c r="C119" s="37"/>
-      <c r="D119" s="34"/>
+      <c r="D119" s="46"/>
       <c r="E119" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="49"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="40"/>
       <c r="C120" s="37"/>
-      <c r="D120" s="34"/>
+      <c r="D120" s="46"/>
       <c r="E120" s="16" t="s">
         <v>122</v>
       </c>
@@ -3551,10 +3551,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="49"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="40"/>
       <c r="C121" s="37"/>
-      <c r="D121" s="34"/>
+      <c r="D121" s="46"/>
       <c r="E121" s="22" t="s">
         <v>208</v>
       </c>
@@ -3563,22 +3563,22 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A122" s="49"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="40"/>
       <c r="C122" s="37"/>
-      <c r="D122" s="34"/>
+      <c r="D122" s="46"/>
       <c r="E122" s="16"/>
       <c r="F122" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="50"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="41" t="s">
         <v>195</v>
       </c>
       <c r="C123" s="38"/>
-      <c r="D123" s="35"/>
+      <c r="D123" s="47"/>
       <c r="E123" s="18"/>
       <c r="F123" s="11" t="s">
         <v>210</v>
@@ -3594,7 +3594,7 @@
       <c r="C124" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="D124" s="45" t="s">
+      <c r="D124" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E124" s="15" t="s">
@@ -3606,7 +3606,7 @@
       <c r="A125" s="43"/>
       <c r="B125" s="40"/>
       <c r="C125" s="37"/>
-      <c r="D125" s="46"/>
+      <c r="D125" s="34"/>
       <c r="E125" s="22" t="s">
         <v>20</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="A126" s="43"/>
       <c r="B126" s="40"/>
       <c r="C126" s="37"/>
-      <c r="D126" s="46"/>
+      <c r="D126" s="34"/>
       <c r="E126" s="16" t="s">
         <v>105</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="A127" s="44"/>
       <c r="B127" s="41"/>
       <c r="C127" s="38"/>
-      <c r="D127" s="47"/>
+      <c r="D127" s="35"/>
       <c r="E127" s="18" t="s">
         <v>213</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="C128" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D128" s="33" t="s">
+      <c r="D128" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E128" s="24" t="s">
@@ -3658,7 +3658,7 @@
       <c r="A129" s="43"/>
       <c r="B129" s="40"/>
       <c r="C129" s="37"/>
-      <c r="D129" s="34"/>
+      <c r="D129" s="46"/>
       <c r="E129" s="16" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="A130" s="43"/>
       <c r="B130" s="40"/>
       <c r="C130" s="37"/>
-      <c r="D130" s="34"/>
+      <c r="D130" s="46"/>
       <c r="E130" s="22" t="s">
         <v>122</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="A131" s="43"/>
       <c r="B131" s="40"/>
       <c r="C131" s="37"/>
-      <c r="D131" s="34"/>
+      <c r="D131" s="46"/>
       <c r="E131" s="16" t="s">
         <v>217</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="A132" s="44"/>
       <c r="B132" s="41"/>
       <c r="C132" s="38"/>
-      <c r="D132" s="35"/>
+      <c r="D132" s="47"/>
       <c r="E132" s="18" t="s">
         <v>219</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="C133" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D133" s="33" t="s">
+      <c r="D133" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E133" s="15" t="s">
@@ -3722,7 +3722,7 @@
       <c r="A134" s="43"/>
       <c r="B134" s="40"/>
       <c r="C134" s="37"/>
-      <c r="D134" s="34"/>
+      <c r="D134" s="46"/>
       <c r="E134" s="16" t="s">
         <v>20</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="A135" s="43"/>
       <c r="B135" s="40"/>
       <c r="C135" s="37"/>
-      <c r="D135" s="34"/>
+      <c r="D135" s="46"/>
       <c r="E135" s="16" t="s">
         <v>122</v>
       </c>
@@ -3744,33 +3744,33 @@
       <c r="A136" s="43"/>
       <c r="B136" s="40"/>
       <c r="C136" s="37"/>
-      <c r="D136" s="34"/>
+      <c r="D136" s="46"/>
       <c r="E136" s="22" t="s">
         <v>224</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="43"/>
       <c r="B137" s="40"/>
       <c r="C137" s="37"/>
-      <c r="D137" s="34"/>
+      <c r="D137" s="46"/>
       <c r="E137" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F137" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A138" s="43"/>
       <c r="B138" s="40"/>
       <c r="C138" s="37"/>
-      <c r="D138" s="34"/>
+      <c r="D138" s="46"/>
       <c r="E138" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F138" s="5"/>
     </row>
@@ -3778,17 +3778,17 @@
       <c r="A139" s="44"/>
       <c r="B139" s="41"/>
       <c r="C139" s="38"/>
-      <c r="D139" s="35"/>
+      <c r="D139" s="47"/>
       <c r="E139" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F139" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A140" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B140" s="39" t="s">
         <v>196</v>
@@ -3796,7 +3796,7 @@
       <c r="C140" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="D140" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E140" s="15" t="s">
@@ -3808,7 +3808,7 @@
       <c r="A141" s="43"/>
       <c r="B141" s="40"/>
       <c r="C141" s="37"/>
-      <c r="D141" s="34"/>
+      <c r="D141" s="46"/>
       <c r="E141" s="16" t="s">
         <v>20</v>
       </c>
@@ -3818,7 +3818,7 @@
       <c r="A142" s="43"/>
       <c r="B142" s="40"/>
       <c r="C142" s="37"/>
-      <c r="D142" s="34"/>
+      <c r="D142" s="46"/>
       <c r="E142" s="16" t="s">
         <v>122</v>
       </c>
@@ -3830,9 +3830,9 @@
       <c r="A143" s="43"/>
       <c r="B143" s="40"/>
       <c r="C143" s="37"/>
-      <c r="D143" s="34"/>
+      <c r="D143" s="46"/>
       <c r="E143" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>77</v>
@@ -3842,9 +3842,9 @@
       <c r="A144" s="43"/>
       <c r="B144" s="40"/>
       <c r="C144" s="37"/>
-      <c r="D144" s="34"/>
+      <c r="D144" s="46"/>
       <c r="E144" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F144" s="5"/>
     </row>
@@ -3852,9 +3852,9 @@
       <c r="A145" s="43"/>
       <c r="B145" s="40"/>
       <c r="C145" s="37"/>
-      <c r="D145" s="34"/>
+      <c r="D145" s="46"/>
       <c r="E145" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F145" s="5"/>
     </row>
@@ -3862,25 +3862,25 @@
       <c r="A146" s="44"/>
       <c r="B146" s="41"/>
       <c r="C146" s="38"/>
-      <c r="D146" s="35"/>
+      <c r="D146" s="47"/>
       <c r="E146" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A147" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B147" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="D147" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D147" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E147" s="24" t="s">
@@ -3892,9 +3892,9 @@
       <c r="A148" s="43"/>
       <c r="B148" s="40"/>
       <c r="C148" s="37"/>
-      <c r="D148" s="34"/>
+      <c r="D148" s="46"/>
       <c r="E148" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F148" s="5"/>
     </row>
@@ -3902,45 +3902,45 @@
       <c r="A149" s="43"/>
       <c r="B149" s="40"/>
       <c r="C149" s="37"/>
-      <c r="D149" s="34"/>
+      <c r="D149" s="46"/>
       <c r="E149" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F149" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="43"/>
       <c r="B150" s="40"/>
       <c r="C150" s="37"/>
-      <c r="D150" s="34"/>
+      <c r="D150" s="46"/>
       <c r="E150" s="16"/>
       <c r="F150" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="44"/>
       <c r="B151" s="41"/>
       <c r="C151" s="38"/>
-      <c r="D151" s="35"/>
+      <c r="D151" s="47"/>
       <c r="E151" s="18"/>
       <c r="F151" s="11" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A152" s="42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B152" s="39" t="s">
         <v>200</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="D152" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D152" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E152" s="16" t="s">
@@ -3952,45 +3952,45 @@
       <c r="A153" s="43"/>
       <c r="B153" s="40"/>
       <c r="C153" s="37"/>
-      <c r="D153" s="46"/>
+      <c r="D153" s="34"/>
       <c r="E153" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A154" s="43"/>
       <c r="B154" s="40"/>
       <c r="C154" s="37"/>
-      <c r="D154" s="46"/>
+      <c r="D154" s="34"/>
       <c r="E154" s="16"/>
       <c r="F154" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="44"/>
       <c r="B155" s="41"/>
       <c r="C155" s="38"/>
-      <c r="D155" s="47"/>
+      <c r="D155" s="35"/>
       <c r="E155" s="18"/>
       <c r="F155" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A156" s="42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B156" s="39" t="s">
         <v>201</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="D156" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D156" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E156" s="16" t="s">
@@ -4002,127 +4002,65 @@
       <c r="A157" s="43"/>
       <c r="B157" s="40"/>
       <c r="C157" s="37"/>
-      <c r="D157" s="46"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A158" s="43"/>
       <c r="B158" s="40"/>
       <c r="C158" s="37"/>
-      <c r="D158" s="46"/>
+      <c r="D158" s="34"/>
       <c r="E158" s="16"/>
       <c r="F158" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="44"/>
       <c r="B159" s="41"/>
       <c r="C159" s="38"/>
-      <c r="D159" s="47"/>
+      <c r="D159" s="35"/>
       <c r="E159" s="18"/>
       <c r="F159" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A128:A132"/>
     <mergeCell ref="A112:A117"/>
     <mergeCell ref="B112:B117"/>
     <mergeCell ref="C112:C117"/>
@@ -4147,34 +4085,96 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D140:D146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A98:A102"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97591040-3942-4492-80CE-7002E2EA8D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C44B3-145C-4090-9092-03869B65E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="309">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -782,9 +782,6 @@
     <t>Registry &amp; Gifting page is displayed</t>
   </si>
   <si>
-    <t>Find a registry or gift lift section is presented. It includes a Search by Registrant name option, search using a dropdown and a Search button</t>
-  </si>
-  <si>
     <t>The following categories are presented, and each of them has a picture: Wedding Registry, Baby Registry, Birthday Gift List, Custom Gift List</t>
   </si>
   <si>
@@ -795,6 +792,172 @@
   </si>
   <si>
     <t>A selected employee is presented, including a name and a picture</t>
+  </si>
+  <si>
+    <t>Sort Search Results By Price: Low to High</t>
+  </si>
+  <si>
+    <t>Sort Search Results By Avg. Customer Review</t>
+  </si>
+  <si>
+    <t>Browse Help Topics</t>
+  </si>
+  <si>
+    <t>SK_36</t>
+  </si>
+  <si>
+    <t>Find a registry or gift list section is presented. It includes a Search by Registrant name option, search using a dropdown and a Search button</t>
+  </si>
+  <si>
+    <t>3. Scroll down to Browse Help Topics section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. hover over Where's My Stuff? </t>
+  </si>
+  <si>
+    <t>Where's My Stuff? Title is presented, along with the links: 
+Find a Missing Package that Shows as Delivered
+Contact Shipping Carrier
+Track Your Package
+More in Where's My Stuff</t>
+  </si>
+  <si>
+    <t>5. Click More in Where's My Stuff</t>
+  </si>
+  <si>
+    <t>Where's My Stuff? Page is Presented</t>
+  </si>
+  <si>
+    <t>Verify that Browse Help Topics in Customer Service page functions</t>
+  </si>
+  <si>
+    <t>SK_37</t>
+  </si>
+  <si>
+    <t>3. Click the sort drop down</t>
+  </si>
+  <si>
+    <t>4. Click Price: Low to High</t>
+  </si>
+  <si>
+    <t>Presented items are sorted by price, from low to high</t>
+  </si>
+  <si>
+    <t>Verify sorting search results by price, low to high, works</t>
+  </si>
+  <si>
+    <t>SK_38</t>
+  </si>
+  <si>
+    <t>SK_39</t>
+  </si>
+  <si>
+    <t>Presented items are sorted, avg. review first</t>
+  </si>
+  <si>
+    <t>4. Click Avg. Customer Review</t>
+  </si>
+  <si>
+    <t>3. Click the Climate Pledge Friendly checkbox</t>
+  </si>
+  <si>
+    <t>4. Hover over one of the See 1 certification links</t>
+  </si>
+  <si>
+    <t>A popover is presented. It contains information about Climate Pledge Friendly and the certification</t>
+  </si>
+  <si>
+    <t>Verify cheking the Climate Pledge Friendly checkbox in the search results page works</t>
+  </si>
+  <si>
+    <t>SK_40</t>
+  </si>
+  <si>
+    <t>Filter Search Results - Department</t>
+  </si>
+  <si>
+    <t>Filter Search Results - Climate Pledge Friendly</t>
+  </si>
+  <si>
+    <t>Filter Search Results - Customer Reviews</t>
+  </si>
+  <si>
+    <t>Filter Search Results - Brand</t>
+  </si>
+  <si>
+    <t>Filter Search Results - Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Choose the Smartwatches department on the left </t>
+  </si>
+  <si>
+    <t>The chosen filter is displayed on the left</t>
+  </si>
+  <si>
+    <t>All presented items are a Smart Watch or an Apple Watch</t>
+  </si>
+  <si>
+    <t>Verify using the department filter on search results works</t>
+  </si>
+  <si>
+    <t>SK_41</t>
+  </si>
+  <si>
+    <t>Verify using the Customer Reviews filter on search results works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Choose the 4 Stars &amp; Up on the left </t>
+  </si>
+  <si>
+    <t>All presented items have 4 Stars &amp; Up</t>
+  </si>
+  <si>
+    <t>SK_42</t>
+  </si>
+  <si>
+    <t>Verify using the Brand filter on search results works</t>
+  </si>
+  <si>
+    <t>All presented items are Apple watches</t>
+  </si>
+  <si>
+    <t>SK_43</t>
+  </si>
+  <si>
+    <t>Verify using the Price filter on search results works</t>
+  </si>
+  <si>
+    <t>Use Various Filters on Search Results</t>
+  </si>
+  <si>
+    <t>3. Set Min price to 50</t>
+  </si>
+  <si>
+    <t>4. Set Max price to 100</t>
+  </si>
+  <si>
+    <t>5. Click the Done button in the range price area</t>
+  </si>
+  <si>
+    <t>SK_44</t>
+  </si>
+  <si>
+    <t>3. Choose the brand Apple</t>
+  </si>
+  <si>
+    <t>4. Choose the brand Apple</t>
+  </si>
+  <si>
+    <t>All presented items are Apple branded and have 4 Stars &amp; Up</t>
+  </si>
+  <si>
+    <t>Verify using both a brand filter and a customer reviews filter on search results works</t>
+  </si>
+  <si>
+    <t>Presented items have a Climate Pledge Friendly text</t>
+  </si>
+  <si>
+    <t>Presented items are in the chosen price range</t>
   </si>
 </sst>
 </file>
@@ -1518,6 +1681,42 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1527,40 +1726,92 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1569,105 +1820,17 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F194" sqref="F194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2020,26 +2183,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2049,7 +2212,7 @@
       <c r="A4" s="43"/>
       <c r="B4" s="40"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="34"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2222,7 @@
       <c r="A5" s="43"/>
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="34"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2069,7 +2232,7 @@
       <c r="A6" s="43"/>
       <c r="B6" s="40"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="35"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2078,7 +2241,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -2087,7 +2250,7 @@
       <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2096,10 +2259,10 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="41"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="35"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -2108,16 +2271,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="65" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -2126,20 +2289,20 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="63"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="63"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
@@ -2148,26 +2311,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="60" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2176,10 +2339,10 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="34"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2188,10 +2351,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="35"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
@@ -2199,7 +2362,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -2208,27 +2371,27 @@
       <c r="C16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="40"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="34"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="41"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="34"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -2237,10 +2400,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="60" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -2255,8 +2418,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="37"/>
       <c r="D20" s="28" t="s">
         <v>39</v>
@@ -2267,8 +2430,8 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="37"/>
       <c r="D21" s="28" t="s">
         <v>43</v>
@@ -2279,8 +2442,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="38"/>
       <c r="D22" s="21"/>
       <c r="E22" s="19"/>
@@ -2289,7 +2452,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -2298,7 +2461,7 @@
       <c r="C23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2307,20 +2470,20 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="40"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="41"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="35"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
@@ -2329,16 +2492,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="63" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -2347,30 +2510,30 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="46"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="46"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="78"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
@@ -2379,20 +2542,20 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="37"/>
-      <c r="D30" s="46"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="47"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>36</v>
@@ -2408,7 +2571,7 @@
       <c r="C32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -2420,7 +2583,7 @@
       <c r="A33" s="43"/>
       <c r="B33" s="40"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="46"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="16" t="s">
         <v>61</v>
       </c>
@@ -2432,7 +2595,7 @@
       <c r="A34" s="43"/>
       <c r="B34" s="40"/>
       <c r="C34" s="37"/>
-      <c r="D34" s="46"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="22" t="s">
         <v>63</v>
       </c>
@@ -2442,7 +2605,7 @@
       <c r="A35" s="43"/>
       <c r="B35" s="40"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
@@ -2452,7 +2615,7 @@
       <c r="A36" s="44"/>
       <c r="B36" s="41"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="47"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -2470,7 +2633,7 @@
       <c r="C37" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -2482,7 +2645,7 @@
       <c r="A38" s="43"/>
       <c r="B38" s="40"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="46"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="16" t="s">
         <v>61</v>
       </c>
@@ -2494,7 +2657,7 @@
       <c r="A39" s="43"/>
       <c r="B39" s="40"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="22" t="s">
         <v>72</v>
       </c>
@@ -2504,7 +2667,7 @@
       <c r="A40" s="43"/>
       <c r="B40" s="40"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="46"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="16" t="s">
         <v>73</v>
       </c>
@@ -2516,7 +2679,7 @@
       <c r="A41" s="44"/>
       <c r="B41" s="41"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="47"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="18" t="s">
         <v>74</v>
       </c>
@@ -2534,7 +2697,7 @@
       <c r="C42" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -2546,7 +2709,7 @@
       <c r="A43" s="43"/>
       <c r="B43" s="40"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="34"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="24" t="s">
         <v>79</v>
       </c>
@@ -2558,7 +2721,7 @@
       <c r="A44" s="43"/>
       <c r="B44" s="40"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="34"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="22" t="s">
         <v>80</v>
       </c>
@@ -2570,7 +2733,7 @@
       <c r="A45" s="44"/>
       <c r="B45" s="41"/>
       <c r="C45" s="38"/>
-      <c r="D45" s="35"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="18" t="s">
         <v>85</v>
       </c>
@@ -2579,7 +2742,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="48" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="39" t="s">
@@ -2597,7 +2760,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="41"/>
       <c r="C47" s="38"/>
       <c r="D47" s="27" t="s">
@@ -2611,7 +2774,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="48" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="39" t="s">
@@ -2629,7 +2792,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="40"/>
       <c r="C49" s="37"/>
       <c r="D49" s="28" t="s">
@@ -2643,7 +2806,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="41"/>
       <c r="C50" s="38"/>
       <c r="D50" s="27"/>
@@ -2664,7 +2827,7 @@
       <c r="C51" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="79" t="s">
+      <c r="D51" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -2676,7 +2839,7 @@
       <c r="A52" s="43"/>
       <c r="B52" s="40"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="80"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="16" t="s">
         <v>95</v>
       </c>
@@ -2688,7 +2851,7 @@
       <c r="A53" s="43"/>
       <c r="B53" s="40"/>
       <c r="C53" s="37"/>
-      <c r="D53" s="80"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="22" t="s">
         <v>100</v>
       </c>
@@ -2700,7 +2863,7 @@
       <c r="A54" s="43"/>
       <c r="B54" s="40"/>
       <c r="C54" s="37"/>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="16"/>
@@ -2712,7 +2875,7 @@
       <c r="A55" s="44"/>
       <c r="B55" s="41"/>
       <c r="C55" s="38"/>
-      <c r="D55" s="56"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="18" t="s">
         <v>101</v>
       </c>
@@ -2730,7 +2893,7 @@
       <c r="C56" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -2742,7 +2905,7 @@
       <c r="A57" s="43"/>
       <c r="B57" s="40"/>
       <c r="C57" s="37"/>
-      <c r="D57" s="49"/>
+      <c r="D57" s="79"/>
       <c r="E57" s="24" t="s">
         <v>20</v>
       </c>
@@ -2752,7 +2915,7 @@
       <c r="A58" s="43"/>
       <c r="B58" s="40"/>
       <c r="C58" s="37"/>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -2766,7 +2929,7 @@
       <c r="A59" s="44"/>
       <c r="B59" s="41"/>
       <c r="C59" s="38"/>
-      <c r="D59" s="56"/>
+      <c r="D59" s="81"/>
       <c r="E59" s="18" t="s">
         <v>110</v>
       </c>
@@ -2784,7 +2947,7 @@
       <c r="C60" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -2796,7 +2959,7 @@
       <c r="A61" s="43"/>
       <c r="B61" s="40"/>
       <c r="C61" s="37"/>
-      <c r="D61" s="46"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="16" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2969,7 @@
       <c r="A62" s="43"/>
       <c r="B62" s="40"/>
       <c r="C62" s="37"/>
-      <c r="D62" s="46"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="22" t="s">
         <v>105</v>
       </c>
@@ -2818,7 +2981,7 @@
       <c r="A63" s="43"/>
       <c r="B63" s="40"/>
       <c r="C63" s="37"/>
-      <c r="D63" s="46"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="16" t="s">
         <v>109</v>
       </c>
@@ -2828,7 +2991,7 @@
       <c r="A64" s="44"/>
       <c r="B64" s="41"/>
       <c r="C64" s="38"/>
-      <c r="D64" s="47"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="18" t="s">
         <v>111</v>
       </c>
@@ -2846,7 +3009,7 @@
       <c r="C65" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -2858,7 +3021,7 @@
       <c r="A66" s="43"/>
       <c r="B66" s="40"/>
       <c r="C66" s="37"/>
-      <c r="D66" s="49"/>
+      <c r="D66" s="79"/>
       <c r="E66" s="24" t="s">
         <v>20</v>
       </c>
@@ -2868,7 +3031,7 @@
       <c r="A67" s="43"/>
       <c r="B67" s="40"/>
       <c r="C67" s="37"/>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -2882,7 +3045,7 @@
       <c r="A68" s="44"/>
       <c r="B68" s="41"/>
       <c r="C68" s="38"/>
-      <c r="D68" s="56"/>
+      <c r="D68" s="81"/>
       <c r="E68" s="18" t="s">
         <v>117</v>
       </c>
@@ -2897,10 +3060,10 @@
       <c r="B69" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -2911,8 +3074,8 @@
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="43"/>
       <c r="B70" s="40"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="34"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="24" t="s">
         <v>10</v>
       </c>
@@ -2921,8 +3084,8 @@
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
       <c r="A71" s="43"/>
       <c r="B71" s="40"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="34"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="30" t="s">
         <v>126</v>
       </c>
@@ -2933,8 +3096,8 @@
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="43"/>
       <c r="B72" s="40"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="34"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="46"/>
       <c r="E72" s="22" t="s">
         <v>128</v>
       </c>
@@ -2945,8 +3108,8 @@
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="43"/>
       <c r="B73" s="40"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="34"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="46"/>
       <c r="E73" s="24" t="s">
         <v>130</v>
       </c>
@@ -2955,8 +3118,8 @@
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="43"/>
       <c r="B74" s="40"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="34"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="22" t="s">
         <v>131</v>
       </c>
@@ -2965,8 +3128,8 @@
     <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
       <c r="B75" s="41"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="35"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="18" t="s">
         <v>132</v>
       </c>
@@ -2975,7 +3138,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="48" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="39" t="s">
@@ -2984,7 +3147,7 @@
       <c r="C76" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="15" t="s">
@@ -2993,17 +3156,17 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="53"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="40"/>
       <c r="C77" s="37"/>
-      <c r="D77" s="49"/>
+      <c r="D77" s="79"/>
       <c r="E77" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="41"/>
       <c r="C78" s="38"/>
       <c r="D78" s="31" t="s">
@@ -3026,7 +3189,7 @@
       <c r="C79" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="48" t="s">
+      <c r="D79" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="15" t="s">
@@ -3038,7 +3201,7 @@
       <c r="A80" s="43"/>
       <c r="B80" s="40"/>
       <c r="C80" s="37"/>
-      <c r="D80" s="49"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="16" t="s">
         <v>42</v>
       </c>
@@ -3048,7 +3211,7 @@
       <c r="A81" s="43"/>
       <c r="B81" s="40"/>
       <c r="C81" s="37"/>
-      <c r="D81" s="49"/>
+      <c r="D81" s="79"/>
       <c r="E81" s="22" t="s">
         <v>150</v>
       </c>
@@ -3060,7 +3223,7 @@
       <c r="A82" s="43"/>
       <c r="B82" s="40"/>
       <c r="C82" s="37"/>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="82" t="s">
         <v>141</v>
       </c>
       <c r="E82" s="16"/>
@@ -3072,7 +3235,7 @@
       <c r="A83" s="44"/>
       <c r="B83" s="41"/>
       <c r="C83" s="38"/>
-      <c r="D83" s="51"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="18"/>
       <c r="F83" s="11" t="s">
         <v>183</v>
@@ -3088,7 +3251,7 @@
       <c r="C84" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D84" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="16" t="s">
@@ -3100,7 +3263,7 @@
       <c r="A85" s="43"/>
       <c r="B85" s="40"/>
       <c r="C85" s="37"/>
-      <c r="D85" s="49"/>
+      <c r="D85" s="79"/>
       <c r="E85" s="22" t="s">
         <v>42</v>
       </c>
@@ -3140,7 +3303,7 @@
       <c r="C88" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="45" t="s">
+      <c r="D88" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="15" t="s">
@@ -3152,7 +3315,7 @@
       <c r="A89" s="43"/>
       <c r="B89" s="40"/>
       <c r="C89" s="37"/>
-      <c r="D89" s="46"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="16" t="s">
         <v>155</v>
       </c>
@@ -3164,7 +3327,7 @@
       <c r="A90" s="43"/>
       <c r="B90" s="40"/>
       <c r="C90" s="37"/>
-      <c r="D90" s="46"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="22" t="s">
         <v>156</v>
       </c>
@@ -3176,7 +3339,7 @@
       <c r="A91" s="43"/>
       <c r="B91" s="40"/>
       <c r="C91" s="37"/>
-      <c r="D91" s="46"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="16" t="s">
         <v>157</v>
       </c>
@@ -3188,7 +3351,7 @@
       <c r="A92" s="44"/>
       <c r="B92" s="41"/>
       <c r="C92" s="38"/>
-      <c r="D92" s="47"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="18"/>
       <c r="F92" s="11" t="s">
         <v>159</v>
@@ -3204,7 +3367,7 @@
       <c r="C93" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="45" t="s">
+      <c r="D93" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="15" t="s">
@@ -3216,7 +3379,7 @@
       <c r="A94" s="43"/>
       <c r="B94" s="40"/>
       <c r="C94" s="37"/>
-      <c r="D94" s="46"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="16" t="s">
         <v>155</v>
       </c>
@@ -3228,7 +3391,7 @@
       <c r="A95" s="43"/>
       <c r="B95" s="40"/>
       <c r="C95" s="37"/>
-      <c r="D95" s="46"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="22" t="s">
         <v>164</v>
       </c>
@@ -3240,7 +3403,7 @@
       <c r="A96" s="43"/>
       <c r="B96" s="40"/>
       <c r="C96" s="37"/>
-      <c r="D96" s="46"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="16" t="s">
         <v>163</v>
       </c>
@@ -3252,7 +3415,7 @@
       <c r="A97" s="44"/>
       <c r="B97" s="41"/>
       <c r="C97" s="38"/>
-      <c r="D97" s="47"/>
+      <c r="D97" s="35"/>
       <c r="E97" s="18" t="s">
         <v>167</v>
       </c>
@@ -3270,7 +3433,7 @@
       <c r="C98" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="45" t="s">
+      <c r="D98" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="15" t="s">
@@ -3282,7 +3445,7 @@
       <c r="A99" s="43"/>
       <c r="B99" s="40"/>
       <c r="C99" s="37"/>
-      <c r="D99" s="46"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="16" t="s">
         <v>155</v>
       </c>
@@ -3294,7 +3457,7 @@
       <c r="A100" s="43"/>
       <c r="B100" s="40"/>
       <c r="C100" s="37"/>
-      <c r="D100" s="46"/>
+      <c r="D100" s="34"/>
       <c r="E100" s="22" t="s">
         <v>172</v>
       </c>
@@ -3306,7 +3469,7 @@
       <c r="A101" s="43"/>
       <c r="B101" s="40"/>
       <c r="C101" s="37"/>
-      <c r="D101" s="46"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="16" t="s">
         <v>174</v>
       </c>
@@ -3318,7 +3481,7 @@
       <c r="A102" s="44"/>
       <c r="B102" s="41"/>
       <c r="C102" s="38"/>
-      <c r="D102" s="47"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="18"/>
       <c r="F102" s="11" t="s">
         <v>176</v>
@@ -3334,7 +3497,7 @@
       <c r="C103" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="15" t="s">
@@ -3346,7 +3509,7 @@
       <c r="A104" s="43"/>
       <c r="B104" s="40"/>
       <c r="C104" s="37"/>
-      <c r="D104" s="46"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="16" t="s">
         <v>155</v>
       </c>
@@ -3358,7 +3521,7 @@
       <c r="A105" s="43"/>
       <c r="B105" s="40"/>
       <c r="C105" s="37"/>
-      <c r="D105" s="46"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="22" t="s">
         <v>179</v>
       </c>
@@ -3370,7 +3533,7 @@
       <c r="A106" s="43"/>
       <c r="B106" s="40"/>
       <c r="C106" s="37"/>
-      <c r="D106" s="46"/>
+      <c r="D106" s="34"/>
       <c r="E106" s="16"/>
       <c r="F106" s="5" t="s">
         <v>180</v>
@@ -3380,7 +3543,7 @@
       <c r="A107" s="44"/>
       <c r="B107" s="41"/>
       <c r="C107" s="38"/>
-      <c r="D107" s="47"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="18"/>
       <c r="F107" s="11" t="s">
         <v>181</v>
@@ -3396,7 +3559,7 @@
       <c r="C108" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D108" s="33" t="s">
+      <c r="D108" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="15" t="s">
@@ -3408,7 +3571,7 @@
       <c r="A109" s="43"/>
       <c r="B109" s="40"/>
       <c r="C109" s="37"/>
-      <c r="D109" s="34"/>
+      <c r="D109" s="46"/>
       <c r="E109" s="22" t="s">
         <v>188</v>
       </c>
@@ -3418,7 +3581,7 @@
       <c r="A110" s="43"/>
       <c r="B110" s="40"/>
       <c r="C110" s="37"/>
-      <c r="D110" s="34"/>
+      <c r="D110" s="46"/>
       <c r="E110" s="16" t="s">
         <v>189</v>
       </c>
@@ -3430,7 +3593,7 @@
       <c r="A111" s="44"/>
       <c r="B111" s="41"/>
       <c r="C111" s="38"/>
-      <c r="D111" s="35"/>
+      <c r="D111" s="47"/>
       <c r="E111" s="18" t="s">
         <v>191</v>
       </c>
@@ -3439,7 +3602,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="48" t="s">
         <v>193</v>
       </c>
       <c r="B112" s="39" t="s">
@@ -3448,7 +3611,7 @@
       <c r="C112" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D112" s="45" t="s">
+      <c r="D112" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="15" t="s">
@@ -3457,20 +3620,20 @@
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="53"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="40"/>
       <c r="C113" s="37"/>
-      <c r="D113" s="46"/>
+      <c r="D113" s="34"/>
       <c r="E113" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="53"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="40"/>
       <c r="C114" s="37"/>
-      <c r="D114" s="46"/>
+      <c r="D114" s="34"/>
       <c r="E114" s="16" t="s">
         <v>122</v>
       </c>
@@ -3479,10 +3642,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="53"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="40"/>
       <c r="C115" s="37"/>
-      <c r="D115" s="46"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="22" t="s">
         <v>202</v>
       </c>
@@ -3491,27 +3654,27 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A116" s="53"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="40"/>
       <c r="C116" s="37"/>
-      <c r="D116" s="46"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="16"/>
       <c r="F116" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="54"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="41"/>
       <c r="C117" s="38"/>
-      <c r="D117" s="47"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="18"/>
       <c r="F117" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="52" t="s">
+      <c r="A118" s="48" t="s">
         <v>207</v>
       </c>
       <c r="B118" s="39" t="s">
@@ -3520,7 +3683,7 @@
       <c r="C118" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D118" s="45" t="s">
+      <c r="D118" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E118" s="15" t="s">
@@ -3529,20 +3692,20 @@
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="53"/>
+      <c r="A119" s="49"/>
       <c r="B119" s="40"/>
       <c r="C119" s="37"/>
-      <c r="D119" s="46"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="53"/>
+      <c r="A120" s="49"/>
       <c r="B120" s="40"/>
       <c r="C120" s="37"/>
-      <c r="D120" s="46"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="16" t="s">
         <v>122</v>
       </c>
@@ -3551,10 +3714,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="53"/>
+      <c r="A121" s="49"/>
       <c r="B121" s="40"/>
       <c r="C121" s="37"/>
-      <c r="D121" s="46"/>
+      <c r="D121" s="34"/>
       <c r="E121" s="22" t="s">
         <v>208</v>
       </c>
@@ -3563,22 +3726,22 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A122" s="53"/>
+      <c r="A122" s="49"/>
       <c r="B122" s="40"/>
       <c r="C122" s="37"/>
-      <c r="D122" s="46"/>
+      <c r="D122" s="34"/>
       <c r="E122" s="16"/>
       <c r="F122" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="54"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="41" t="s">
         <v>195</v>
       </c>
       <c r="C123" s="38"/>
-      <c r="D123" s="47"/>
+      <c r="D123" s="35"/>
       <c r="E123" s="18"/>
       <c r="F123" s="11" t="s">
         <v>210</v>
@@ -3594,7 +3757,7 @@
       <c r="C124" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="D124" s="33" t="s">
+      <c r="D124" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E124" s="15" t="s">
@@ -3606,7 +3769,7 @@
       <c r="A125" s="43"/>
       <c r="B125" s="40"/>
       <c r="C125" s="37"/>
-      <c r="D125" s="34"/>
+      <c r="D125" s="46"/>
       <c r="E125" s="22" t="s">
         <v>20</v>
       </c>
@@ -3616,7 +3779,7 @@
       <c r="A126" s="43"/>
       <c r="B126" s="40"/>
       <c r="C126" s="37"/>
-      <c r="D126" s="34"/>
+      <c r="D126" s="46"/>
       <c r="E126" s="16" t="s">
         <v>105</v>
       </c>
@@ -3628,7 +3791,7 @@
       <c r="A127" s="44"/>
       <c r="B127" s="41"/>
       <c r="C127" s="38"/>
-      <c r="D127" s="35"/>
+      <c r="D127" s="47"/>
       <c r="E127" s="18" t="s">
         <v>213</v>
       </c>
@@ -3646,7 +3809,7 @@
       <c r="C128" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D128" s="45" t="s">
+      <c r="D128" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E128" s="24" t="s">
@@ -3658,7 +3821,7 @@
       <c r="A129" s="43"/>
       <c r="B129" s="40"/>
       <c r="C129" s="37"/>
-      <c r="D129" s="46"/>
+      <c r="D129" s="34"/>
       <c r="E129" s="16" t="s">
         <v>20</v>
       </c>
@@ -3668,7 +3831,7 @@
       <c r="A130" s="43"/>
       <c r="B130" s="40"/>
       <c r="C130" s="37"/>
-      <c r="D130" s="46"/>
+      <c r="D130" s="34"/>
       <c r="E130" s="22" t="s">
         <v>122</v>
       </c>
@@ -3680,7 +3843,7 @@
       <c r="A131" s="43"/>
       <c r="B131" s="40"/>
       <c r="C131" s="37"/>
-      <c r="D131" s="46"/>
+      <c r="D131" s="34"/>
       <c r="E131" s="16" t="s">
         <v>217</v>
       </c>
@@ -3692,7 +3855,7 @@
       <c r="A132" s="44"/>
       <c r="B132" s="41"/>
       <c r="C132" s="38"/>
-      <c r="D132" s="47"/>
+      <c r="D132" s="35"/>
       <c r="E132" s="18" t="s">
         <v>219</v>
       </c>
@@ -3710,7 +3873,7 @@
       <c r="C133" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D133" s="45" t="s">
+      <c r="D133" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E133" s="15" t="s">
@@ -3722,7 +3885,7 @@
       <c r="A134" s="43"/>
       <c r="B134" s="40"/>
       <c r="C134" s="37"/>
-      <c r="D134" s="46"/>
+      <c r="D134" s="34"/>
       <c r="E134" s="16" t="s">
         <v>20</v>
       </c>
@@ -3732,7 +3895,7 @@
       <c r="A135" s="43"/>
       <c r="B135" s="40"/>
       <c r="C135" s="37"/>
-      <c r="D135" s="46"/>
+      <c r="D135" s="34"/>
       <c r="E135" s="16" t="s">
         <v>122</v>
       </c>
@@ -3744,19 +3907,19 @@
       <c r="A136" s="43"/>
       <c r="B136" s="40"/>
       <c r="C136" s="37"/>
-      <c r="D136" s="46"/>
+      <c r="D136" s="34"/>
       <c r="E136" s="22" t="s">
         <v>224</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="43"/>
       <c r="B137" s="40"/>
       <c r="C137" s="37"/>
-      <c r="D137" s="46"/>
+      <c r="D137" s="34"/>
       <c r="E137" s="16" t="s">
         <v>225</v>
       </c>
@@ -3768,7 +3931,7 @@
       <c r="A138" s="43"/>
       <c r="B138" s="40"/>
       <c r="C138" s="37"/>
-      <c r="D138" s="46"/>
+      <c r="D138" s="34"/>
       <c r="E138" s="16" t="s">
         <v>227</v>
       </c>
@@ -3778,7 +3941,7 @@
       <c r="A139" s="44"/>
       <c r="B139" s="41"/>
       <c r="C139" s="38"/>
-      <c r="D139" s="47"/>
+      <c r="D139" s="35"/>
       <c r="E139" s="18" t="s">
         <v>228</v>
       </c>
@@ -3796,7 +3959,7 @@
       <c r="C140" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D140" s="45" t="s">
+      <c r="D140" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E140" s="15" t="s">
@@ -3808,7 +3971,7 @@
       <c r="A141" s="43"/>
       <c r="B141" s="40"/>
       <c r="C141" s="37"/>
-      <c r="D141" s="46"/>
+      <c r="D141" s="34"/>
       <c r="E141" s="16" t="s">
         <v>20</v>
       </c>
@@ -3818,7 +3981,7 @@
       <c r="A142" s="43"/>
       <c r="B142" s="40"/>
       <c r="C142" s="37"/>
-      <c r="D142" s="46"/>
+      <c r="D142" s="34"/>
       <c r="E142" s="16" t="s">
         <v>122</v>
       </c>
@@ -3830,7 +3993,7 @@
       <c r="A143" s="43"/>
       <c r="B143" s="40"/>
       <c r="C143" s="37"/>
-      <c r="D143" s="46"/>
+      <c r="D143" s="34"/>
       <c r="E143" s="16" t="s">
         <v>232</v>
       </c>
@@ -3842,7 +4005,7 @@
       <c r="A144" s="43"/>
       <c r="B144" s="40"/>
       <c r="C144" s="37"/>
-      <c r="D144" s="46"/>
+      <c r="D144" s="34"/>
       <c r="E144" s="22" t="s">
         <v>233</v>
       </c>
@@ -3852,7 +4015,7 @@
       <c r="A145" s="43"/>
       <c r="B145" s="40"/>
       <c r="C145" s="37"/>
-      <c r="D145" s="46"/>
+      <c r="D145" s="34"/>
       <c r="E145" s="16" t="s">
         <v>234</v>
       </c>
@@ -3862,7 +4025,7 @@
       <c r="A146" s="44"/>
       <c r="B146" s="41"/>
       <c r="C146" s="38"/>
-      <c r="D146" s="47"/>
+      <c r="D146" s="35"/>
       <c r="E146" s="18" t="s">
         <v>235</v>
       </c>
@@ -3880,7 +4043,7 @@
       <c r="C147" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D147" s="45" t="s">
+      <c r="D147" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E147" s="24" t="s">
@@ -3892,7 +4055,7 @@
       <c r="A148" s="43"/>
       <c r="B148" s="40"/>
       <c r="C148" s="37"/>
-      <c r="D148" s="46"/>
+      <c r="D148" s="34"/>
       <c r="E148" s="16" t="s">
         <v>237</v>
       </c>
@@ -3902,7 +4065,7 @@
       <c r="A149" s="43"/>
       <c r="B149" s="40"/>
       <c r="C149" s="37"/>
-      <c r="D149" s="46"/>
+      <c r="D149" s="34"/>
       <c r="E149" s="22" t="s">
         <v>238</v>
       </c>
@@ -3914,7 +4077,7 @@
       <c r="A150" s="43"/>
       <c r="B150" s="40"/>
       <c r="C150" s="37"/>
-      <c r="D150" s="46"/>
+      <c r="D150" s="34"/>
       <c r="E150" s="16"/>
       <c r="F150" s="5" t="s">
         <v>240</v>
@@ -3924,10 +4087,10 @@
       <c r="A151" s="44"/>
       <c r="B151" s="41"/>
       <c r="C151" s="38"/>
-      <c r="D151" s="47"/>
+      <c r="D151" s="35"/>
       <c r="E151" s="18"/>
       <c r="F151" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
@@ -3940,7 +4103,7 @@
       <c r="C152" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E152" s="16" t="s">
@@ -3952,7 +4115,7 @@
       <c r="A153" s="43"/>
       <c r="B153" s="40"/>
       <c r="C153" s="37"/>
-      <c r="D153" s="34"/>
+      <c r="D153" s="46"/>
       <c r="E153" s="22" t="s">
         <v>243</v>
       </c>
@@ -3964,7 +4127,7 @@
       <c r="A154" s="43"/>
       <c r="B154" s="40"/>
       <c r="C154" s="37"/>
-      <c r="D154" s="34"/>
+      <c r="D154" s="46"/>
       <c r="E154" s="16"/>
       <c r="F154" s="5" t="s">
         <v>245</v>
@@ -3974,7 +4137,7 @@
       <c r="A155" s="44"/>
       <c r="B155" s="41"/>
       <c r="C155" s="38"/>
-      <c r="D155" s="35"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="18"/>
       <c r="F155" s="11" t="s">
         <v>246</v>
@@ -3988,9 +4151,9 @@
         <v>201</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="D156" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D156" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E156" s="16" t="s">
@@ -4002,7 +4165,7 @@
       <c r="A157" s="43"/>
       <c r="B157" s="40"/>
       <c r="C157" s="37"/>
-      <c r="D157" s="34"/>
+      <c r="D157" s="46"/>
       <c r="E157" s="22" t="s">
         <v>249</v>
       </c>
@@ -4014,53 +4177,637 @@
       <c r="A158" s="43"/>
       <c r="B158" s="40"/>
       <c r="C158" s="37"/>
-      <c r="D158" s="34"/>
+      <c r="D158" s="46"/>
       <c r="E158" s="16"/>
       <c r="F158" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="44"/>
       <c r="B159" s="41"/>
       <c r="C159" s="38"/>
-      <c r="D159" s="35"/>
+      <c r="D159" s="47"/>
       <c r="E159" s="18"/>
       <c r="F159" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B160" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="43"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="43"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="34"/>
+      <c r="E162" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="43"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="37"/>
+      <c r="D163" s="34"/>
+      <c r="E163" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="44"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="38"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="B165" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D165" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="43"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="43"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="37"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F167" s="5"/>
+    </row>
+    <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="44"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="B169" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D169" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="43"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="43"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="44"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="47"/>
+      <c r="E172" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="B173" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C173" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D173" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A174" s="43"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="37"/>
+      <c r="D174" s="46"/>
+      <c r="E174" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A175" s="43"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="44"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="47"/>
+      <c r="E176" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B177" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D177" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="43"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A179" s="43"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="37"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="44"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B181" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D181" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="43"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A183" s="43"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="46"/>
+      <c r="E183" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="44"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="47"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="B185" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C185" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D185" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A186" s="43"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="46"/>
+      <c r="E186" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A187" s="43"/>
+      <c r="B187" s="40"/>
+      <c r="C187" s="37"/>
+      <c r="D187" s="46"/>
+      <c r="E187" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="44"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="47"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B189" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D189" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="5"/>
+    </row>
+    <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="43"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F190" s="5"/>
+    </row>
+    <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="43"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="37"/>
+      <c r="D191" s="46"/>
+      <c r="E191" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="F191" s="5"/>
+    </row>
+    <row r="192" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="43"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="37"/>
+      <c r="D192" s="46"/>
+      <c r="E192" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F192" s="5"/>
+    </row>
+    <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="43"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="46"/>
+      <c r="E193" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="B194" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="C194" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E194" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="5"/>
+    </row>
+    <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A195" s="43"/>
+      <c r="B195" s="40"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="34"/>
+      <c r="E195" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F195" s="5"/>
+    </row>
+    <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A196" s="43"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="34"/>
+      <c r="E196" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A197" s="43"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="44"/>
+      <c r="B198" s="41"/>
+      <c r="C198" s="38"/>
+      <c r="D198" s="35"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="142">
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="C156:C159"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D140:D146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A128:A132"/>
+  <mergeCells count="178">
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="B189:B193"/>
+    <mergeCell ref="C189:C193"/>
+    <mergeCell ref="D189:D193"/>
+    <mergeCell ref="C194:C198"/>
+    <mergeCell ref="D194:D198"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="D173:D176"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="D177:D180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="D160:D164"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="D165:D168"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
     <mergeCell ref="A112:A117"/>
     <mergeCell ref="B112:B117"/>
     <mergeCell ref="C112:C117"/>
@@ -4085,96 +4832,34 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="C156:C159"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C44B3-145C-4090-9092-03869B65E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4028B215-8D7D-4685-8945-33328DC0C293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="329">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -958,6 +958,66 @@
   </si>
   <si>
     <t>Presented items are in the chosen price range</t>
+  </si>
+  <si>
+    <t>SK_45</t>
+  </si>
+  <si>
+    <t>Search Suggestions</t>
+  </si>
+  <si>
+    <t>Search Suggestions - By Price</t>
+  </si>
+  <si>
+    <t>Add Different Items to Cart</t>
+  </si>
+  <si>
+    <t>2. Write in the search box 'watch'</t>
+  </si>
+  <si>
+    <t>User is presented with search suugestions that contain the word 'watch'</t>
+  </si>
+  <si>
+    <t>3. Click one of the suggestions</t>
+  </si>
+  <si>
+    <t>results for the chosen suggestion are presented</t>
+  </si>
+  <si>
+    <t>Verify that search suggestion works</t>
+  </si>
+  <si>
+    <t>SK_46</t>
+  </si>
+  <si>
+    <t>User is presented with search suugestions that contain the word 'watch', Including a by price option, with buttons that refers to different prices</t>
+  </si>
+  <si>
+    <t>Price range is presented on the left</t>
+  </si>
+  <si>
+    <t>SK_47</t>
+  </si>
+  <si>
+    <t>Verify that search suggestion of by price works</t>
+  </si>
+  <si>
+    <t>5. Go back to search results page</t>
+  </si>
+  <si>
+    <t>7. Click the Add to Cart button</t>
+  </si>
+  <si>
+    <t>8. Click the cart symbol in the top right area</t>
+  </si>
+  <si>
+    <t>Both items are presented in the cart</t>
+  </si>
+  <si>
+    <t>3. Click the $50 to $100 button</t>
+  </si>
+  <si>
+    <t>6. Click another presented result item</t>
   </si>
 </sst>
 </file>
@@ -1681,6 +1741,51 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1690,52 +1795,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F194" sqref="F194"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2202,7 +2262,7 @@
       <c r="C3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2212,7 +2272,7 @@
       <c r="A4" s="43"/>
       <c r="B4" s="40"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
@@ -2222,7 +2282,7 @@
       <c r="A5" s="43"/>
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2232,7 +2292,7 @@
       <c r="A6" s="43"/>
       <c r="B6" s="40"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2241,7 +2301,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -2250,7 +2310,7 @@
       <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2259,10 +2319,10 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="41"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -2330,7 +2390,7 @@
       <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2342,7 +2402,7 @@
       <c r="A14" s="72"/>
       <c r="B14" s="61"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2354,7 +2414,7 @@
       <c r="A15" s="73"/>
       <c r="B15" s="62"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="47"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
@@ -2362,7 +2422,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -2371,27 +2431,27 @@
       <c r="C16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="40"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="46"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="41"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="46"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -2452,7 +2512,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="45" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -2461,7 +2521,7 @@
       <c r="C23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2470,20 +2530,20 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="40"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="41"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="47"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
@@ -2492,7 +2552,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="45" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="63" t="s">
@@ -2501,7 +2561,7 @@
       <c r="C26" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -2510,30 +2570,30 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="64"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="64"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="64"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
@@ -2542,20 +2602,20 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="64"/>
       <c r="C30" s="37"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="64"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="35"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>36</v>
@@ -2571,7 +2631,7 @@
       <c r="C32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -2583,7 +2643,7 @@
       <c r="A33" s="43"/>
       <c r="B33" s="40"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="34"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="16" t="s">
         <v>61</v>
       </c>
@@ -2595,7 +2655,7 @@
       <c r="A34" s="43"/>
       <c r="B34" s="40"/>
       <c r="C34" s="37"/>
-      <c r="D34" s="34"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="22" t="s">
         <v>63</v>
       </c>
@@ -2605,7 +2665,7 @@
       <c r="A35" s="43"/>
       <c r="B35" s="40"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="34"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
@@ -2615,7 +2675,7 @@
       <c r="A36" s="44"/>
       <c r="B36" s="41"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="35"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -2633,7 +2693,7 @@
       <c r="C37" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -2645,7 +2705,7 @@
       <c r="A38" s="43"/>
       <c r="B38" s="40"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="34"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="16" t="s">
         <v>61</v>
       </c>
@@ -2657,7 +2717,7 @@
       <c r="A39" s="43"/>
       <c r="B39" s="40"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="34"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="22" t="s">
         <v>72</v>
       </c>
@@ -2667,7 +2727,7 @@
       <c r="A40" s="43"/>
       <c r="B40" s="40"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="16" t="s">
         <v>73</v>
       </c>
@@ -2679,7 +2739,7 @@
       <c r="A41" s="44"/>
       <c r="B41" s="41"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="35"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="18" t="s">
         <v>74</v>
       </c>
@@ -2697,7 +2757,7 @@
       <c r="C42" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -2709,7 +2769,7 @@
       <c r="A43" s="43"/>
       <c r="B43" s="40"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="46"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="24" t="s">
         <v>79</v>
       </c>
@@ -2721,7 +2781,7 @@
       <c r="A44" s="43"/>
       <c r="B44" s="40"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="22" t="s">
         <v>80</v>
       </c>
@@ -2733,7 +2793,7 @@
       <c r="A45" s="44"/>
       <c r="B45" s="41"/>
       <c r="C45" s="38"/>
-      <c r="D45" s="47"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="18" t="s">
         <v>85</v>
       </c>
@@ -2742,7 +2802,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="45" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="39" t="s">
@@ -2760,7 +2820,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="41"/>
       <c r="C47" s="38"/>
       <c r="D47" s="27" t="s">
@@ -2774,7 +2834,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="45" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="39" t="s">
@@ -2792,7 +2852,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="40"/>
       <c r="C49" s="37"/>
       <c r="D49" s="28" t="s">
@@ -2806,7 +2866,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="41"/>
       <c r="C50" s="38"/>
       <c r="D50" s="27"/>
@@ -2947,7 +3007,7 @@
       <c r="C60" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -2959,7 +3019,7 @@
       <c r="A61" s="43"/>
       <c r="B61" s="40"/>
       <c r="C61" s="37"/>
-      <c r="D61" s="34"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="16" t="s">
         <v>20</v>
       </c>
@@ -2969,7 +3029,7 @@
       <c r="A62" s="43"/>
       <c r="B62" s="40"/>
       <c r="C62" s="37"/>
-      <c r="D62" s="34"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="22" t="s">
         <v>105</v>
       </c>
@@ -2981,7 +3041,7 @@
       <c r="A63" s="43"/>
       <c r="B63" s="40"/>
       <c r="C63" s="37"/>
-      <c r="D63" s="34"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="16" t="s">
         <v>109</v>
       </c>
@@ -2991,7 +3051,7 @@
       <c r="A64" s="44"/>
       <c r="B64" s="41"/>
       <c r="C64" s="38"/>
-      <c r="D64" s="35"/>
+      <c r="D64" s="50"/>
       <c r="E64" s="18" t="s">
         <v>111</v>
       </c>
@@ -3063,7 +3123,7 @@
       <c r="C69" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -3075,7 +3135,7 @@
       <c r="A70" s="43"/>
       <c r="B70" s="40"/>
       <c r="C70" s="53"/>
-      <c r="D70" s="46"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="24" t="s">
         <v>10</v>
       </c>
@@ -3085,7 +3145,7 @@
       <c r="A71" s="43"/>
       <c r="B71" s="40"/>
       <c r="C71" s="53"/>
-      <c r="D71" s="46"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="30" t="s">
         <v>126</v>
       </c>
@@ -3097,7 +3157,7 @@
       <c r="A72" s="43"/>
       <c r="B72" s="40"/>
       <c r="C72" s="53"/>
-      <c r="D72" s="46"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="22" t="s">
         <v>128</v>
       </c>
@@ -3109,7 +3169,7 @@
       <c r="A73" s="43"/>
       <c r="B73" s="40"/>
       <c r="C73" s="53"/>
-      <c r="D73" s="46"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="24" t="s">
         <v>130</v>
       </c>
@@ -3119,7 +3179,7 @@
       <c r="A74" s="43"/>
       <c r="B74" s="40"/>
       <c r="C74" s="53"/>
-      <c r="D74" s="46"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="22" t="s">
         <v>131</v>
       </c>
@@ -3129,7 +3189,7 @@
       <c r="A75" s="44"/>
       <c r="B75" s="41"/>
       <c r="C75" s="54"/>
-      <c r="D75" s="47"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="18" t="s">
         <v>132</v>
       </c>
@@ -3138,7 +3198,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="45" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="39" t="s">
@@ -3156,7 +3216,7 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="49"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="40"/>
       <c r="C77" s="37"/>
       <c r="D77" s="79"/>
@@ -3166,7 +3226,7 @@
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="41"/>
       <c r="C78" s="38"/>
       <c r="D78" s="31" t="s">
@@ -3303,7 +3363,7 @@
       <c r="C88" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="15" t="s">
@@ -3315,7 +3375,7 @@
       <c r="A89" s="43"/>
       <c r="B89" s="40"/>
       <c r="C89" s="37"/>
-      <c r="D89" s="34"/>
+      <c r="D89" s="49"/>
       <c r="E89" s="16" t="s">
         <v>155</v>
       </c>
@@ -3327,7 +3387,7 @@
       <c r="A90" s="43"/>
       <c r="B90" s="40"/>
       <c r="C90" s="37"/>
-      <c r="D90" s="34"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="22" t="s">
         <v>156</v>
       </c>
@@ -3339,7 +3399,7 @@
       <c r="A91" s="43"/>
       <c r="B91" s="40"/>
       <c r="C91" s="37"/>
-      <c r="D91" s="34"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="16" t="s">
         <v>157</v>
       </c>
@@ -3351,7 +3411,7 @@
       <c r="A92" s="44"/>
       <c r="B92" s="41"/>
       <c r="C92" s="38"/>
-      <c r="D92" s="35"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="18"/>
       <c r="F92" s="11" t="s">
         <v>159</v>
@@ -3367,7 +3427,7 @@
       <c r="C93" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="15" t="s">
@@ -3379,7 +3439,7 @@
       <c r="A94" s="43"/>
       <c r="B94" s="40"/>
       <c r="C94" s="37"/>
-      <c r="D94" s="34"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="16" t="s">
         <v>155</v>
       </c>
@@ -3391,7 +3451,7 @@
       <c r="A95" s="43"/>
       <c r="B95" s="40"/>
       <c r="C95" s="37"/>
-      <c r="D95" s="34"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="22" t="s">
         <v>164</v>
       </c>
@@ -3403,7 +3463,7 @@
       <c r="A96" s="43"/>
       <c r="B96" s="40"/>
       <c r="C96" s="37"/>
-      <c r="D96" s="34"/>
+      <c r="D96" s="49"/>
       <c r="E96" s="16" t="s">
         <v>163</v>
       </c>
@@ -3415,7 +3475,7 @@
       <c r="A97" s="44"/>
       <c r="B97" s="41"/>
       <c r="C97" s="38"/>
-      <c r="D97" s="35"/>
+      <c r="D97" s="50"/>
       <c r="E97" s="18" t="s">
         <v>167</v>
       </c>
@@ -3433,7 +3493,7 @@
       <c r="C98" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="15" t="s">
@@ -3445,7 +3505,7 @@
       <c r="A99" s="43"/>
       <c r="B99" s="40"/>
       <c r="C99" s="37"/>
-      <c r="D99" s="34"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="16" t="s">
         <v>155</v>
       </c>
@@ -3457,7 +3517,7 @@
       <c r="A100" s="43"/>
       <c r="B100" s="40"/>
       <c r="C100" s="37"/>
-      <c r="D100" s="34"/>
+      <c r="D100" s="49"/>
       <c r="E100" s="22" t="s">
         <v>172</v>
       </c>
@@ -3469,7 +3529,7 @@
       <c r="A101" s="43"/>
       <c r="B101" s="40"/>
       <c r="C101" s="37"/>
-      <c r="D101" s="34"/>
+      <c r="D101" s="49"/>
       <c r="E101" s="16" t="s">
         <v>174</v>
       </c>
@@ -3481,7 +3541,7 @@
       <c r="A102" s="44"/>
       <c r="B102" s="41"/>
       <c r="C102" s="38"/>
-      <c r="D102" s="35"/>
+      <c r="D102" s="50"/>
       <c r="E102" s="18"/>
       <c r="F102" s="11" t="s">
         <v>176</v>
@@ -3497,7 +3557,7 @@
       <c r="C103" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="15" t="s">
@@ -3509,7 +3569,7 @@
       <c r="A104" s="43"/>
       <c r="B104" s="40"/>
       <c r="C104" s="37"/>
-      <c r="D104" s="34"/>
+      <c r="D104" s="49"/>
       <c r="E104" s="16" t="s">
         <v>155</v>
       </c>
@@ -3521,7 +3581,7 @@
       <c r="A105" s="43"/>
       <c r="B105" s="40"/>
       <c r="C105" s="37"/>
-      <c r="D105" s="34"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="22" t="s">
         <v>179</v>
       </c>
@@ -3533,7 +3593,7 @@
       <c r="A106" s="43"/>
       <c r="B106" s="40"/>
       <c r="C106" s="37"/>
-      <c r="D106" s="34"/>
+      <c r="D106" s="49"/>
       <c r="E106" s="16"/>
       <c r="F106" s="5" t="s">
         <v>180</v>
@@ -3543,7 +3603,7 @@
       <c r="A107" s="44"/>
       <c r="B107" s="41"/>
       <c r="C107" s="38"/>
-      <c r="D107" s="35"/>
+      <c r="D107" s="50"/>
       <c r="E107" s="18"/>
       <c r="F107" s="11" t="s">
         <v>181</v>
@@ -3559,7 +3619,7 @@
       <c r="C108" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D108" s="45" t="s">
+      <c r="D108" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="15" t="s">
@@ -3571,7 +3631,7 @@
       <c r="A109" s="43"/>
       <c r="B109" s="40"/>
       <c r="C109" s="37"/>
-      <c r="D109" s="46"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="22" t="s">
         <v>188</v>
       </c>
@@ -3581,7 +3641,7 @@
       <c r="A110" s="43"/>
       <c r="B110" s="40"/>
       <c r="C110" s="37"/>
-      <c r="D110" s="46"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="16" t="s">
         <v>189</v>
       </c>
@@ -3593,7 +3653,7 @@
       <c r="A111" s="44"/>
       <c r="B111" s="41"/>
       <c r="C111" s="38"/>
-      <c r="D111" s="47"/>
+      <c r="D111" s="35"/>
       <c r="E111" s="18" t="s">
         <v>191</v>
       </c>
@@ -3602,7 +3662,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="45" t="s">
         <v>193</v>
       </c>
       <c r="B112" s="39" t="s">
@@ -3611,7 +3671,7 @@
       <c r="C112" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D112" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="15" t="s">
@@ -3620,20 +3680,20 @@
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="49"/>
+      <c r="A113" s="46"/>
       <c r="B113" s="40"/>
       <c r="C113" s="37"/>
-      <c r="D113" s="34"/>
+      <c r="D113" s="49"/>
       <c r="E113" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="49"/>
+      <c r="A114" s="46"/>
       <c r="B114" s="40"/>
       <c r="C114" s="37"/>
-      <c r="D114" s="34"/>
+      <c r="D114" s="49"/>
       <c r="E114" s="16" t="s">
         <v>122</v>
       </c>
@@ -3642,10 +3702,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="49"/>
+      <c r="A115" s="46"/>
       <c r="B115" s="40"/>
       <c r="C115" s="37"/>
-      <c r="D115" s="34"/>
+      <c r="D115" s="49"/>
       <c r="E115" s="22" t="s">
         <v>202</v>
       </c>
@@ -3654,27 +3714,27 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A116" s="49"/>
+      <c r="A116" s="46"/>
       <c r="B116" s="40"/>
       <c r="C116" s="37"/>
-      <c r="D116" s="34"/>
+      <c r="D116" s="49"/>
       <c r="E116" s="16"/>
       <c r="F116" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="50"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="41"/>
       <c r="C117" s="38"/>
-      <c r="D117" s="35"/>
+      <c r="D117" s="50"/>
       <c r="E117" s="18"/>
       <c r="F117" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="48" t="s">
+      <c r="A118" s="45" t="s">
         <v>207</v>
       </c>
       <c r="B118" s="39" t="s">
@@ -3683,7 +3743,7 @@
       <c r="C118" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E118" s="15" t="s">
@@ -3692,20 +3752,20 @@
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="49"/>
+      <c r="A119" s="46"/>
       <c r="B119" s="40"/>
       <c r="C119" s="37"/>
-      <c r="D119" s="34"/>
+      <c r="D119" s="49"/>
       <c r="E119" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="49"/>
+      <c r="A120" s="46"/>
       <c r="B120" s="40"/>
       <c r="C120" s="37"/>
-      <c r="D120" s="34"/>
+      <c r="D120" s="49"/>
       <c r="E120" s="16" t="s">
         <v>122</v>
       </c>
@@ -3714,10 +3774,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="49"/>
+      <c r="A121" s="46"/>
       <c r="B121" s="40"/>
       <c r="C121" s="37"/>
-      <c r="D121" s="34"/>
+      <c r="D121" s="49"/>
       <c r="E121" s="22" t="s">
         <v>208</v>
       </c>
@@ -3726,22 +3786,22 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A122" s="49"/>
+      <c r="A122" s="46"/>
       <c r="B122" s="40"/>
       <c r="C122" s="37"/>
-      <c r="D122" s="34"/>
+      <c r="D122" s="49"/>
       <c r="E122" s="16"/>
       <c r="F122" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="50"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="41" t="s">
         <v>195</v>
       </c>
       <c r="C123" s="38"/>
-      <c r="D123" s="35"/>
+      <c r="D123" s="50"/>
       <c r="E123" s="18"/>
       <c r="F123" s="11" t="s">
         <v>210</v>
@@ -3757,7 +3817,7 @@
       <c r="C124" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="D124" s="45" t="s">
+      <c r="D124" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E124" s="15" t="s">
@@ -3769,7 +3829,7 @@
       <c r="A125" s="43"/>
       <c r="B125" s="40"/>
       <c r="C125" s="37"/>
-      <c r="D125" s="46"/>
+      <c r="D125" s="34"/>
       <c r="E125" s="22" t="s">
         <v>20</v>
       </c>
@@ -3779,7 +3839,7 @@
       <c r="A126" s="43"/>
       <c r="B126" s="40"/>
       <c r="C126" s="37"/>
-      <c r="D126" s="46"/>
+      <c r="D126" s="34"/>
       <c r="E126" s="16" t="s">
         <v>105</v>
       </c>
@@ -3791,7 +3851,7 @@
       <c r="A127" s="44"/>
       <c r="B127" s="41"/>
       <c r="C127" s="38"/>
-      <c r="D127" s="47"/>
+      <c r="D127" s="35"/>
       <c r="E127" s="18" t="s">
         <v>213</v>
       </c>
@@ -3809,7 +3869,7 @@
       <c r="C128" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D128" s="33" t="s">
+      <c r="D128" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E128" s="24" t="s">
@@ -3821,7 +3881,7 @@
       <c r="A129" s="43"/>
       <c r="B129" s="40"/>
       <c r="C129" s="37"/>
-      <c r="D129" s="34"/>
+      <c r="D129" s="49"/>
       <c r="E129" s="16" t="s">
         <v>20</v>
       </c>
@@ -3831,7 +3891,7 @@
       <c r="A130" s="43"/>
       <c r="B130" s="40"/>
       <c r="C130" s="37"/>
-      <c r="D130" s="34"/>
+      <c r="D130" s="49"/>
       <c r="E130" s="22" t="s">
         <v>122</v>
       </c>
@@ -3843,7 +3903,7 @@
       <c r="A131" s="43"/>
       <c r="B131" s="40"/>
       <c r="C131" s="37"/>
-      <c r="D131" s="34"/>
+      <c r="D131" s="49"/>
       <c r="E131" s="16" t="s">
         <v>217</v>
       </c>
@@ -3855,7 +3915,7 @@
       <c r="A132" s="44"/>
       <c r="B132" s="41"/>
       <c r="C132" s="38"/>
-      <c r="D132" s="35"/>
+      <c r="D132" s="50"/>
       <c r="E132" s="18" t="s">
         <v>219</v>
       </c>
@@ -3873,7 +3933,7 @@
       <c r="C133" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D133" s="33" t="s">
+      <c r="D133" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E133" s="15" t="s">
@@ -3885,7 +3945,7 @@
       <c r="A134" s="43"/>
       <c r="B134" s="40"/>
       <c r="C134" s="37"/>
-      <c r="D134" s="34"/>
+      <c r="D134" s="49"/>
       <c r="E134" s="16" t="s">
         <v>20</v>
       </c>
@@ -3895,7 +3955,7 @@
       <c r="A135" s="43"/>
       <c r="B135" s="40"/>
       <c r="C135" s="37"/>
-      <c r="D135" s="34"/>
+      <c r="D135" s="49"/>
       <c r="E135" s="16" t="s">
         <v>122</v>
       </c>
@@ -3907,7 +3967,7 @@
       <c r="A136" s="43"/>
       <c r="B136" s="40"/>
       <c r="C136" s="37"/>
-      <c r="D136" s="34"/>
+      <c r="D136" s="49"/>
       <c r="E136" s="22" t="s">
         <v>224</v>
       </c>
@@ -3919,7 +3979,7 @@
       <c r="A137" s="43"/>
       <c r="B137" s="40"/>
       <c r="C137" s="37"/>
-      <c r="D137" s="34"/>
+      <c r="D137" s="49"/>
       <c r="E137" s="16" t="s">
         <v>225</v>
       </c>
@@ -3931,7 +3991,7 @@
       <c r="A138" s="43"/>
       <c r="B138" s="40"/>
       <c r="C138" s="37"/>
-      <c r="D138" s="34"/>
+      <c r="D138" s="49"/>
       <c r="E138" s="16" t="s">
         <v>227</v>
       </c>
@@ -3941,7 +4001,7 @@
       <c r="A139" s="44"/>
       <c r="B139" s="41"/>
       <c r="C139" s="38"/>
-      <c r="D139" s="35"/>
+      <c r="D139" s="50"/>
       <c r="E139" s="18" t="s">
         <v>228</v>
       </c>
@@ -3959,7 +4019,7 @@
       <c r="C140" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="D140" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E140" s="15" t="s">
@@ -3971,7 +4031,7 @@
       <c r="A141" s="43"/>
       <c r="B141" s="40"/>
       <c r="C141" s="37"/>
-      <c r="D141" s="34"/>
+      <c r="D141" s="49"/>
       <c r="E141" s="16" t="s">
         <v>20</v>
       </c>
@@ -3981,7 +4041,7 @@
       <c r="A142" s="43"/>
       <c r="B142" s="40"/>
       <c r="C142" s="37"/>
-      <c r="D142" s="34"/>
+      <c r="D142" s="49"/>
       <c r="E142" s="16" t="s">
         <v>122</v>
       </c>
@@ -3993,7 +4053,7 @@
       <c r="A143" s="43"/>
       <c r="B143" s="40"/>
       <c r="C143" s="37"/>
-      <c r="D143" s="34"/>
+      <c r="D143" s="49"/>
       <c r="E143" s="16" t="s">
         <v>232</v>
       </c>
@@ -4005,7 +4065,7 @@
       <c r="A144" s="43"/>
       <c r="B144" s="40"/>
       <c r="C144" s="37"/>
-      <c r="D144" s="34"/>
+      <c r="D144" s="49"/>
       <c r="E144" s="22" t="s">
         <v>233</v>
       </c>
@@ -4015,7 +4075,7 @@
       <c r="A145" s="43"/>
       <c r="B145" s="40"/>
       <c r="C145" s="37"/>
-      <c r="D145" s="34"/>
+      <c r="D145" s="49"/>
       <c r="E145" s="16" t="s">
         <v>234</v>
       </c>
@@ -4025,7 +4085,7 @@
       <c r="A146" s="44"/>
       <c r="B146" s="41"/>
       <c r="C146" s="38"/>
-      <c r="D146" s="35"/>
+      <c r="D146" s="50"/>
       <c r="E146" s="18" t="s">
         <v>235</v>
       </c>
@@ -4043,7 +4103,7 @@
       <c r="C147" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D147" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E147" s="24" t="s">
@@ -4055,7 +4115,7 @@
       <c r="A148" s="43"/>
       <c r="B148" s="40"/>
       <c r="C148" s="37"/>
-      <c r="D148" s="34"/>
+      <c r="D148" s="49"/>
       <c r="E148" s="16" t="s">
         <v>237</v>
       </c>
@@ -4065,7 +4125,7 @@
       <c r="A149" s="43"/>
       <c r="B149" s="40"/>
       <c r="C149" s="37"/>
-      <c r="D149" s="34"/>
+      <c r="D149" s="49"/>
       <c r="E149" s="22" t="s">
         <v>238</v>
       </c>
@@ -4077,7 +4137,7 @@
       <c r="A150" s="43"/>
       <c r="B150" s="40"/>
       <c r="C150" s="37"/>
-      <c r="D150" s="34"/>
+      <c r="D150" s="49"/>
       <c r="E150" s="16"/>
       <c r="F150" s="5" t="s">
         <v>240</v>
@@ -4087,7 +4147,7 @@
       <c r="A151" s="44"/>
       <c r="B151" s="41"/>
       <c r="C151" s="38"/>
-      <c r="D151" s="35"/>
+      <c r="D151" s="50"/>
       <c r="E151" s="18"/>
       <c r="F151" s="11" t="s">
         <v>254</v>
@@ -4103,7 +4163,7 @@
       <c r="C152" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D152" s="45" t="s">
+      <c r="D152" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E152" s="16" t="s">
@@ -4115,7 +4175,7 @@
       <c r="A153" s="43"/>
       <c r="B153" s="40"/>
       <c r="C153" s="37"/>
-      <c r="D153" s="46"/>
+      <c r="D153" s="34"/>
       <c r="E153" s="22" t="s">
         <v>243</v>
       </c>
@@ -4127,7 +4187,7 @@
       <c r="A154" s="43"/>
       <c r="B154" s="40"/>
       <c r="C154" s="37"/>
-      <c r="D154" s="46"/>
+      <c r="D154" s="34"/>
       <c r="E154" s="16"/>
       <c r="F154" s="5" t="s">
         <v>245</v>
@@ -4137,7 +4197,7 @@
       <c r="A155" s="44"/>
       <c r="B155" s="41"/>
       <c r="C155" s="38"/>
-      <c r="D155" s="47"/>
+      <c r="D155" s="35"/>
       <c r="E155" s="18"/>
       <c r="F155" s="11" t="s">
         <v>246</v>
@@ -4153,7 +4213,7 @@
       <c r="C156" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D156" s="45" t="s">
+      <c r="D156" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E156" s="16" t="s">
@@ -4165,7 +4225,7 @@
       <c r="A157" s="43"/>
       <c r="B157" s="40"/>
       <c r="C157" s="37"/>
-      <c r="D157" s="46"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="22" t="s">
         <v>249</v>
       </c>
@@ -4177,7 +4237,7 @@
       <c r="A158" s="43"/>
       <c r="B158" s="40"/>
       <c r="C158" s="37"/>
-      <c r="D158" s="46"/>
+      <c r="D158" s="34"/>
       <c r="E158" s="16"/>
       <c r="F158" s="5" t="s">
         <v>259</v>
@@ -4187,7 +4247,7 @@
       <c r="A159" s="44"/>
       <c r="B159" s="41"/>
       <c r="C159" s="38"/>
-      <c r="D159" s="47"/>
+      <c r="D159" s="35"/>
       <c r="E159" s="18"/>
       <c r="F159" s="11" t="s">
         <v>251</v>
@@ -4203,7 +4263,7 @@
       <c r="C160" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="D160" s="33" t="s">
+      <c r="D160" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E160" s="16" t="s">
@@ -4215,7 +4275,7 @@
       <c r="A161" s="43"/>
       <c r="B161" s="40"/>
       <c r="C161" s="37"/>
-      <c r="D161" s="34"/>
+      <c r="D161" s="49"/>
       <c r="E161" s="22" t="s">
         <v>188</v>
       </c>
@@ -4225,7 +4285,7 @@
       <c r="A162" s="43"/>
       <c r="B162" s="40"/>
       <c r="C162" s="37"/>
-      <c r="D162" s="34"/>
+      <c r="D162" s="49"/>
       <c r="E162" s="16" t="s">
         <v>260</v>
       </c>
@@ -4235,7 +4295,7 @@
       <c r="A163" s="43"/>
       <c r="B163" s="40"/>
       <c r="C163" s="37"/>
-      <c r="D163" s="34"/>
+      <c r="D163" s="49"/>
       <c r="E163" s="22" t="s">
         <v>261</v>
       </c>
@@ -4247,7 +4307,7 @@
       <c r="A164" s="44"/>
       <c r="B164" s="41"/>
       <c r="C164" s="38"/>
-      <c r="D164" s="35"/>
+      <c r="D164" s="50"/>
       <c r="E164" s="18" t="s">
         <v>263</v>
       </c>
@@ -4265,7 +4325,7 @@
       <c r="C165" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="D165" s="45" t="s">
+      <c r="D165" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E165" s="16" t="s">
@@ -4277,7 +4337,7 @@
       <c r="A166" s="43"/>
       <c r="B166" s="40"/>
       <c r="C166" s="37"/>
-      <c r="D166" s="46"/>
+      <c r="D166" s="34"/>
       <c r="E166" s="22" t="s">
         <v>20</v>
       </c>
@@ -4287,7 +4347,7 @@
       <c r="A167" s="43"/>
       <c r="B167" s="40"/>
       <c r="C167" s="37"/>
-      <c r="D167" s="46"/>
+      <c r="D167" s="34"/>
       <c r="E167" s="16" t="s">
         <v>267</v>
       </c>
@@ -4297,7 +4357,7 @@
       <c r="A168" s="44"/>
       <c r="B168" s="41"/>
       <c r="C168" s="38"/>
-      <c r="D168" s="47"/>
+      <c r="D168" s="35"/>
       <c r="E168" s="18" t="s">
         <v>268</v>
       </c>
@@ -4315,7 +4375,7 @@
       <c r="C169" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="D169" s="45" t="s">
+      <c r="D169" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E169" s="16" t="s">
@@ -4327,7 +4387,7 @@
       <c r="A170" s="43"/>
       <c r="B170" s="40"/>
       <c r="C170" s="37"/>
-      <c r="D170" s="46"/>
+      <c r="D170" s="34"/>
       <c r="E170" s="22" t="s">
         <v>20</v>
       </c>
@@ -4337,7 +4397,7 @@
       <c r="A171" s="43"/>
       <c r="B171" s="40"/>
       <c r="C171" s="37"/>
-      <c r="D171" s="46"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="16" t="s">
         <v>267</v>
       </c>
@@ -4347,7 +4407,7 @@
       <c r="A172" s="44"/>
       <c r="B172" s="41"/>
       <c r="C172" s="38"/>
-      <c r="D172" s="47"/>
+      <c r="D172" s="35"/>
       <c r="E172" s="18" t="s">
         <v>274</v>
       </c>
@@ -4365,7 +4425,7 @@
       <c r="C173" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="D173" s="45" t="s">
+      <c r="D173" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E173" s="16" t="s">
@@ -4377,7 +4437,7 @@
       <c r="A174" s="43"/>
       <c r="B174" s="40"/>
       <c r="C174" s="37"/>
-      <c r="D174" s="46"/>
+      <c r="D174" s="34"/>
       <c r="E174" s="22" t="s">
         <v>20</v>
       </c>
@@ -4387,7 +4447,7 @@
       <c r="A175" s="43"/>
       <c r="B175" s="40"/>
       <c r="C175" s="37"/>
-      <c r="D175" s="46"/>
+      <c r="D175" s="34"/>
       <c r="E175" s="16" t="s">
         <v>275</v>
       </c>
@@ -4399,7 +4459,7 @@
       <c r="A176" s="44"/>
       <c r="B176" s="41"/>
       <c r="C176" s="38"/>
-      <c r="D176" s="47"/>
+      <c r="D176" s="35"/>
       <c r="E176" s="18" t="s">
         <v>276</v>
       </c>
@@ -4417,7 +4477,7 @@
       <c r="C177" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="D177" s="45" t="s">
+      <c r="D177" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E177" s="16" t="s">
@@ -4429,7 +4489,7 @@
       <c r="A178" s="43"/>
       <c r="B178" s="40"/>
       <c r="C178" s="37"/>
-      <c r="D178" s="46"/>
+      <c r="D178" s="34"/>
       <c r="E178" s="22" t="s">
         <v>20</v>
       </c>
@@ -4439,7 +4499,7 @@
       <c r="A179" s="43"/>
       <c r="B179" s="40"/>
       <c r="C179" s="37"/>
-      <c r="D179" s="46"/>
+      <c r="D179" s="34"/>
       <c r="E179" s="16" t="s">
         <v>285</v>
       </c>
@@ -4451,7 +4511,7 @@
       <c r="A180" s="44"/>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
-      <c r="D180" s="47"/>
+      <c r="D180" s="35"/>
       <c r="E180" s="18"/>
       <c r="F180" s="11" t="s">
         <v>287</v>
@@ -4467,7 +4527,7 @@
       <c r="C181" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="D181" s="51" t="s">
+      <c r="D181" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E181" s="16" t="s">
@@ -4479,7 +4539,7 @@
       <c r="A182" s="43"/>
       <c r="B182" s="40"/>
       <c r="C182" s="37"/>
-      <c r="D182" s="46"/>
+      <c r="D182" s="34"/>
       <c r="E182" s="22" t="s">
         <v>20</v>
       </c>
@@ -4489,7 +4549,7 @@
       <c r="A183" s="43"/>
       <c r="B183" s="40"/>
       <c r="C183" s="37"/>
-      <c r="D183" s="46"/>
+      <c r="D183" s="34"/>
       <c r="E183" s="16" t="s">
         <v>291</v>
       </c>
@@ -4501,7 +4561,7 @@
       <c r="A184" s="44"/>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
-      <c r="D184" s="47"/>
+      <c r="D184" s="35"/>
       <c r="E184" s="18"/>
       <c r="F184" s="11" t="s">
         <v>292</v>
@@ -4517,7 +4577,7 @@
       <c r="C185" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="D185" s="51" t="s">
+      <c r="D185" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E185" s="16" t="s">
@@ -4529,7 +4589,7 @@
       <c r="A186" s="43"/>
       <c r="B186" s="40"/>
       <c r="C186" s="37"/>
-      <c r="D186" s="46"/>
+      <c r="D186" s="34"/>
       <c r="E186" s="22" t="s">
         <v>20</v>
       </c>
@@ -4539,7 +4599,7 @@
       <c r="A187" s="43"/>
       <c r="B187" s="40"/>
       <c r="C187" s="37"/>
-      <c r="D187" s="46"/>
+      <c r="D187" s="34"/>
       <c r="E187" s="16" t="s">
         <v>303</v>
       </c>
@@ -4551,7 +4611,7 @@
       <c r="A188" s="44"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
-      <c r="D188" s="47"/>
+      <c r="D188" s="35"/>
       <c r="E188" s="18"/>
       <c r="F188" s="11" t="s">
         <v>295</v>
@@ -4567,7 +4627,7 @@
       <c r="C189" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="D189" s="51" t="s">
+      <c r="D189" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E189" s="16" t="s">
@@ -4579,7 +4639,7 @@
       <c r="A190" s="43"/>
       <c r="B190" s="40"/>
       <c r="C190" s="37"/>
-      <c r="D190" s="46"/>
+      <c r="D190" s="34"/>
       <c r="E190" s="22" t="s">
         <v>20</v>
       </c>
@@ -4589,7 +4649,7 @@
       <c r="A191" s="43"/>
       <c r="B191" s="40"/>
       <c r="C191" s="37"/>
-      <c r="D191" s="46"/>
+      <c r="D191" s="34"/>
       <c r="E191" s="16" t="s">
         <v>299</v>
       </c>
@@ -4599,7 +4659,7 @@
       <c r="A192" s="43"/>
       <c r="B192" s="40"/>
       <c r="C192" s="37"/>
-      <c r="D192" s="46"/>
+      <c r="D192" s="34"/>
       <c r="E192" s="19" t="s">
         <v>300</v>
       </c>
@@ -4609,7 +4669,7 @@
       <c r="A193" s="43"/>
       <c r="B193" s="40"/>
       <c r="C193" s="37"/>
-      <c r="D193" s="46"/>
+      <c r="D193" s="34"/>
       <c r="E193" s="19" t="s">
         <v>301</v>
       </c>
@@ -4627,7 +4687,7 @@
       <c r="C194" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="D194" s="33" t="s">
+      <c r="D194" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E194" s="15" t="s">
@@ -4639,7 +4699,7 @@
       <c r="A195" s="43"/>
       <c r="B195" s="40"/>
       <c r="C195" s="37"/>
-      <c r="D195" s="34"/>
+      <c r="D195" s="49"/>
       <c r="E195" s="22" t="s">
         <v>20</v>
       </c>
@@ -4649,7 +4709,7 @@
       <c r="A196" s="43"/>
       <c r="B196" s="40"/>
       <c r="C196" s="37"/>
-      <c r="D196" s="34"/>
+      <c r="D196" s="49"/>
       <c r="E196" s="19" t="s">
         <v>291</v>
       </c>
@@ -4661,7 +4721,7 @@
       <c r="A197" s="43"/>
       <c r="B197" s="40"/>
       <c r="C197" s="37"/>
-      <c r="D197" s="34"/>
+      <c r="D197" s="49"/>
       <c r="E197" s="19" t="s">
         <v>304</v>
       </c>
@@ -4673,15 +4733,203 @@
       <c r="A198" s="44"/>
       <c r="B198" s="41"/>
       <c r="C198" s="38"/>
-      <c r="D198" s="35"/>
+      <c r="D198" s="50"/>
       <c r="E198" s="18"/>
       <c r="F198" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="B199" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C199" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D199" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E199" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="5"/>
+    </row>
+    <row r="200" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A200" s="46"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="34"/>
+      <c r="E200" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="47"/>
+      <c r="B201" s="41"/>
+      <c r="C201" s="38"/>
+      <c r="D201" s="35"/>
+      <c r="E201" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B202" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C202" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D202" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="5"/>
+    </row>
+    <row r="203" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A203" s="43"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="34"/>
+      <c r="E203" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="43"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="34"/>
+      <c r="E204" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="44"/>
+      <c r="B205" s="41"/>
+      <c r="C205" s="38"/>
+      <c r="D205" s="35"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="B206" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C206" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D206" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="5"/>
+    </row>
+    <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A207" s="43"/>
+      <c r="B207" s="40"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="34"/>
+      <c r="E207" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F207" s="5"/>
+    </row>
+    <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="43"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="34"/>
+      <c r="E208" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="43"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="37"/>
+      <c r="D209" s="34"/>
+      <c r="E209" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F209" s="5"/>
+    </row>
+    <row r="210" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="43"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="34"/>
+      <c r="E210" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F210" s="5"/>
+    </row>
+    <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="43"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="37"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="43"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="34"/>
+      <c r="E212" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F212" s="5"/>
+    </row>
+    <row r="213" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="44"/>
+      <c r="B213" s="41"/>
+      <c r="C213" s="38"/>
+      <c r="D213" s="35"/>
+      <c r="E213" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F213" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="178">
+  <mergeCells count="190">
     <mergeCell ref="A185:A188"/>
     <mergeCell ref="B185:B188"/>
     <mergeCell ref="C185:C188"/>
@@ -4860,6 +5108,18 @@
     <mergeCell ref="B156:B159"/>
     <mergeCell ref="A156:A159"/>
     <mergeCell ref="C156:C159"/>
+    <mergeCell ref="D206:D213"/>
+    <mergeCell ref="C206:C213"/>
+    <mergeCell ref="B206:B213"/>
+    <mergeCell ref="A206:A213"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="C202:C205"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4028B215-8D7D-4685-8945-33328DC0C293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647320A-2C84-4AB7-B308-C4D71E0B81B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28785" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="387">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1019,12 +1019,197 @@
   <si>
     <t>6. Click another presented result item</t>
   </si>
+  <si>
+    <t>Music Library</t>
+  </si>
+  <si>
+    <t>Cart's Suggested Items</t>
+  </si>
+  <si>
+    <t>Sign In Page - Home Page</t>
+  </si>
+  <si>
+    <t>Today's Deals - Home Page</t>
+  </si>
+  <si>
+    <t>SK_48</t>
+  </si>
+  <si>
+    <t>3. Click AmazonSmile Charity Lists</t>
+  </si>
+  <si>
+    <t>AmazonSmile</t>
+  </si>
+  <si>
+    <t>Charity Lists title is presented</t>
+  </si>
+  <si>
+    <t>AmazonSmile page is presented</t>
+  </si>
+  <si>
+    <t>The current donated amount is presented</t>
+  </si>
+  <si>
+    <t>There are two Get Started buttons</t>
+  </si>
+  <si>
+    <t>4. Click a Get Started button</t>
+  </si>
+  <si>
+    <r>
+      <t>You shop. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Amazon gives. Page is presented, including a textbox for email or mobile phone number</t>
+    </r>
+  </si>
+  <si>
+    <t>SK_49</t>
+  </si>
+  <si>
+    <t>3. Click Music Library</t>
+  </si>
+  <si>
+    <t>Amazon Music page is displayed</t>
+  </si>
+  <si>
+    <t>There is a sign in button, search option and a number of music items</t>
+  </si>
+  <si>
+    <t>4. Click play on one of the music items</t>
+  </si>
+  <si>
+    <t>5. Click the cancel button</t>
+  </si>
+  <si>
+    <t>The dialog window isn't displayes anymore</t>
+  </si>
+  <si>
+    <t>A dialog windows pops up, suggesting to Sign In for Free Streaming Music</t>
+  </si>
+  <si>
+    <t>Verify that Amazon Music page is displayed properly after clicking the Music Library link</t>
+  </si>
+  <si>
+    <t>Verify that Amazon Smile page is displayed properly after clicking the AmazonSmile Charity Lists link</t>
+  </si>
+  <si>
+    <t>SK_50</t>
+  </si>
+  <si>
+    <t>Browsing History</t>
+  </si>
+  <si>
+    <t>4. Hover over the Account &amp; Lists</t>
+  </si>
+  <si>
+    <t>5. Click Browsing History</t>
+  </si>
+  <si>
+    <t>Browsing History page is displayed</t>
+  </si>
+  <si>
+    <t>The presented item from before is presented</t>
+  </si>
+  <si>
+    <t>Browsing History - Remove from view</t>
+  </si>
+  <si>
+    <t>Browsing History - Remove all items from view</t>
+  </si>
+  <si>
+    <t>SK_51</t>
+  </si>
+  <si>
+    <t>6. Click Remove from view on an item</t>
+  </si>
+  <si>
+    <t>Item is removed</t>
+  </si>
+  <si>
+    <t>SK_52</t>
+  </si>
+  <si>
+    <t>7. Hover over the Account &amp; Lists</t>
+  </si>
+  <si>
+    <t>8. Click Browsing History</t>
+  </si>
+  <si>
+    <t>9. Click Manage history</t>
+  </si>
+  <si>
+    <t>10. Click Remove all items from view</t>
+  </si>
+  <si>
+    <t>a popup is displayed</t>
+  </si>
+  <si>
+    <t>11. Click the Remove all items from view button</t>
+  </si>
+  <si>
+    <t>The diaplayed message is You have no recently viewed items.</t>
+  </si>
+  <si>
+    <t>A managing section is expanded</t>
+  </si>
+  <si>
+    <t>Verify that the Remove all items from view function on the browsing history page is working</t>
+  </si>
+  <si>
+    <t>Verify that the Remove from view function on the browsing history page is working</t>
+  </si>
+  <si>
+    <t>Verify that the browsing history page is displayed properly</t>
+  </si>
+  <si>
+    <t>SK_53</t>
+  </si>
+  <si>
+    <t>SK_54</t>
+  </si>
+  <si>
+    <t>"Customers who bought items in your cart also bought" section is presented, and there are items in it.</t>
+  </si>
+  <si>
+    <t>3. Click the Sign in button</t>
+  </si>
+  <si>
+    <t>Sign-In page is displayed</t>
+  </si>
+  <si>
+    <t>4. Click the amazon logo</t>
+  </si>
+  <si>
+    <t>The home page is presented</t>
+  </si>
+  <si>
+    <t>Verify user can navigate from Sign In page to home page using the amazon logo</t>
+  </si>
+  <si>
+    <t>SK_55</t>
+  </si>
+  <si>
+    <t>After adding items to your cart, There are suggested items based on the added items</t>
+  </si>
+  <si>
+    <t>3. Click the amazon logo</t>
+  </si>
+  <si>
+    <t>Verify user can navigate from Today's Deals page to home page using the amazon logo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,6 +1256,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -1741,6 +1932,33 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1750,32 +1968,29 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1786,83 +2001,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1874,23 +2017,71 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2243,56 +2434,56 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="35"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2301,16 +2492,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2319,10 +2510,10 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="35"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -2331,16 +2522,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="62" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -2349,20 +2540,20 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="66"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
@@ -2371,26 +2562,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2399,10 +2590,10 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2411,10 +2602,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="35"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
@@ -2422,36 +2613,36 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="34"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="34"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -2460,13 +2651,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="39" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -2478,9 +2669,9 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="28" t="s">
         <v>39</v>
       </c>
@@ -2490,9 +2681,9 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="28" t="s">
         <v>43</v>
       </c>
@@ -2502,9 +2693,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="21"/>
       <c r="E22" s="19"/>
       <c r="F22" s="11" t="s">
@@ -2512,16 +2703,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2530,20 +2721,20 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="34"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="35"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
@@ -2552,16 +2743,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -2570,30 +2761,30 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="49"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="49"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
@@ -2602,36 +2793,36 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="50"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -2640,10 +2831,10 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="49"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="16" t="s">
         <v>61</v>
       </c>
@@ -2652,30 +2843,30 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="49"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="22" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="49"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="50"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -2684,16 +2875,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -2702,10 +2893,10 @@
       <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="49"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="16" t="s">
         <v>61</v>
       </c>
@@ -2714,20 +2905,20 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="49"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="49"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="16" t="s">
         <v>73</v>
       </c>
@@ -2736,10 +2927,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="50"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="18" t="s">
         <v>74</v>
       </c>
@@ -2748,16 +2939,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -2766,10 +2957,10 @@
       <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="34"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="24" t="s">
         <v>79</v>
       </c>
@@ -2778,10 +2969,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="34"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="22" t="s">
         <v>80</v>
       </c>
@@ -2790,10 +2981,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="35"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="18" t="s">
         <v>85</v>
       </c>
@@ -2802,13 +2993,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="39" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="29" t="s">
@@ -2820,9 +3011,9 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="38"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="27" t="s">
         <v>39</v>
       </c>
@@ -2834,13 +3025,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="39" t="s">
         <v>94</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -2852,9 +3043,9 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="37"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="28" t="s">
         <v>39</v>
       </c>
@@ -2866,9 +3057,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="38"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="27"/>
       <c r="E50" s="12" t="s">
         <v>96</v>
@@ -2878,16 +3069,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="79" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -2896,10 +3087,10 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="56"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="80"/>
       <c r="E52" s="16" t="s">
         <v>95</v>
       </c>
@@ -2908,10 +3099,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="56"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="80"/>
       <c r="E53" s="22" t="s">
         <v>100</v>
       </c>
@@ -2920,10 +3111,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="80" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="56" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="16"/>
@@ -2932,10 +3123,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="81"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="18" t="s">
         <v>101</v>
       </c>
@@ -2944,16 +3135,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="49" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -2962,20 +3153,20 @@
       <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="43"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="79"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="43"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="80" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="56" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -2986,10 +3177,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="81"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="18" t="s">
         <v>110</v>
       </c>
@@ -2998,16 +3189,16 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -3016,20 +3207,20 @@
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="43"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="49"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="43"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="49"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="22" t="s">
         <v>105</v>
       </c>
@@ -3038,20 +3229,20 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="43"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="49"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="50"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="18" t="s">
         <v>111</v>
       </c>
@@ -3060,16 +3251,16 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="78" t="s">
+      <c r="D65" s="49" t="s">
         <v>27</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -3078,20 +3269,20 @@
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="43"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="79"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="80" t="s">
+      <c r="A67" s="34"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="56" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -3102,10 +3293,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="81"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="18" t="s">
         <v>117</v>
       </c>
@@ -3114,16 +3305,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -3132,20 +3323,20 @@
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="43"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="34"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="43"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="34"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="30" t="s">
         <v>126</v>
       </c>
@@ -3154,10 +3345,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="43"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="34"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="22" t="s">
         <v>128</v>
       </c>
@@ -3166,30 +3357,30 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="43"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="34"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="24" t="s">
         <v>130</v>
       </c>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="43"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="34"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="22" t="s">
         <v>131</v>
       </c>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="35"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="18" t="s">
         <v>132</v>
       </c>
@@ -3198,16 +3389,16 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="78" t="s">
+      <c r="D76" s="49" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="15" t="s">
@@ -3216,19 +3407,19 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="46"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="79"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="50"/>
       <c r="E77" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="38"/>
+      <c r="A78" s="55"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="31" t="s">
         <v>141</v>
       </c>
@@ -3240,16 +3431,16 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="78" t="s">
+      <c r="D79" s="49" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="15" t="s">
@@ -3258,20 +3449,20 @@
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="43"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="79"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="50"/>
       <c r="E80" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="43"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="79"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="50"/>
       <c r="E81" s="22" t="s">
         <v>150</v>
       </c>
@@ -3280,10 +3471,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="43"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="82" t="s">
+      <c r="A82" s="34"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="51" t="s">
         <v>141</v>
       </c>
       <c r="E82" s="16"/>
@@ -3292,26 +3483,26 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="83"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="52"/>
       <c r="E83" s="18"/>
       <c r="F83" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="78" t="s">
+      <c r="D84" s="49" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="16" t="s">
@@ -3320,19 +3511,19 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="43"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="79"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="50"/>
       <c r="E85" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="43"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="37"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="40"/>
       <c r="D86" s="32" t="s">
         <v>141</v>
       </c>
@@ -3344,9 +3535,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="38"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="31"/>
       <c r="E87" s="18"/>
       <c r="F87" s="11" t="s">
@@ -3354,16 +3545,16 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="48" t="s">
+      <c r="D88" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="15" t="s">
@@ -3372,10 +3563,10 @@
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="43"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="49"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="46"/>
       <c r="E89" s="16" t="s">
         <v>155</v>
       </c>
@@ -3384,10 +3575,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="43"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="49"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="46"/>
       <c r="E90" s="22" t="s">
         <v>156</v>
       </c>
@@ -3396,10 +3587,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="43"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="49"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="46"/>
       <c r="E91" s="16" t="s">
         <v>157</v>
       </c>
@@ -3408,26 +3599,26 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="50"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="18"/>
       <c r="F92" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="42" t="s">
+      <c r="A93" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="48" t="s">
+      <c r="D93" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="15" t="s">
@@ -3436,10 +3627,10 @@
       <c r="F93" s="25"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="43"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="49"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="16" t="s">
         <v>155</v>
       </c>
@@ -3448,10 +3639,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A95" s="43"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="49"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="46"/>
       <c r="E95" s="22" t="s">
         <v>164</v>
       </c>
@@ -3460,10 +3651,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="43"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="49"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="46"/>
       <c r="E96" s="16" t="s">
         <v>163</v>
       </c>
@@ -3472,10 +3663,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="50"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="18" t="s">
         <v>167</v>
       </c>
@@ -3484,16 +3675,16 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="42" t="s">
+      <c r="A98" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="48" t="s">
+      <c r="D98" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="15" t="s">
@@ -3502,10 +3693,10 @@
       <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="43"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="49"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="46"/>
       <c r="E99" s="16" t="s">
         <v>155</v>
       </c>
@@ -3514,10 +3705,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="43"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="49"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="46"/>
       <c r="E100" s="22" t="s">
         <v>172</v>
       </c>
@@ -3526,10 +3717,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="43"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="49"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="46"/>
       <c r="E101" s="16" t="s">
         <v>174</v>
       </c>
@@ -3538,26 +3729,26 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="50"/>
+      <c r="A102" s="35"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="18"/>
       <c r="F102" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D103" s="48" t="s">
+      <c r="D103" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="15" t="s">
@@ -3566,10 +3757,10 @@
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="43"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="49"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="46"/>
       <c r="E104" s="16" t="s">
         <v>155</v>
       </c>
@@ -3578,10 +3769,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="43"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="49"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="46"/>
       <c r="E105" s="22" t="s">
         <v>179</v>
       </c>
@@ -3590,36 +3781,36 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="43"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="49"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="46"/>
       <c r="E106" s="16"/>
       <c r="F106" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="50"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="47"/>
       <c r="E107" s="18"/>
       <c r="F107" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="15" t="s">
@@ -3628,20 +3819,20 @@
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="43"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="34"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="22" t="s">
         <v>188</v>
       </c>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="43"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="34"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="43"/>
       <c r="E110" s="16" t="s">
         <v>189</v>
       </c>
@@ -3650,10 +3841,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="35"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="44"/>
       <c r="E111" s="18" t="s">
         <v>191</v>
       </c>
@@ -3662,16 +3853,16 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="45" t="s">
+      <c r="A112" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="B112" s="39" t="s">
+      <c r="B112" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="D112" s="48" t="s">
+      <c r="D112" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="15" t="s">
@@ -3680,20 +3871,20 @@
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="46"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="49"/>
+      <c r="A113" s="54"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="46"/>
       <c r="E113" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="46"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="49"/>
+      <c r="A114" s="54"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="46"/>
       <c r="E114" s="16" t="s">
         <v>122</v>
       </c>
@@ -3702,10 +3893,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="46"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="49"/>
+      <c r="A115" s="54"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="46"/>
       <c r="E115" s="22" t="s">
         <v>202</v>
       </c>
@@ -3714,36 +3905,36 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A116" s="46"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="49"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="46"/>
       <c r="E116" s="16"/>
       <c r="F116" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="50"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="41"/>
+      <c r="D117" s="47"/>
       <c r="E117" s="18"/>
       <c r="F117" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="45" t="s">
+      <c r="A118" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="B118" s="39" t="s">
+      <c r="B118" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="D118" s="48" t="s">
+      <c r="D118" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E118" s="15" t="s">
@@ -3752,20 +3943,20 @@
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="46"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="49"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="46"/>
       <c r="E119" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="46"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="49"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="46"/>
       <c r="E120" s="16" t="s">
         <v>122</v>
       </c>
@@ -3774,10 +3965,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="46"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="49"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="46"/>
       <c r="E121" s="22" t="s">
         <v>208</v>
       </c>
@@ -3786,38 +3977,38 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A122" s="46"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="49"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="46"/>
       <c r="E122" s="16"/>
       <c r="F122" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="47"/>
-      <c r="B123" s="41" t="s">
+      <c r="A123" s="55"/>
+      <c r="B123" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="50"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="47"/>
       <c r="E123" s="18"/>
       <c r="F123" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B124" s="39" t="s">
+      <c r="B124" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="D124" s="51" t="s">
+      <c r="D124" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E124" s="15" t="s">
@@ -3826,20 +4017,20 @@
       <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="43"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="34"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="43"/>
       <c r="E125" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="43"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="34"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="43"/>
       <c r="E126" s="16" t="s">
         <v>105</v>
       </c>
@@ -3848,10 +4039,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
-      <c r="B127" s="41"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="35"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="44"/>
       <c r="E127" s="18" t="s">
         <v>213</v>
       </c>
@@ -3860,16 +4051,16 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="42" t="s">
+      <c r="A128" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="D128" s="48" t="s">
+      <c r="D128" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E128" s="24" t="s">
@@ -3878,20 +4069,20 @@
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="43"/>
-      <c r="B129" s="40"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="49"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="46"/>
       <c r="E129" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="43"/>
-      <c r="B130" s="40"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="49"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="46"/>
       <c r="E130" s="22" t="s">
         <v>122</v>
       </c>
@@ -3900,10 +4091,10 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="43"/>
-      <c r="B131" s="40"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="49"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="46"/>
       <c r="E131" s="16" t="s">
         <v>217</v>
       </c>
@@ -3912,10 +4103,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
-      <c r="B132" s="41"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="50"/>
+      <c r="A132" s="35"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="47"/>
       <c r="E132" s="18" t="s">
         <v>219</v>
       </c>
@@ -3924,16 +4115,16 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="42" t="s">
+      <c r="A133" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C133" s="36" t="s">
+      <c r="C133" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D133" s="48" t="s">
+      <c r="D133" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E133" s="15" t="s">
@@ -3942,20 +4133,20 @@
       <c r="F133" s="25"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="43"/>
-      <c r="B134" s="40"/>
-      <c r="C134" s="37"/>
-      <c r="D134" s="49"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="46"/>
       <c r="E134" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F134" s="5"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="43"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="49"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="46"/>
       <c r="E135" s="16" t="s">
         <v>122</v>
       </c>
@@ -3964,10 +4155,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="43"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="37"/>
-      <c r="D136" s="49"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="46"/>
       <c r="E136" s="22" t="s">
         <v>224</v>
       </c>
@@ -3976,10 +4167,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="43"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="49"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="46"/>
       <c r="E137" s="16" t="s">
         <v>225</v>
       </c>
@@ -3988,20 +4179,20 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="43"/>
-      <c r="B138" s="40"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="49"/>
+      <c r="A138" s="34"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="46"/>
       <c r="E138" s="16" t="s">
         <v>227</v>
       </c>
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
-      <c r="B139" s="41"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="50"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="47"/>
       <c r="E139" s="18" t="s">
         <v>228</v>
       </c>
@@ -4010,16 +4201,16 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="42" t="s">
+      <c r="A140" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B140" s="39" t="s">
+      <c r="B140" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C140" s="36" t="s">
+      <c r="C140" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D140" s="48" t="s">
+      <c r="D140" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E140" s="15" t="s">
@@ -4028,20 +4219,20 @@
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="43"/>
-      <c r="B141" s="40"/>
-      <c r="C141" s="37"/>
-      <c r="D141" s="49"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="46"/>
       <c r="E141" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="43"/>
-      <c r="B142" s="40"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="49"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="46"/>
       <c r="E142" s="16" t="s">
         <v>122</v>
       </c>
@@ -4050,10 +4241,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="43"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="49"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="46"/>
       <c r="E143" s="16" t="s">
         <v>232</v>
       </c>
@@ -4062,30 +4253,30 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="43"/>
-      <c r="B144" s="40"/>
-      <c r="C144" s="37"/>
-      <c r="D144" s="49"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="46"/>
       <c r="E144" s="22" t="s">
         <v>233</v>
       </c>
       <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="43"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="49"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="46"/>
       <c r="E145" s="16" t="s">
         <v>234</v>
       </c>
       <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
-      <c r="B146" s="41"/>
-      <c r="C146" s="38"/>
-      <c r="D146" s="50"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="38"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="47"/>
       <c r="E146" s="18" t="s">
         <v>235</v>
       </c>
@@ -4094,16 +4285,16 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="42" t="s">
+      <c r="A147" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C147" s="36" t="s">
+      <c r="C147" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="D147" s="48" t="s">
+      <c r="D147" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E147" s="24" t="s">
@@ -4112,20 +4303,20 @@
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="43"/>
-      <c r="B148" s="40"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="49"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="46"/>
       <c r="E148" s="16" t="s">
         <v>237</v>
       </c>
       <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="43"/>
-      <c r="B149" s="40"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="49"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="46"/>
       <c r="E149" s="22" t="s">
         <v>238</v>
       </c>
@@ -4134,36 +4325,36 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="43"/>
-      <c r="B150" s="40"/>
-      <c r="C150" s="37"/>
-      <c r="D150" s="49"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="46"/>
       <c r="E150" s="16"/>
       <c r="F150" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
-      <c r="B151" s="41"/>
-      <c r="C151" s="38"/>
-      <c r="D151" s="50"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="38"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="47"/>
       <c r="E151" s="18"/>
       <c r="F151" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="42" t="s">
+      <c r="A152" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B152" s="39" t="s">
+      <c r="B152" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C152" s="36" t="s">
+      <c r="C152" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="D152" s="51" t="s">
+      <c r="D152" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E152" s="16" t="s">
@@ -4172,10 +4363,10 @@
       <c r="F152" s="5"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="43"/>
-      <c r="B153" s="40"/>
-      <c r="C153" s="37"/>
-      <c r="D153" s="34"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="43"/>
       <c r="E153" s="22" t="s">
         <v>243</v>
       </c>
@@ -4184,36 +4375,36 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="43"/>
-      <c r="B154" s="40"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="34"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="43"/>
       <c r="E154" s="16"/>
       <c r="F154" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="44"/>
-      <c r="B155" s="41"/>
-      <c r="C155" s="38"/>
-      <c r="D155" s="35"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="38"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="44"/>
       <c r="E155" s="18"/>
       <c r="F155" s="11" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="42" t="s">
+      <c r="A156" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="B156" s="39" t="s">
+      <c r="B156" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="C156" s="36" t="s">
+      <c r="C156" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="D156" s="51" t="s">
+      <c r="D156" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E156" s="16" t="s">
@@ -4222,10 +4413,10 @@
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="43"/>
-      <c r="B157" s="40"/>
-      <c r="C157" s="37"/>
-      <c r="D157" s="34"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="43"/>
       <c r="E157" s="22" t="s">
         <v>249</v>
       </c>
@@ -4234,36 +4425,36 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="43"/>
-      <c r="B158" s="40"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="34"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="43"/>
       <c r="E158" s="16"/>
       <c r="F158" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
-      <c r="B159" s="41"/>
-      <c r="C159" s="38"/>
-      <c r="D159" s="35"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="41"/>
+      <c r="D159" s="44"/>
       <c r="E159" s="18"/>
       <c r="F159" s="11" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="42" t="s">
+      <c r="A160" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C160" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="D160" s="48" t="s">
+      <c r="D160" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E160" s="16" t="s">
@@ -4272,30 +4463,30 @@
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="43"/>
-      <c r="B161" s="40"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="49"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="46"/>
       <c r="E161" s="22" t="s">
         <v>188</v>
       </c>
       <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="43"/>
-      <c r="B162" s="40"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="49"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="37"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="46"/>
       <c r="E162" s="16" t="s">
         <v>260</v>
       </c>
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="43"/>
-      <c r="B163" s="40"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="49"/>
+      <c r="A163" s="34"/>
+      <c r="B163" s="37"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="46"/>
       <c r="E163" s="22" t="s">
         <v>261</v>
       </c>
@@ -4304,10 +4495,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
-      <c r="B164" s="41"/>
-      <c r="C164" s="38"/>
-      <c r="D164" s="50"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="47"/>
       <c r="E164" s="18" t="s">
         <v>263</v>
       </c>
@@ -4316,16 +4507,16 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="42" t="s">
+      <c r="A165" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="B165" s="39" t="s">
+      <c r="B165" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="C165" s="36" t="s">
+      <c r="C165" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="D165" s="51" t="s">
+      <c r="D165" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E165" s="16" t="s">
@@ -4334,30 +4525,30 @@
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="43"/>
-      <c r="B166" s="40"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="34"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="43"/>
       <c r="E166" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="43"/>
-      <c r="B167" s="40"/>
-      <c r="C167" s="37"/>
-      <c r="D167" s="34"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="43"/>
       <c r="E167" s="16" t="s">
         <v>267</v>
       </c>
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
-      <c r="B168" s="41"/>
-      <c r="C168" s="38"/>
-      <c r="D168" s="35"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="44"/>
       <c r="E168" s="18" t="s">
         <v>268</v>
       </c>
@@ -4366,16 +4557,16 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="42" t="s">
+      <c r="A169" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B169" s="39" t="s">
+      <c r="B169" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="C169" s="36" t="s">
+      <c r="C169" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="D169" s="51" t="s">
+      <c r="D169" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E169" s="16" t="s">
@@ -4384,30 +4575,30 @@
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="43"/>
-      <c r="B170" s="40"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="34"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="37"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="43"/>
       <c r="E170" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="43"/>
-      <c r="B171" s="40"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="34"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="43"/>
       <c r="E171" s="16" t="s">
         <v>267</v>
       </c>
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
-      <c r="B172" s="41"/>
-      <c r="C172" s="38"/>
-      <c r="D172" s="35"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="38"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="44"/>
       <c r="E172" s="18" t="s">
         <v>274</v>
       </c>
@@ -4416,16 +4607,16 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="42" t="s">
+      <c r="A173" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B173" s="39" t="s">
+      <c r="B173" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="C173" s="36" t="s">
+      <c r="C173" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D173" s="51" t="s">
+      <c r="D173" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E173" s="16" t="s">
@@ -4434,20 +4625,20 @@
       <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="43"/>
-      <c r="B174" s="40"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="34"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="37"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="43"/>
       <c r="E174" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="43"/>
-      <c r="B175" s="40"/>
-      <c r="C175" s="37"/>
-      <c r="D175" s="34"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="37"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="43"/>
       <c r="E175" s="16" t="s">
         <v>275</v>
       </c>
@@ -4456,10 +4647,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
-      <c r="B176" s="41"/>
-      <c r="C176" s="38"/>
-      <c r="D176" s="35"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="38"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="44"/>
       <c r="E176" s="18" t="s">
         <v>276</v>
       </c>
@@ -4468,16 +4659,16 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="42" t="s">
+      <c r="A177" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B177" s="39" t="s">
+      <c r="B177" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="C177" s="36" t="s">
+      <c r="C177" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="D177" s="51" t="s">
+      <c r="D177" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E177" s="16" t="s">
@@ -4486,20 +4677,20 @@
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="43"/>
-      <c r="B178" s="40"/>
-      <c r="C178" s="37"/>
-      <c r="D178" s="34"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="37"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="43"/>
       <c r="E178" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="43"/>
-      <c r="B179" s="40"/>
-      <c r="C179" s="37"/>
-      <c r="D179" s="34"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="37"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="43"/>
       <c r="E179" s="16" t="s">
         <v>285</v>
       </c>
@@ -4508,26 +4699,26 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
-      <c r="B180" s="41"/>
-      <c r="C180" s="38"/>
-      <c r="D180" s="35"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="38"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="44"/>
       <c r="E180" s="18"/>
       <c r="F180" s="11" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="42" t="s">
+      <c r="A181" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B181" s="39" t="s">
+      <c r="B181" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="C181" s="36" t="s">
+      <c r="C181" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="D181" s="33" t="s">
+      <c r="D181" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E181" s="16" t="s">
@@ -4536,20 +4727,20 @@
       <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="43"/>
-      <c r="B182" s="40"/>
-      <c r="C182" s="37"/>
-      <c r="D182" s="34"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="37"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="43"/>
       <c r="E182" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="43"/>
-      <c r="B183" s="40"/>
-      <c r="C183" s="37"/>
-      <c r="D183" s="34"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="37"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="43"/>
       <c r="E183" s="16" t="s">
         <v>291</v>
       </c>
@@ -4558,26 +4749,26 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
-      <c r="B184" s="41"/>
-      <c r="C184" s="38"/>
-      <c r="D184" s="35"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="38"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="44"/>
       <c r="E184" s="18"/>
       <c r="F184" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="42" t="s">
+      <c r="A185" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B185" s="39" t="s">
+      <c r="B185" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="C185" s="36" t="s">
+      <c r="C185" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="D185" s="33" t="s">
+      <c r="D185" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E185" s="16" t="s">
@@ -4586,20 +4777,20 @@
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="43"/>
-      <c r="B186" s="40"/>
-      <c r="C186" s="37"/>
-      <c r="D186" s="34"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="37"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="43"/>
       <c r="E186" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="43"/>
-      <c r="B187" s="40"/>
-      <c r="C187" s="37"/>
-      <c r="D187" s="34"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="37"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="43"/>
       <c r="E187" s="16" t="s">
         <v>303</v>
       </c>
@@ -4608,26 +4799,26 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="44"/>
-      <c r="B188" s="41"/>
-      <c r="C188" s="38"/>
-      <c r="D188" s="35"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="38"/>
+      <c r="C188" s="41"/>
+      <c r="D188" s="44"/>
       <c r="E188" s="18"/>
       <c r="F188" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="42" t="s">
+      <c r="A189" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="B189" s="39" t="s">
+      <c r="B189" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="C189" s="36" t="s">
+      <c r="C189" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="D189" s="33" t="s">
+      <c r="D189" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E189" s="16" t="s">
@@ -4636,40 +4827,40 @@
       <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="43"/>
-      <c r="B190" s="40"/>
-      <c r="C190" s="37"/>
-      <c r="D190" s="34"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="37"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="43"/>
       <c r="E190" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="43"/>
-      <c r="B191" s="40"/>
-      <c r="C191" s="37"/>
-      <c r="D191" s="34"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="37"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="43"/>
       <c r="E191" s="16" t="s">
         <v>299</v>
       </c>
       <c r="F191" s="5"/>
     </row>
     <row r="192" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="43"/>
-      <c r="B192" s="40"/>
-      <c r="C192" s="37"/>
-      <c r="D192" s="34"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="37"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="43"/>
       <c r="E192" s="19" t="s">
         <v>300</v>
       </c>
       <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="43"/>
-      <c r="B193" s="40"/>
-      <c r="C193" s="37"/>
-      <c r="D193" s="34"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="43"/>
       <c r="E193" s="19" t="s">
         <v>301</v>
       </c>
@@ -4678,16 +4869,16 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="42" t="s">
+      <c r="A194" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="B194" s="39" t="s">
+      <c r="B194" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="C194" s="36" t="s">
+      <c r="C194" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="D194" s="48" t="s">
+      <c r="D194" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E194" s="15" t="s">
@@ -4696,20 +4887,20 @@
       <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="43"/>
-      <c r="B195" s="40"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="49"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="46"/>
       <c r="E195" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="43"/>
-      <c r="B196" s="40"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="49"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="46"/>
       <c r="E196" s="19" t="s">
         <v>291</v>
       </c>
@@ -4718,10 +4909,10 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="43"/>
-      <c r="B197" s="40"/>
-      <c r="C197" s="37"/>
-      <c r="D197" s="49"/>
+      <c r="A197" s="34"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="46"/>
       <c r="E197" s="19" t="s">
         <v>304</v>
       </c>
@@ -4730,26 +4921,26 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="44"/>
-      <c r="B198" s="41"/>
-      <c r="C198" s="38"/>
-      <c r="D198" s="50"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="38"/>
+      <c r="C198" s="41"/>
+      <c r="D198" s="47"/>
       <c r="E198" s="18"/>
       <c r="F198" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="45" t="s">
+      <c r="A199" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="B199" s="39" t="s">
+      <c r="B199" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="C199" s="36" t="s">
+      <c r="C199" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="D199" s="33" t="s">
+      <c r="D199" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E199" s="19" t="s">
@@ -4758,10 +4949,10 @@
       <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A200" s="46"/>
-      <c r="B200" s="40"/>
-      <c r="C200" s="37"/>
-      <c r="D200" s="34"/>
+      <c r="A200" s="54"/>
+      <c r="B200" s="37"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="43"/>
       <c r="E200" s="19" t="s">
         <v>313</v>
       </c>
@@ -4770,10 +4961,10 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="47"/>
-      <c r="B201" s="41"/>
-      <c r="C201" s="38"/>
-      <c r="D201" s="35"/>
+      <c r="A201" s="55"/>
+      <c r="B201" s="38"/>
+      <c r="C201" s="41"/>
+      <c r="D201" s="44"/>
       <c r="E201" s="18" t="s">
         <v>315</v>
       </c>
@@ -4782,16 +4973,16 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="42" t="s">
+      <c r="A202" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="B202" s="39" t="s">
+      <c r="B202" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="C202" s="36" t="s">
+      <c r="C202" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="D202" s="33" t="s">
+      <c r="D202" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="16" t="s">
@@ -4800,10 +4991,10 @@
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="43"/>
-      <c r="B203" s="40"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="34"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="43"/>
       <c r="E203" s="22" t="s">
         <v>313</v>
       </c>
@@ -4812,10 +5003,10 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="43"/>
-      <c r="B204" s="40"/>
-      <c r="C204" s="37"/>
-      <c r="D204" s="34"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="37"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="43"/>
       <c r="E204" s="16" t="s">
         <v>327</v>
       </c>
@@ -4824,26 +5015,26 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="44"/>
-      <c r="B205" s="41"/>
-      <c r="C205" s="38"/>
-      <c r="D205" s="35"/>
+      <c r="A205" s="35"/>
+      <c r="B205" s="38"/>
+      <c r="C205" s="41"/>
+      <c r="D205" s="44"/>
       <c r="E205" s="18"/>
       <c r="F205" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="42" t="s">
+      <c r="A206" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="B206" s="39" t="s">
+      <c r="B206" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="C206" s="36" t="s">
+      <c r="C206" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D206" s="33" t="s">
+      <c r="D206" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E206" s="16" t="s">
@@ -4852,20 +5043,20 @@
       <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="43"/>
-      <c r="B207" s="40"/>
-      <c r="C207" s="37"/>
-      <c r="D207" s="34"/>
+      <c r="A207" s="34"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="43"/>
       <c r="E207" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="43"/>
-      <c r="B208" s="40"/>
-      <c r="C208" s="37"/>
-      <c r="D208" s="34"/>
+      <c r="A208" s="34"/>
+      <c r="B208" s="37"/>
+      <c r="C208" s="40"/>
+      <c r="D208" s="43"/>
       <c r="E208" s="16" t="s">
         <v>122</v>
       </c>
@@ -4874,30 +5065,30 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="43"/>
-      <c r="B209" s="40"/>
-      <c r="C209" s="37"/>
-      <c r="D209" s="34"/>
+      <c r="A209" s="34"/>
+      <c r="B209" s="37"/>
+      <c r="C209" s="40"/>
+      <c r="D209" s="43"/>
       <c r="E209" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="43"/>
-      <c r="B210" s="40"/>
-      <c r="C210" s="37"/>
-      <c r="D210" s="34"/>
+      <c r="A210" s="34"/>
+      <c r="B210" s="37"/>
+      <c r="C210" s="40"/>
+      <c r="D210" s="43"/>
       <c r="E210" s="19" t="s">
         <v>323</v>
       </c>
       <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="43"/>
-      <c r="B211" s="40"/>
-      <c r="C211" s="37"/>
-      <c r="D211" s="34"/>
+      <c r="A211" s="34"/>
+      <c r="B211" s="37"/>
+      <c r="C211" s="40"/>
+      <c r="D211" s="43"/>
       <c r="E211" s="19" t="s">
         <v>328</v>
       </c>
@@ -4906,20 +5097,20 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="43"/>
-      <c r="B212" s="40"/>
-      <c r="C212" s="37"/>
-      <c r="D212" s="34"/>
+      <c r="A212" s="34"/>
+      <c r="B212" s="37"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="43"/>
       <c r="E212" s="19" t="s">
         <v>324</v>
       </c>
       <c r="F212" s="5"/>
     </row>
     <row r="213" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="44"/>
-      <c r="B213" s="41"/>
-      <c r="C213" s="38"/>
-      <c r="D213" s="35"/>
+      <c r="A213" s="35"/>
+      <c r="B213" s="38"/>
+      <c r="C213" s="41"/>
+      <c r="D213" s="44"/>
       <c r="E213" s="18" t="s">
         <v>325</v>
       </c>
@@ -4927,135 +5118,675 @@
         <v>326</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="214" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B214" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C214" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="D214" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="5"/>
+    </row>
+    <row r="215" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A215" s="34"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="46"/>
+      <c r="E215" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="34"/>
+      <c r="B216" s="37"/>
+      <c r="C216" s="40"/>
+      <c r="D216" s="46"/>
+      <c r="E216" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="34"/>
+      <c r="B217" s="37"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="46"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="34"/>
+      <c r="B218" s="37"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="46"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="34"/>
+      <c r="B219" s="37"/>
+      <c r="C219" s="40"/>
+      <c r="D219" s="46"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="35"/>
+      <c r="B220" s="38"/>
+      <c r="C220" s="41"/>
+      <c r="D220" s="47"/>
+      <c r="E220" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="B221" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C221" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D221" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="5"/>
+    </row>
+    <row r="222" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A222" s="54"/>
+      <c r="B222" s="37"/>
+      <c r="C222" s="40"/>
+      <c r="D222" s="46"/>
+      <c r="E222" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="54"/>
+      <c r="B223" s="37"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="46"/>
+      <c r="E223" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A224" s="54"/>
+      <c r="B224" s="37"/>
+      <c r="C224" s="40"/>
+      <c r="D224" s="46"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A225" s="54"/>
+      <c r="B225" s="37"/>
+      <c r="C225" s="40"/>
+      <c r="D225" s="46"/>
+      <c r="E225" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="55"/>
+      <c r="B226" s="38"/>
+      <c r="C226" s="41"/>
+      <c r="D226" s="47"/>
+      <c r="E226" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F226" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="B227" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C227" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="D227" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E227" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" s="5"/>
+    </row>
+    <row r="228" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="54"/>
+      <c r="B228" s="37"/>
+      <c r="C228" s="40"/>
+      <c r="D228" s="46"/>
+      <c r="E228" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228" s="5"/>
+    </row>
+    <row r="229" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="54"/>
+      <c r="B229" s="37"/>
+      <c r="C229" s="40"/>
+      <c r="D229" s="46"/>
+      <c r="E229" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A230" s="54"/>
+      <c r="B230" s="37"/>
+      <c r="C230" s="40"/>
+      <c r="D230" s="46"/>
+      <c r="E230" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="F230" s="5"/>
+    </row>
+    <row r="231" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A231" s="54"/>
+      <c r="B231" s="37"/>
+      <c r="C231" s="40"/>
+      <c r="D231" s="46"/>
+      <c r="E231" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="55"/>
+      <c r="B232" s="38"/>
+      <c r="C232" s="41"/>
+      <c r="D232" s="47"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="B233" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C233" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="D233" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E233" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="5"/>
+    </row>
+    <row r="234" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A234" s="54"/>
+      <c r="B234" s="37"/>
+      <c r="C234" s="40"/>
+      <c r="D234" s="46"/>
+      <c r="E234" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F234" s="5"/>
+    </row>
+    <row r="235" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A235" s="54"/>
+      <c r="B235" s="37"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="46"/>
+      <c r="E235" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A236" s="54"/>
+      <c r="B236" s="37"/>
+      <c r="C236" s="40"/>
+      <c r="D236" s="46"/>
+      <c r="E236" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="F236" s="5"/>
+    </row>
+    <row r="237" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="54"/>
+      <c r="B237" s="37"/>
+      <c r="C237" s="40"/>
+      <c r="D237" s="46"/>
+      <c r="E237" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="55"/>
+      <c r="B238" s="38"/>
+      <c r="C238" s="41"/>
+      <c r="D238" s="47"/>
+      <c r="E238" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="B239" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C239" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="D239" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E239" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="5"/>
+    </row>
+    <row r="240" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A240" s="54"/>
+      <c r="B240" s="37"/>
+      <c r="C240" s="40"/>
+      <c r="D240" s="43"/>
+      <c r="E240" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F240" s="5"/>
+    </row>
+    <row r="241" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="54"/>
+      <c r="B241" s="37"/>
+      <c r="C241" s="40"/>
+      <c r="D241" s="43"/>
+      <c r="E241" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A242" s="54"/>
+      <c r="B242" s="37"/>
+      <c r="C242" s="40"/>
+      <c r="D242" s="43"/>
+      <c r="E242" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F242" s="5"/>
+    </row>
+    <row r="243" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A243" s="54"/>
+      <c r="B243" s="37"/>
+      <c r="C243" s="40"/>
+      <c r="D243" s="43"/>
+      <c r="E243" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A244" s="54"/>
+      <c r="B244" s="37"/>
+      <c r="C244" s="40"/>
+      <c r="D244" s="43"/>
+      <c r="E244" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F244" s="5"/>
+    </row>
+    <row r="245" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="54"/>
+      <c r="B245" s="37"/>
+      <c r="C245" s="40"/>
+      <c r="D245" s="43"/>
+      <c r="E245" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A246" s="54"/>
+      <c r="B246" s="37"/>
+      <c r="C246" s="40"/>
+      <c r="D246" s="43"/>
+      <c r="E246" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A247" s="54"/>
+      <c r="B247" s="37"/>
+      <c r="C247" s="40"/>
+      <c r="D247" s="43"/>
+      <c r="E247" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="55"/>
+      <c r="B248" s="38"/>
+      <c r="C248" s="41"/>
+      <c r="D248" s="44"/>
+      <c r="E248" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="B249" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C249" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="D249" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E249" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="25"/>
+    </row>
+    <row r="250" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="54"/>
+      <c r="B250" s="37"/>
+      <c r="C250" s="40"/>
+      <c r="D250" s="46"/>
+      <c r="E250" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F250" s="5"/>
+    </row>
+    <row r="251" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="54"/>
+      <c r="B251" s="37"/>
+      <c r="C251" s="40"/>
+      <c r="D251" s="46"/>
+      <c r="E251" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="54"/>
+      <c r="B252" s="37"/>
+      <c r="C252" s="40"/>
+      <c r="D252" s="46"/>
+      <c r="E252" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F252" s="5"/>
+    </row>
+    <row r="253" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="54"/>
+      <c r="B253" s="37"/>
+      <c r="C253" s="40"/>
+      <c r="D253" s="46"/>
+      <c r="E253" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="55"/>
+      <c r="B254" s="38"/>
+      <c r="C254" s="41"/>
+      <c r="D254" s="47"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="B255" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C255" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="D255" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E255" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" s="5"/>
+    </row>
+    <row r="256" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A256" s="34"/>
+      <c r="B256" s="37"/>
+      <c r="C256" s="40"/>
+      <c r="D256" s="43"/>
+      <c r="E256" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="34"/>
+      <c r="B257" s="37"/>
+      <c r="C257" s="40"/>
+      <c r="D257" s="43"/>
+      <c r="E257" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="35"/>
+      <c r="B258" s="38"/>
+      <c r="C258" s="41"/>
+      <c r="D258" s="44"/>
+      <c r="E258" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="B259" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C259" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="D259" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E259" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" s="5"/>
+    </row>
+    <row r="260" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="54"/>
+      <c r="B260" s="37"/>
+      <c r="C260" s="40"/>
+      <c r="D260" s="43"/>
+      <c r="E260" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="55"/>
+      <c r="B261" s="38"/>
+      <c r="C261" s="41"/>
+      <c r="D261" s="44"/>
+      <c r="E261" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="190">
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A189:A193"/>
-    <mergeCell ref="B189:B193"/>
-    <mergeCell ref="C189:C193"/>
-    <mergeCell ref="D189:D193"/>
-    <mergeCell ref="C194:C198"/>
-    <mergeCell ref="D194:D198"/>
-    <mergeCell ref="B194:B198"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="D173:D176"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="D177:D180"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="D181:D184"/>
-    <mergeCell ref="D160:D164"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="D165:D168"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
+  <mergeCells count="222">
+    <mergeCell ref="D249:D254"/>
+    <mergeCell ref="C249:C254"/>
+    <mergeCell ref="B249:B254"/>
+    <mergeCell ref="A249:A254"/>
+    <mergeCell ref="C255:C258"/>
+    <mergeCell ref="D255:D258"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="D259:D261"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="D233:D238"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="B233:B238"/>
+    <mergeCell ref="C233:C238"/>
+    <mergeCell ref="D239:D248"/>
+    <mergeCell ref="B239:B248"/>
+    <mergeCell ref="A239:A248"/>
+    <mergeCell ref="C239:C248"/>
+    <mergeCell ref="C214:C220"/>
+    <mergeCell ref="D214:D220"/>
+    <mergeCell ref="B214:B220"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="C221:C226"/>
+    <mergeCell ref="D221:D226"/>
+    <mergeCell ref="B221:B226"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="D227:D232"/>
+    <mergeCell ref="C227:C232"/>
+    <mergeCell ref="B227:B232"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="D206:D213"/>
+    <mergeCell ref="C206:C213"/>
+    <mergeCell ref="B206:B213"/>
+    <mergeCell ref="A206:A213"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A128:A132"/>
     <mergeCell ref="A112:A117"/>
     <mergeCell ref="B112:B117"/>
     <mergeCell ref="C112:C117"/>
@@ -5080,46 +5811,132 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D140:D146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="C156:C159"/>
-    <mergeCell ref="D206:D213"/>
-    <mergeCell ref="C206:C213"/>
-    <mergeCell ref="B206:B213"/>
-    <mergeCell ref="A206:A213"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="D160:D164"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="D165:D168"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="D173:D176"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="D177:D180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="B189:B193"/>
+    <mergeCell ref="C189:C193"/>
+    <mergeCell ref="D189:D193"/>
+    <mergeCell ref="C194:C198"/>
+    <mergeCell ref="D194:D198"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="A194:A198"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647320A-2C84-4AB7-B308-C4D71E0B81B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670D26A-CA65-4690-A430-55298EA86C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28785" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="385">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1136,27 +1136,9 @@
     <t>SK_52</t>
   </si>
   <si>
-    <t>7. Hover over the Account &amp; Lists</t>
-  </si>
-  <si>
-    <t>8. Click Browsing History</t>
-  </si>
-  <si>
-    <t>9. Click Manage history</t>
-  </si>
-  <si>
-    <t>10. Click Remove all items from view</t>
-  </si>
-  <si>
     <t>a popup is displayed</t>
   </si>
   <si>
-    <t>11. Click the Remove all items from view button</t>
-  </si>
-  <si>
-    <t>The diaplayed message is You have no recently viewed items.</t>
-  </si>
-  <si>
     <t>A managing section is expanded</t>
   </si>
   <si>
@@ -1203,6 +1185,18 @@
   </si>
   <si>
     <t>Verify user can navigate from Today's Deals page to home page using the amazon logo</t>
+  </si>
+  <si>
+    <t>The message - You have no recently viewed items. - is displayed</t>
+  </si>
+  <si>
+    <t>6. Click Manage history</t>
+  </si>
+  <si>
+    <t>7. Click Remove all items from view</t>
+  </si>
+  <si>
+    <t>8. Click the Remove all items from view button</t>
   </si>
 </sst>
 </file>
@@ -1932,6 +1926,51 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1941,71 +1980,74 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2017,71 +2059,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2397,10 +2391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G218" sqref="G218"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2434,56 +2428,56 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2492,16 +2486,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2510,10 +2504,10 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="44"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -2522,16 +2516,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="65" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -2540,20 +2534,20 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="63"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="63"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
@@ -2562,26 +2556,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2590,10 +2584,10 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2602,10 +2596,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="44"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
@@ -2613,36 +2607,36 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="43"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -2651,13 +2645,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="26" t="s">
@@ -2669,9 +2663,9 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="28" t="s">
         <v>39</v>
       </c>
@@ -2681,9 +2675,9 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="28" t="s">
         <v>43</v>
       </c>
@@ -2693,9 +2687,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="21"/>
       <c r="E22" s="19"/>
       <c r="F22" s="11" t="s">
@@ -2703,16 +2697,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2721,20 +2715,20 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="44"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
@@ -2743,16 +2737,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -2761,30 +2755,30 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="46"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="46"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="46"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
@@ -2793,36 +2787,36 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="46"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -2831,10 +2825,10 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="46"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="16" t="s">
         <v>61</v>
       </c>
@@ -2843,30 +2837,30 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="46"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="22" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="46"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="47"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -2875,16 +2869,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -2893,10 +2887,10 @@
       <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="46"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="16" t="s">
         <v>61</v>
       </c>
@@ -2905,20 +2899,20 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="46"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="46"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="16" t="s">
         <v>73</v>
       </c>
@@ -2927,10 +2921,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="47"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="18" t="s">
         <v>74</v>
       </c>
@@ -2939,16 +2933,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -2957,10 +2951,10 @@
       <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="43"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="24" t="s">
         <v>79</v>
       </c>
@@ -2969,10 +2963,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="43"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="22" t="s">
         <v>80</v>
       </c>
@@ -2981,10 +2975,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="44"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="18" t="s">
         <v>85</v>
       </c>
@@ -2993,13 +2987,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="36" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="29" t="s">
@@ -3011,9 +3005,9 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="41"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="27" t="s">
         <v>39</v>
       </c>
@@ -3025,13 +3019,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="36" t="s">
         <v>94</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -3043,9 +3037,9 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="28" t="s">
         <v>39</v>
       </c>
@@ -3057,9 +3051,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="41"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="27"/>
       <c r="E50" s="12" t="s">
         <v>96</v>
@@ -3069,16 +3063,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="79" t="s">
+      <c r="D51" s="55" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -3087,10 +3081,10 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="80"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="16" t="s">
         <v>95</v>
       </c>
@@ -3099,10 +3093,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="80"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="22" t="s">
         <v>100</v>
       </c>
@@ -3111,10 +3105,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="56" t="s">
+      <c r="A54" s="49"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="16"/>
@@ -3123,10 +3117,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="57"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="81"/>
       <c r="E55" s="18" t="s">
         <v>101</v>
       </c>
@@ -3135,16 +3129,16 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -3153,20 +3147,20 @@
       <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="79"/>
       <c r="E57" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="56" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -3177,10 +3171,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="57"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="81"/>
       <c r="E59" s="18" t="s">
         <v>110</v>
       </c>
@@ -3189,16 +3183,16 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -3207,20 +3201,20 @@
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="46"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="46"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="22" t="s">
         <v>105</v>
       </c>
@@ -3229,20 +3223,20 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="46"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="47"/>
+      <c r="A64" s="50"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="18" t="s">
         <v>111</v>
       </c>
@@ -3251,16 +3245,16 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -3269,20 +3263,20 @@
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="50"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="79"/>
       <c r="E66" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="56" t="s">
+      <c r="A67" s="49"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -3293,10 +3287,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="57"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="81"/>
       <c r="E68" s="18" t="s">
         <v>117</v>
       </c>
@@ -3305,16 +3299,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -3323,20 +3317,20 @@
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="34"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="43"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="34"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="43"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="46"/>
       <c r="E71" s="30" t="s">
         <v>126</v>
       </c>
@@ -3345,10 +3339,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="34"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="43"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="46"/>
       <c r="E72" s="22" t="s">
         <v>128</v>
       </c>
@@ -3357,30 +3351,30 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="34"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="43"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="46"/>
       <c r="E73" s="24" t="s">
         <v>130</v>
       </c>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="34"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="43"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="22" t="s">
         <v>131</v>
       </c>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="44"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="18" t="s">
         <v>132</v>
       </c>
@@ -3389,16 +3383,16 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="49" t="s">
+      <c r="D76" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="15" t="s">
@@ -3407,19 +3401,19 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="50"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="79"/>
       <c r="E77" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="41"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="31" t="s">
         <v>141</v>
       </c>
@@ -3431,16 +3425,16 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="15" t="s">
@@ -3449,20 +3443,20 @@
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="34"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="50"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="79"/>
       <c r="E80" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="34"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="50"/>
+      <c r="A81" s="49"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="79"/>
       <c r="E81" s="22" t="s">
         <v>150</v>
       </c>
@@ -3471,10 +3465,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="34"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="51" t="s">
+      <c r="A82" s="49"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="82" t="s">
         <v>141</v>
       </c>
       <c r="E82" s="16"/>
@@ -3483,26 +3477,26 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="52"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="18"/>
       <c r="F83" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="16" t="s">
@@ -3511,19 +3505,19 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="34"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="50"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="79"/>
       <c r="E85" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="34"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="40"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="32" t="s">
         <v>141</v>
       </c>
@@ -3535,9 +3529,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="41"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="31"/>
       <c r="E87" s="18"/>
       <c r="F87" s="11" t="s">
@@ -3545,16 +3539,16 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="45" t="s">
+      <c r="D88" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="15" t="s">
@@ -3563,10 +3557,10 @@
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="34"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="46"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="16" t="s">
         <v>155</v>
       </c>
@@ -3575,10 +3569,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="34"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="46"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="22" t="s">
         <v>156</v>
       </c>
@@ -3587,10 +3581,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="34"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="46"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="16" t="s">
         <v>157</v>
       </c>
@@ -3599,26 +3593,26 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="47"/>
+      <c r="A92" s="50"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="18"/>
       <c r="F92" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C93" s="39" t="s">
+      <c r="C93" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="45" t="s">
+      <c r="D93" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="15" t="s">
@@ -3627,10 +3621,10 @@
       <c r="F93" s="25"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="34"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="46"/>
+      <c r="A94" s="49"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="16" t="s">
         <v>155</v>
       </c>
@@ -3639,10 +3633,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A95" s="34"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="46"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="22" t="s">
         <v>164</v>
       </c>
@@ -3651,10 +3645,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="34"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="46"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="16" t="s">
         <v>163</v>
       </c>
@@ -3663,10 +3657,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="47"/>
+      <c r="A97" s="50"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="35"/>
       <c r="E97" s="18" t="s">
         <v>167</v>
       </c>
@@ -3675,16 +3669,16 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B98" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="45" t="s">
+      <c r="D98" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="15" t="s">
@@ -3693,10 +3687,10 @@
       <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="34"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="46"/>
+      <c r="A99" s="49"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="16" t="s">
         <v>155</v>
       </c>
@@ -3705,10 +3699,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="34"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="46"/>
+      <c r="A100" s="49"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="34"/>
       <c r="E100" s="22" t="s">
         <v>172</v>
       </c>
@@ -3717,10 +3711,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="34"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="46"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="16" t="s">
         <v>174</v>
       </c>
@@ -3729,26 +3723,26 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="47"/>
+      <c r="A102" s="50"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="18"/>
       <c r="F102" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="15" t="s">
@@ -3757,10 +3751,10 @@
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="34"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="46"/>
+      <c r="A104" s="49"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="16" t="s">
         <v>155</v>
       </c>
@@ -3769,10 +3763,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="34"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="46"/>
+      <c r="A105" s="49"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="22" t="s">
         <v>179</v>
       </c>
@@ -3781,36 +3775,36 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="34"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="46"/>
+      <c r="A106" s="49"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="34"/>
       <c r="E106" s="16"/>
       <c r="F106" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="47"/>
+      <c r="A107" s="50"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="18"/>
       <c r="F107" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C108" s="39" t="s">
+      <c r="C108" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D108" s="48" t="s">
+      <c r="D108" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="15" t="s">
@@ -3819,20 +3813,20 @@
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="34"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="43"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="46"/>
       <c r="E109" s="22" t="s">
         <v>188</v>
       </c>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="34"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="43"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="46"/>
       <c r="E110" s="16" t="s">
         <v>189</v>
       </c>
@@ -3841,10 +3835,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="44"/>
+      <c r="A111" s="50"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="47"/>
       <c r="E111" s="18" t="s">
         <v>191</v>
       </c>
@@ -3853,16 +3847,16 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C112" s="39" t="s">
+      <c r="C112" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D112" s="45" t="s">
+      <c r="D112" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="15" t="s">
@@ -3871,20 +3865,20 @@
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="54"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="46"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="34"/>
       <c r="E113" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="54"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="46"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="34"/>
       <c r="E114" s="16" t="s">
         <v>122</v>
       </c>
@@ -3893,10 +3887,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="54"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="46"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="22" t="s">
         <v>202</v>
       </c>
@@ -3905,36 +3899,36 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A116" s="54"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="46"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="16"/>
       <c r="F116" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="47"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="18"/>
       <c r="F117" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="53" t="s">
+      <c r="A118" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D118" s="45" t="s">
+      <c r="D118" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E118" s="15" t="s">
@@ -3943,20 +3937,20 @@
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="54"/>
-      <c r="B119" s="37"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="46"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="54"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="46"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="16" t="s">
         <v>122</v>
       </c>
@@ -3965,10 +3959,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="54"/>
-      <c r="B121" s="37"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="46"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="34"/>
       <c r="E121" s="22" t="s">
         <v>208</v>
       </c>
@@ -3977,38 +3971,38 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A122" s="54"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="46"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="34"/>
       <c r="E122" s="16"/>
       <c r="F122" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
-      <c r="B123" s="38" t="s">
+      <c r="A123" s="44"/>
+      <c r="B123" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="C123" s="41"/>
-      <c r="D123" s="47"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="35"/>
       <c r="E123" s="18"/>
       <c r="F123" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="33" t="s">
+      <c r="A124" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B124" s="36" t="s">
+      <c r="B124" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C124" s="39" t="s">
+      <c r="C124" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="D124" s="48" t="s">
+      <c r="D124" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E124" s="15" t="s">
@@ -4017,20 +4011,20 @@
       <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="34"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="43"/>
+      <c r="A125" s="49"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="46"/>
       <c r="E125" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="34"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="43"/>
+      <c r="A126" s="49"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="46"/>
       <c r="E126" s="16" t="s">
         <v>105</v>
       </c>
@@ -4039,10 +4033,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="44"/>
+      <c r="A127" s="50"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="47"/>
       <c r="E127" s="18" t="s">
         <v>213</v>
       </c>
@@ -4051,16 +4045,16 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="33" t="s">
+      <c r="A128" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="B128" s="36" t="s">
+      <c r="B128" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C128" s="39" t="s">
+      <c r="C128" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D128" s="45" t="s">
+      <c r="D128" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E128" s="24" t="s">
@@ -4069,20 +4063,20 @@
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="34"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="46"/>
+      <c r="A129" s="49"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="34"/>
       <c r="E129" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="34"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="46"/>
+      <c r="A130" s="49"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="34"/>
       <c r="E130" s="22" t="s">
         <v>122</v>
       </c>
@@ -4091,10 +4085,10 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="34"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="46"/>
+      <c r="A131" s="49"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="34"/>
       <c r="E131" s="16" t="s">
         <v>217</v>
       </c>
@@ -4103,10 +4097,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="47"/>
+      <c r="A132" s="50"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="35"/>
       <c r="E132" s="18" t="s">
         <v>219</v>
       </c>
@@ -4115,16 +4109,16 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="B133" s="36" t="s">
+      <c r="B133" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C133" s="39" t="s">
+      <c r="C133" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D133" s="45" t="s">
+      <c r="D133" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E133" s="15" t="s">
@@ -4133,20 +4127,20 @@
       <c r="F133" s="25"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="34"/>
-      <c r="B134" s="37"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="46"/>
+      <c r="A134" s="49"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="34"/>
       <c r="E134" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F134" s="5"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="34"/>
-      <c r="B135" s="37"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="46"/>
+      <c r="A135" s="49"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="34"/>
       <c r="E135" s="16" t="s">
         <v>122</v>
       </c>
@@ -4155,10 +4149,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="34"/>
-      <c r="B136" s="37"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="46"/>
+      <c r="A136" s="49"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="34"/>
       <c r="E136" s="22" t="s">
         <v>224</v>
       </c>
@@ -4167,10 +4161,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="34"/>
-      <c r="B137" s="37"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="46"/>
+      <c r="A137" s="49"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="34"/>
       <c r="E137" s="16" t="s">
         <v>225</v>
       </c>
@@ -4179,20 +4173,20 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="34"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="46"/>
+      <c r="A138" s="49"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="34"/>
       <c r="E138" s="16" t="s">
         <v>227</v>
       </c>
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="47"/>
+      <c r="A139" s="50"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="35"/>
       <c r="E139" s="18" t="s">
         <v>228</v>
       </c>
@@ -4201,16 +4195,16 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="33" t="s">
+      <c r="A140" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="B140" s="36" t="s">
+      <c r="B140" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C140" s="39" t="s">
+      <c r="C140" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D140" s="45" t="s">
+      <c r="D140" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E140" s="15" t="s">
@@ -4219,20 +4213,20 @@
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="34"/>
-      <c r="B141" s="37"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="46"/>
+      <c r="A141" s="49"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="34"/>
       <c r="E141" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="34"/>
-      <c r="B142" s="37"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="46"/>
+      <c r="A142" s="49"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="34"/>
       <c r="E142" s="16" t="s">
         <v>122</v>
       </c>
@@ -4241,10 +4235,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="34"/>
-      <c r="B143" s="37"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="46"/>
+      <c r="A143" s="49"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="34"/>
       <c r="E143" s="16" t="s">
         <v>232</v>
       </c>
@@ -4253,30 +4247,30 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="34"/>
-      <c r="B144" s="37"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="46"/>
+      <c r="A144" s="49"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="34"/>
       <c r="E144" s="22" t="s">
         <v>233</v>
       </c>
       <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="34"/>
-      <c r="B145" s="37"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="46"/>
+      <c r="A145" s="49"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="34"/>
       <c r="E145" s="16" t="s">
         <v>234</v>
       </c>
       <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="35"/>
-      <c r="B146" s="38"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="47"/>
+      <c r="A146" s="50"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="35"/>
       <c r="E146" s="18" t="s">
         <v>235</v>
       </c>
@@ -4285,16 +4279,16 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="33" t="s">
+      <c r="A147" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="B147" s="36" t="s">
+      <c r="B147" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C147" s="39" t="s">
+      <c r="C147" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D147" s="45" t="s">
+      <c r="D147" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E147" s="24" t="s">
@@ -4303,20 +4297,20 @@
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="34"/>
-      <c r="B148" s="37"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="46"/>
+      <c r="A148" s="49"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="34"/>
       <c r="E148" s="16" t="s">
         <v>237</v>
       </c>
       <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="34"/>
-      <c r="B149" s="37"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="46"/>
+      <c r="A149" s="49"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="34"/>
       <c r="E149" s="22" t="s">
         <v>238</v>
       </c>
@@ -4325,36 +4319,36 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="34"/>
-      <c r="B150" s="37"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="46"/>
+      <c r="A150" s="49"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="34"/>
       <c r="E150" s="16"/>
       <c r="F150" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
-      <c r="B151" s="38"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="47"/>
+      <c r="A151" s="50"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="35"/>
       <c r="E151" s="18"/>
       <c r="F151" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="B152" s="36" t="s">
+      <c r="B152" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C152" s="39" t="s">
+      <c r="C152" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D152" s="48" t="s">
+      <c r="D152" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E152" s="16" t="s">
@@ -4363,10 +4357,10 @@
       <c r="F152" s="5"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="34"/>
-      <c r="B153" s="37"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="43"/>
+      <c r="A153" s="49"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="46"/>
       <c r="E153" s="22" t="s">
         <v>243</v>
       </c>
@@ -4375,36 +4369,36 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="34"/>
-      <c r="B154" s="37"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="43"/>
+      <c r="A154" s="49"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="46"/>
       <c r="E154" s="16"/>
       <c r="F154" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
-      <c r="B155" s="38"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="44"/>
+      <c r="A155" s="50"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="18"/>
       <c r="F155" s="11" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="33" t="s">
+      <c r="A156" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="C156" s="39" t="s">
+      <c r="C156" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D156" s="48" t="s">
+      <c r="D156" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E156" s="16" t="s">
@@ -4413,10 +4407,10 @@
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="34"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="43"/>
+      <c r="A157" s="49"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="46"/>
       <c r="E157" s="22" t="s">
         <v>249</v>
       </c>
@@ -4425,36 +4419,36 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="34"/>
-      <c r="B158" s="37"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="43"/>
+      <c r="A158" s="49"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="46"/>
       <c r="E158" s="16"/>
       <c r="F158" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="35"/>
-      <c r="B159" s="38"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="44"/>
+      <c r="A159" s="50"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="47"/>
       <c r="E159" s="18"/>
       <c r="F159" s="11" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="33" t="s">
+      <c r="A160" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="B160" s="36" t="s">
+      <c r="B160" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="C160" s="39" t="s">
+      <c r="C160" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="D160" s="45" t="s">
+      <c r="D160" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E160" s="16" t="s">
@@ -4463,30 +4457,30 @@
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="34"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="46"/>
+      <c r="A161" s="49"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="34"/>
       <c r="E161" s="22" t="s">
         <v>188</v>
       </c>
       <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="34"/>
-      <c r="B162" s="37"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="46"/>
+      <c r="A162" s="49"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="34"/>
       <c r="E162" s="16" t="s">
         <v>260</v>
       </c>
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="34"/>
-      <c r="B163" s="37"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="46"/>
+      <c r="A163" s="49"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="37"/>
+      <c r="D163" s="34"/>
       <c r="E163" s="22" t="s">
         <v>261</v>
       </c>
@@ -4495,10 +4489,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="35"/>
-      <c r="B164" s="38"/>
-      <c r="C164" s="41"/>
-      <c r="D164" s="47"/>
+      <c r="A164" s="50"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="38"/>
+      <c r="D164" s="35"/>
       <c r="E164" s="18" t="s">
         <v>263</v>
       </c>
@@ -4507,16 +4501,16 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="33" t="s">
+      <c r="A165" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="B165" s="36" t="s">
+      <c r="B165" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="C165" s="39" t="s">
+      <c r="C165" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="D165" s="48" t="s">
+      <c r="D165" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E165" s="16" t="s">
@@ -4525,30 +4519,30 @@
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="34"/>
-      <c r="B166" s="37"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="43"/>
+      <c r="A166" s="49"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="46"/>
       <c r="E166" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="34"/>
-      <c r="B167" s="37"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="43"/>
+      <c r="A167" s="49"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="37"/>
+      <c r="D167" s="46"/>
       <c r="E167" s="16" t="s">
         <v>267</v>
       </c>
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
-      <c r="B168" s="38"/>
-      <c r="C168" s="41"/>
-      <c r="D168" s="44"/>
+      <c r="A168" s="50"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="47"/>
       <c r="E168" s="18" t="s">
         <v>268</v>
       </c>
@@ -4557,16 +4551,16 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="B169" s="36" t="s">
+      <c r="B169" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="C169" s="39" t="s">
+      <c r="C169" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="D169" s="48" t="s">
+      <c r="D169" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E169" s="16" t="s">
@@ -4575,30 +4569,30 @@
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="34"/>
-      <c r="B170" s="37"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="43"/>
+      <c r="A170" s="49"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="46"/>
       <c r="E170" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="34"/>
-      <c r="B171" s="37"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="43"/>
+      <c r="A171" s="49"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="46"/>
       <c r="E171" s="16" t="s">
         <v>267</v>
       </c>
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="38"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="44"/>
+      <c r="A172" s="50"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="47"/>
       <c r="E172" s="18" t="s">
         <v>274</v>
       </c>
@@ -4607,16 +4601,16 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="33" t="s">
+      <c r="A173" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="B173" s="36" t="s">
+      <c r="B173" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="C173" s="39" t="s">
+      <c r="C173" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="D173" s="48" t="s">
+      <c r="D173" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E173" s="16" t="s">
@@ -4625,20 +4619,20 @@
       <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="34"/>
-      <c r="B174" s="37"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="43"/>
+      <c r="A174" s="49"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="37"/>
+      <c r="D174" s="46"/>
       <c r="E174" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="34"/>
-      <c r="B175" s="37"/>
-      <c r="C175" s="40"/>
-      <c r="D175" s="43"/>
+      <c r="A175" s="49"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="46"/>
       <c r="E175" s="16" t="s">
         <v>275</v>
       </c>
@@ -4647,10 +4641,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="35"/>
-      <c r="B176" s="38"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="44"/>
+      <c r="A176" s="50"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="47"/>
       <c r="E176" s="18" t="s">
         <v>276</v>
       </c>
@@ -4659,16 +4653,16 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="33" t="s">
+      <c r="A177" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="B177" s="36" t="s">
+      <c r="B177" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="C177" s="39" t="s">
+      <c r="C177" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="D177" s="48" t="s">
+      <c r="D177" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E177" s="16" t="s">
@@ -4677,20 +4671,20 @@
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="34"/>
-      <c r="B178" s="37"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="43"/>
+      <c r="A178" s="49"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="46"/>
       <c r="E178" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="34"/>
-      <c r="B179" s="37"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="43"/>
+      <c r="A179" s="49"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="37"/>
+      <c r="D179" s="46"/>
       <c r="E179" s="16" t="s">
         <v>285</v>
       </c>
@@ -4699,26 +4693,26 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="35"/>
-      <c r="B180" s="38"/>
-      <c r="C180" s="41"/>
-      <c r="D180" s="44"/>
+      <c r="A180" s="50"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="47"/>
       <c r="E180" s="18"/>
       <c r="F180" s="11" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="33" t="s">
+      <c r="A181" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="B181" s="36" t="s">
+      <c r="B181" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="C181" s="39" t="s">
+      <c r="C181" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="D181" s="42" t="s">
+      <c r="D181" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E181" s="16" t="s">
@@ -4727,20 +4721,20 @@
       <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="34"/>
-      <c r="B182" s="37"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="43"/>
+      <c r="A182" s="49"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="46"/>
       <c r="E182" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="34"/>
-      <c r="B183" s="37"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="43"/>
+      <c r="A183" s="49"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="46"/>
       <c r="E183" s="16" t="s">
         <v>291</v>
       </c>
@@ -4749,26 +4743,26 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="38"/>
-      <c r="C184" s="41"/>
-      <c r="D184" s="44"/>
+      <c r="A184" s="50"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="47"/>
       <c r="E184" s="18"/>
       <c r="F184" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="33" t="s">
+      <c r="A185" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="B185" s="36" t="s">
+      <c r="B185" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C185" s="39" t="s">
+      <c r="C185" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="D185" s="42" t="s">
+      <c r="D185" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E185" s="16" t="s">
@@ -4777,20 +4771,20 @@
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="34"/>
-      <c r="B186" s="37"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="43"/>
+      <c r="A186" s="49"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="46"/>
       <c r="E186" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="34"/>
-      <c r="B187" s="37"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="43"/>
+      <c r="A187" s="49"/>
+      <c r="B187" s="40"/>
+      <c r="C187" s="37"/>
+      <c r="D187" s="46"/>
       <c r="E187" s="16" t="s">
         <v>303</v>
       </c>
@@ -4799,26 +4793,26 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="35"/>
-      <c r="B188" s="38"/>
-      <c r="C188" s="41"/>
-      <c r="D188" s="44"/>
+      <c r="A188" s="50"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="47"/>
       <c r="E188" s="18"/>
       <c r="F188" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="33" t="s">
+      <c r="A189" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="B189" s="36" t="s">
+      <c r="B189" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="C189" s="39" t="s">
+      <c r="C189" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="D189" s="42" t="s">
+      <c r="D189" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E189" s="16" t="s">
@@ -4827,40 +4821,40 @@
       <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="34"/>
-      <c r="B190" s="37"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="43"/>
+      <c r="A190" s="49"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="46"/>
       <c r="E190" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="34"/>
-      <c r="B191" s="37"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="43"/>
+      <c r="A191" s="49"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="37"/>
+      <c r="D191" s="46"/>
       <c r="E191" s="16" t="s">
         <v>299</v>
       </c>
       <c r="F191" s="5"/>
     </row>
     <row r="192" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="34"/>
-      <c r="B192" s="37"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="43"/>
+      <c r="A192" s="49"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="37"/>
+      <c r="D192" s="46"/>
       <c r="E192" s="19" t="s">
         <v>300</v>
       </c>
       <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="34"/>
-      <c r="B193" s="37"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="43"/>
+      <c r="A193" s="49"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="46"/>
       <c r="E193" s="19" t="s">
         <v>301</v>
       </c>
@@ -4869,16 +4863,16 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="33" t="s">
+      <c r="A194" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="B194" s="36" t="s">
+      <c r="B194" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="C194" s="39" t="s">
+      <c r="C194" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="D194" s="45" t="s">
+      <c r="D194" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E194" s="15" t="s">
@@ -4887,20 +4881,20 @@
       <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="34"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="46"/>
+      <c r="A195" s="49"/>
+      <c r="B195" s="40"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="34"/>
       <c r="E195" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="34"/>
-      <c r="B196" s="37"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="46"/>
+      <c r="A196" s="49"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="34"/>
       <c r="E196" s="19" t="s">
         <v>291</v>
       </c>
@@ -4909,10 +4903,10 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="34"/>
-      <c r="B197" s="37"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="46"/>
+      <c r="A197" s="49"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="34"/>
       <c r="E197" s="19" t="s">
         <v>304</v>
       </c>
@@ -4921,26 +4915,26 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="35"/>
-      <c r="B198" s="38"/>
-      <c r="C198" s="41"/>
-      <c r="D198" s="47"/>
+      <c r="A198" s="50"/>
+      <c r="B198" s="41"/>
+      <c r="C198" s="38"/>
+      <c r="D198" s="35"/>
       <c r="E198" s="18"/>
       <c r="F198" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="53" t="s">
+      <c r="A199" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="B199" s="36" t="s">
+      <c r="B199" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="C199" s="39" t="s">
+      <c r="C199" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="D199" s="42" t="s">
+      <c r="D199" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E199" s="19" t="s">
@@ -4949,10 +4943,10 @@
       <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A200" s="54"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="43"/>
+      <c r="A200" s="43"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="46"/>
       <c r="E200" s="19" t="s">
         <v>313</v>
       </c>
@@ -4961,10 +4955,10 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="55"/>
-      <c r="B201" s="38"/>
-      <c r="C201" s="41"/>
-      <c r="D201" s="44"/>
+      <c r="A201" s="44"/>
+      <c r="B201" s="41"/>
+      <c r="C201" s="38"/>
+      <c r="D201" s="47"/>
       <c r="E201" s="18" t="s">
         <v>315</v>
       </c>
@@ -4973,16 +4967,16 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="33" t="s">
+      <c r="A202" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="B202" s="36" t="s">
+      <c r="B202" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="C202" s="39" t="s">
+      <c r="C202" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="D202" s="42" t="s">
+      <c r="D202" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="16" t="s">
@@ -4991,10 +4985,10 @@
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="34"/>
-      <c r="B203" s="37"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="43"/>
+      <c r="A203" s="49"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="46"/>
       <c r="E203" s="22" t="s">
         <v>313</v>
       </c>
@@ -5003,10 +4997,10 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="34"/>
-      <c r="B204" s="37"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="43"/>
+      <c r="A204" s="49"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="46"/>
       <c r="E204" s="16" t="s">
         <v>327</v>
       </c>
@@ -5015,26 +5009,26 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="35"/>
-      <c r="B205" s="38"/>
-      <c r="C205" s="41"/>
-      <c r="D205" s="44"/>
+      <c r="A205" s="50"/>
+      <c r="B205" s="41"/>
+      <c r="C205" s="38"/>
+      <c r="D205" s="47"/>
       <c r="E205" s="18"/>
       <c r="F205" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="33" t="s">
+      <c r="A206" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="B206" s="36" t="s">
+      <c r="B206" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="C206" s="39" t="s">
+      <c r="C206" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D206" s="42" t="s">
+      <c r="D206" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E206" s="16" t="s">
@@ -5043,20 +5037,20 @@
       <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="34"/>
-      <c r="B207" s="37"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="43"/>
+      <c r="A207" s="49"/>
+      <c r="B207" s="40"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="46"/>
       <c r="E207" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="34"/>
-      <c r="B208" s="37"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="43"/>
+      <c r="A208" s="49"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="46"/>
       <c r="E208" s="16" t="s">
         <v>122</v>
       </c>
@@ -5065,30 +5059,30 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="34"/>
-      <c r="B209" s="37"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="43"/>
+      <c r="A209" s="49"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="37"/>
+      <c r="D209" s="46"/>
       <c r="E209" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="34"/>
-      <c r="B210" s="37"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="43"/>
+      <c r="A210" s="49"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="46"/>
       <c r="E210" s="19" t="s">
         <v>323</v>
       </c>
       <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="34"/>
-      <c r="B211" s="37"/>
-      <c r="C211" s="40"/>
-      <c r="D211" s="43"/>
+      <c r="A211" s="49"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="37"/>
+      <c r="D211" s="46"/>
       <c r="E211" s="19" t="s">
         <v>328</v>
       </c>
@@ -5097,20 +5091,20 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="34"/>
-      <c r="B212" s="37"/>
-      <c r="C212" s="40"/>
-      <c r="D212" s="43"/>
+      <c r="A212" s="49"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="46"/>
       <c r="E212" s="19" t="s">
         <v>324</v>
       </c>
       <c r="F212" s="5"/>
     </row>
     <row r="213" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="35"/>
-      <c r="B213" s="38"/>
-      <c r="C213" s="41"/>
-      <c r="D213" s="44"/>
+      <c r="A213" s="50"/>
+      <c r="B213" s="41"/>
+      <c r="C213" s="38"/>
+      <c r="D213" s="47"/>
       <c r="E213" s="18" t="s">
         <v>325</v>
       </c>
@@ -5119,16 +5113,16 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="33" t="s">
+      <c r="A214" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="B214" s="36" t="s">
+      <c r="B214" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="C214" s="39" t="s">
+      <c r="C214" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D214" s="45" t="s">
+      <c r="D214" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E214" s="22" t="s">
@@ -5137,10 +5131,10 @@
       <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A215" s="34"/>
-      <c r="B215" s="37"/>
-      <c r="C215" s="40"/>
-      <c r="D215" s="46"/>
+      <c r="A215" s="49"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="34"/>
       <c r="E215" s="16" t="s">
         <v>95</v>
       </c>
@@ -5149,10 +5143,10 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="34"/>
-      <c r="B216" s="37"/>
-      <c r="C216" s="40"/>
-      <c r="D216" s="46"/>
+      <c r="A216" s="49"/>
+      <c r="B216" s="40"/>
+      <c r="C216" s="37"/>
+      <c r="D216" s="34"/>
       <c r="E216" s="16" t="s">
         <v>334</v>
       </c>
@@ -5161,40 +5155,40 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="34"/>
-      <c r="B217" s="37"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="46"/>
+      <c r="A217" s="49"/>
+      <c r="B217" s="40"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="34"/>
       <c r="E217" s="19"/>
       <c r="F217" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="34"/>
-      <c r="B218" s="37"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="46"/>
+      <c r="A218" s="49"/>
+      <c r="B218" s="40"/>
+      <c r="C218" s="37"/>
+      <c r="D218" s="34"/>
       <c r="E218" s="19"/>
       <c r="F218" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="34"/>
-      <c r="B219" s="37"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="46"/>
+      <c r="A219" s="49"/>
+      <c r="B219" s="40"/>
+      <c r="C219" s="37"/>
+      <c r="D219" s="34"/>
       <c r="E219" s="19"/>
       <c r="F219" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="35"/>
-      <c r="B220" s="38"/>
-      <c r="C220" s="41"/>
-      <c r="D220" s="47"/>
+      <c r="A220" s="50"/>
+      <c r="B220" s="41"/>
+      <c r="C220" s="38"/>
+      <c r="D220" s="35"/>
       <c r="E220" s="18" t="s">
         <v>340</v>
       </c>
@@ -5203,16 +5197,16 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="53" t="s">
+      <c r="A221" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="B221" s="36" t="s">
+      <c r="B221" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="C221" s="39" t="s">
+      <c r="C221" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D221" s="45" t="s">
+      <c r="D221" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E221" s="22" t="s">
@@ -5221,10 +5215,10 @@
       <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A222" s="54"/>
-      <c r="B222" s="37"/>
-      <c r="C222" s="40"/>
-      <c r="D222" s="46"/>
+      <c r="A222" s="43"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="37"/>
+      <c r="D222" s="34"/>
       <c r="E222" s="16" t="s">
         <v>95</v>
       </c>
@@ -5233,10 +5227,10 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="54"/>
-      <c r="B223" s="37"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="46"/>
+      <c r="A223" s="43"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="37"/>
+      <c r="D223" s="34"/>
       <c r="E223" s="19" t="s">
         <v>343</v>
       </c>
@@ -5245,20 +5239,20 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A224" s="54"/>
-      <c r="B224" s="37"/>
-      <c r="C224" s="40"/>
-      <c r="D224" s="46"/>
+      <c r="A224" s="43"/>
+      <c r="B224" s="40"/>
+      <c r="C224" s="37"/>
+      <c r="D224" s="34"/>
       <c r="E224" s="19"/>
       <c r="F224" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A225" s="54"/>
-      <c r="B225" s="37"/>
-      <c r="C225" s="40"/>
-      <c r="D225" s="46"/>
+      <c r="A225" s="43"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="37"/>
+      <c r="D225" s="34"/>
       <c r="E225" s="19" t="s">
         <v>346</v>
       </c>
@@ -5267,10 +5261,10 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="55"/>
-      <c r="B226" s="38"/>
-      <c r="C226" s="41"/>
-      <c r="D226" s="47"/>
+      <c r="A226" s="44"/>
+      <c r="B226" s="41"/>
+      <c r="C226" s="38"/>
+      <c r="D226" s="35"/>
       <c r="E226" s="18" t="s">
         <v>347</v>
       </c>
@@ -5279,16 +5273,16 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="53" t="s">
+      <c r="A227" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="B227" s="36" t="s">
+      <c r="B227" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="C227" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="D227" s="45" t="s">
+      <c r="C227" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="D227" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E227" s="22" t="s">
@@ -5297,20 +5291,20 @@
       <c r="F227" s="5"/>
     </row>
     <row r="228" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="54"/>
-      <c r="B228" s="37"/>
-      <c r="C228" s="40"/>
-      <c r="D228" s="46"/>
+      <c r="A228" s="43"/>
+      <c r="B228" s="40"/>
+      <c r="C228" s="37"/>
+      <c r="D228" s="34"/>
       <c r="E228" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="54"/>
-      <c r="B229" s="37"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="46"/>
+      <c r="A229" s="43"/>
+      <c r="B229" s="40"/>
+      <c r="C229" s="37"/>
+      <c r="D229" s="34"/>
       <c r="E229" s="19" t="s">
         <v>122</v>
       </c>
@@ -5319,20 +5313,20 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="54"/>
-      <c r="B230" s="37"/>
-      <c r="C230" s="40"/>
-      <c r="D230" s="46"/>
+      <c r="A230" s="43"/>
+      <c r="B230" s="40"/>
+      <c r="C230" s="37"/>
+      <c r="D230" s="34"/>
       <c r="E230" s="19" t="s">
         <v>354</v>
       </c>
       <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="54"/>
-      <c r="B231" s="37"/>
-      <c r="C231" s="40"/>
-      <c r="D231" s="46"/>
+      <c r="A231" s="43"/>
+      <c r="B231" s="40"/>
+      <c r="C231" s="37"/>
+      <c r="D231" s="34"/>
       <c r="E231" s="19" t="s">
         <v>355</v>
       </c>
@@ -5341,26 +5335,26 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="55"/>
-      <c r="B232" s="38"/>
-      <c r="C232" s="41"/>
-      <c r="D232" s="47"/>
+      <c r="A232" s="44"/>
+      <c r="B232" s="41"/>
+      <c r="C232" s="38"/>
+      <c r="D232" s="35"/>
       <c r="E232" s="18"/>
       <c r="F232" s="11" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="53" t="s">
+      <c r="A233" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="B233" s="36" t="s">
+      <c r="B233" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="C233" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="D233" s="45" t="s">
+      <c r="C233" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="D233" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E233" s="22" t="s">
@@ -5369,20 +5363,20 @@
       <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="54"/>
-      <c r="B234" s="37"/>
-      <c r="C234" s="40"/>
-      <c r="D234" s="46"/>
+      <c r="A234" s="43"/>
+      <c r="B234" s="40"/>
+      <c r="C234" s="37"/>
+      <c r="D234" s="34"/>
       <c r="E234" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="54"/>
-      <c r="B235" s="37"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="46"/>
+      <c r="A235" s="43"/>
+      <c r="B235" s="40"/>
+      <c r="C235" s="37"/>
+      <c r="D235" s="34"/>
       <c r="E235" s="19" t="s">
         <v>122</v>
       </c>
@@ -5391,20 +5385,20 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="54"/>
-      <c r="B236" s="37"/>
-      <c r="C236" s="40"/>
-      <c r="D236" s="46"/>
+      <c r="A236" s="43"/>
+      <c r="B236" s="40"/>
+      <c r="C236" s="37"/>
+      <c r="D236" s="34"/>
       <c r="E236" s="19" t="s">
         <v>354</v>
       </c>
       <c r="F236" s="5"/>
     </row>
     <row r="237" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="54"/>
-      <c r="B237" s="37"/>
-      <c r="C237" s="40"/>
-      <c r="D237" s="46"/>
+      <c r="A237" s="43"/>
+      <c r="B237" s="40"/>
+      <c r="C237" s="37"/>
+      <c r="D237" s="34"/>
       <c r="E237" s="19" t="s">
         <v>355</v>
       </c>
@@ -5413,10 +5407,10 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="55"/>
-      <c r="B238" s="38"/>
-      <c r="C238" s="41"/>
-      <c r="D238" s="47"/>
+      <c r="A238" s="44"/>
+      <c r="B238" s="41"/>
+      <c r="C238" s="38"/>
+      <c r="D238" s="35"/>
       <c r="E238" s="18" t="s">
         <v>361</v>
       </c>
@@ -5425,16 +5419,16 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="53" t="s">
+      <c r="A239" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="B239" s="36" t="s">
+      <c r="B239" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="C239" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="D239" s="42" t="s">
+      <c r="C239" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="D239" s="45" t="s">
         <v>27</v>
       </c>
       <c r="E239" s="22" t="s">
@@ -5443,20 +5437,20 @@
       <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="54"/>
-      <c r="B240" s="37"/>
-      <c r="C240" s="40"/>
-      <c r="D240" s="43"/>
+      <c r="A240" s="43"/>
+      <c r="B240" s="40"/>
+      <c r="C240" s="37"/>
+      <c r="D240" s="46"/>
       <c r="E240" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="54"/>
-      <c r="B241" s="37"/>
-      <c r="C241" s="40"/>
-      <c r="D241" s="43"/>
+      <c r="A241" s="43"/>
+      <c r="B241" s="40"/>
+      <c r="C241" s="37"/>
+      <c r="D241" s="46"/>
       <c r="E241" s="19" t="s">
         <v>122</v>
       </c>
@@ -5465,328 +5459,350 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="54"/>
-      <c r="B242" s="37"/>
-      <c r="C242" s="40"/>
-      <c r="D242" s="43"/>
+      <c r="A242" s="43"/>
+      <c r="B242" s="40"/>
+      <c r="C242" s="37"/>
+      <c r="D242" s="46"/>
       <c r="E242" s="19" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="54"/>
-      <c r="B243" s="37"/>
-      <c r="C243" s="40"/>
-      <c r="D243" s="43"/>
+      <c r="A243" s="43"/>
+      <c r="B243" s="40"/>
+      <c r="C243" s="37"/>
+      <c r="D243" s="46"/>
       <c r="E243" s="19" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="F243" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A244" s="43"/>
+      <c r="B244" s="40"/>
+      <c r="C244" s="37"/>
+      <c r="D244" s="46"/>
+      <c r="E244" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="43"/>
+      <c r="B245" s="40"/>
+      <c r="C245" s="37"/>
+      <c r="D245" s="46"/>
+      <c r="E245" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="44"/>
+      <c r="B246" s="41"/>
+      <c r="C246" s="38"/>
+      <c r="D246" s="47"/>
+      <c r="E246" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="B247" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C247" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="D247" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E247" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="25"/>
+    </row>
+    <row r="248" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="43"/>
+      <c r="B248" s="40"/>
+      <c r="C248" s="37"/>
+      <c r="D248" s="34"/>
+      <c r="E248" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F248" s="5"/>
+    </row>
+    <row r="249" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="43"/>
+      <c r="B249" s="40"/>
+      <c r="C249" s="37"/>
+      <c r="D249" s="34"/>
+      <c r="E249" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F249" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="54"/>
-      <c r="B244" s="37"/>
-      <c r="C244" s="40"/>
-      <c r="D244" s="43"/>
-      <c r="E244" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="F244" s="5"/>
-    </row>
-    <row r="245" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="54"/>
-      <c r="B245" s="37"/>
-      <c r="C245" s="40"/>
-      <c r="D245" s="43"/>
-      <c r="E245" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="F245" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="54"/>
-      <c r="B246" s="37"/>
-      <c r="C246" s="40"/>
-      <c r="D246" s="43"/>
-      <c r="E246" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="F246" s="5" t="s">
+    <row r="250" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="43"/>
+      <c r="B250" s="40"/>
+      <c r="C250" s="37"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F250" s="5"/>
+    </row>
+    <row r="251" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="44"/>
+      <c r="B251" s="41"/>
+      <c r="C251" s="38"/>
+      <c r="D251" s="35"/>
+      <c r="E251" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F251" s="11" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="54"/>
-      <c r="B247" s="37"/>
-      <c r="C247" s="40"/>
-      <c r="D247" s="43"/>
-      <c r="E247" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="F247" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="55"/>
-      <c r="B248" s="38"/>
-      <c r="C248" s="41"/>
-      <c r="D248" s="44"/>
-      <c r="E248" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="F248" s="11" t="s">
+    <row r="252" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="48" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="53" t="s">
-        <v>375</v>
-      </c>
-      <c r="B249" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="C249" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="D249" s="45" t="s">
+      <c r="B252" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C252" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="D252" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E249" s="15" t="s">
+      <c r="E252" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F249" s="25"/>
-    </row>
-    <row r="250" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="54"/>
-      <c r="B250" s="37"/>
-      <c r="C250" s="40"/>
-      <c r="D250" s="46"/>
-      <c r="E250" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F250" s="5"/>
-    </row>
-    <row r="251" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="54"/>
-      <c r="B251" s="37"/>
-      <c r="C251" s="40"/>
-      <c r="D251" s="46"/>
-      <c r="E251" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="54"/>
-      <c r="B252" s="37"/>
-      <c r="C252" s="40"/>
-      <c r="D252" s="46"/>
-      <c r="E252" s="19" t="s">
-        <v>109</v>
-      </c>
       <c r="F252" s="5"/>
     </row>
-    <row r="253" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="54"/>
-      <c r="B253" s="37"/>
-      <c r="C253" s="40"/>
+    <row r="253" spans="1:6" ht="33" x14ac:dyDescent="0.2">
+      <c r="A253" s="49"/>
+      <c r="B253" s="40"/>
+      <c r="C253" s="37"/>
       <c r="D253" s="46"/>
       <c r="E253" s="19" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="55"/>
-      <c r="B254" s="38"/>
-      <c r="C254" s="41"/>
-      <c r="D254" s="47"/>
-      <c r="E254" s="18"/>
-      <c r="F254" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="49"/>
+      <c r="B254" s="40"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="46"/>
+      <c r="E254" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="50"/>
+      <c r="B255" s="41"/>
+      <c r="C255" s="38"/>
+      <c r="D255" s="47"/>
+      <c r="E255" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="42" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="B255" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="C255" s="39" t="s">
-        <v>382</v>
-      </c>
-      <c r="D255" s="42" t="s">
+      <c r="B256" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C256" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D256" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E255" s="19" t="s">
+      <c r="E256" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F255" s="5"/>
-    </row>
-    <row r="256" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A256" s="34"/>
-      <c r="B256" s="37"/>
-      <c r="C256" s="40"/>
-      <c r="D256" s="43"/>
-      <c r="E256" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="34"/>
-      <c r="B257" s="37"/>
-      <c r="C257" s="40"/>
-      <c r="D257" s="43"/>
+      <c r="A257" s="43"/>
+      <c r="B257" s="40"/>
+      <c r="C257" s="37"/>
+      <c r="D257" s="46"/>
       <c r="E257" s="19" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="F257" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="44"/>
+      <c r="B258" s="41"/>
+      <c r="C258" s="38"/>
+      <c r="D258" s="47"/>
+      <c r="E258" s="18" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="35"/>
-      <c r="B258" s="38"/>
-      <c r="C258" s="41"/>
-      <c r="D258" s="44"/>
-      <c r="E258" s="18" t="s">
-        <v>380</v>
-      </c>
       <c r="F258" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="53" t="s">
-        <v>383</v>
-      </c>
-      <c r="B259" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="C259" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="D259" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E259" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F259" s="5"/>
-    </row>
-    <row r="260" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="54"/>
-      <c r="B260" s="37"/>
-      <c r="C260" s="40"/>
-      <c r="D260" s="43"/>
-      <c r="E260" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F260" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="55"/>
-      <c r="B261" s="38"/>
-      <c r="C261" s="41"/>
-      <c r="D261" s="44"/>
-      <c r="E261" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="222">
-    <mergeCell ref="D249:D254"/>
-    <mergeCell ref="C249:C254"/>
-    <mergeCell ref="B249:B254"/>
-    <mergeCell ref="A249:A254"/>
-    <mergeCell ref="C255:C258"/>
-    <mergeCell ref="D255:D258"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="D259:D261"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="D233:D238"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="B233:B238"/>
-    <mergeCell ref="C233:C238"/>
-    <mergeCell ref="D239:D248"/>
-    <mergeCell ref="B239:B248"/>
-    <mergeCell ref="A239:A248"/>
-    <mergeCell ref="C239:C248"/>
-    <mergeCell ref="C214:C220"/>
-    <mergeCell ref="D214:D220"/>
-    <mergeCell ref="B214:B220"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="C221:C226"/>
-    <mergeCell ref="D221:D226"/>
-    <mergeCell ref="B221:B226"/>
-    <mergeCell ref="A221:A226"/>
-    <mergeCell ref="D227:D232"/>
-    <mergeCell ref="C227:C232"/>
-    <mergeCell ref="B227:B232"/>
-    <mergeCell ref="A227:A232"/>
-    <mergeCell ref="D206:D213"/>
-    <mergeCell ref="C206:C213"/>
-    <mergeCell ref="B206:B213"/>
-    <mergeCell ref="A206:A213"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="C156:C159"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D140:D146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="B189:B193"/>
+    <mergeCell ref="C189:C193"/>
+    <mergeCell ref="D189:D193"/>
+    <mergeCell ref="C194:C198"/>
+    <mergeCell ref="D194:D198"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="D173:D176"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="D177:D180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="D160:D164"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="D165:D168"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
     <mergeCell ref="A112:A117"/>
     <mergeCell ref="B112:B117"/>
     <mergeCell ref="C112:C117"/>
@@ -5811,132 +5827,78 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="D160:D164"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="D165:D168"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="D173:D176"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="D177:D180"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="D181:D184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A189:A193"/>
-    <mergeCell ref="B189:B193"/>
-    <mergeCell ref="C189:C193"/>
-    <mergeCell ref="D189:D193"/>
-    <mergeCell ref="C194:C198"/>
-    <mergeCell ref="D194:D198"/>
-    <mergeCell ref="B194:B198"/>
-    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="D206:D213"/>
+    <mergeCell ref="C206:C213"/>
+    <mergeCell ref="B206:B213"/>
+    <mergeCell ref="A206:A213"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D233:D238"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="B233:B238"/>
+    <mergeCell ref="C233:C238"/>
+    <mergeCell ref="D239:D246"/>
+    <mergeCell ref="B239:B246"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="C239:C246"/>
+    <mergeCell ref="C214:C220"/>
+    <mergeCell ref="D214:D220"/>
+    <mergeCell ref="B214:B220"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="C221:C226"/>
+    <mergeCell ref="D221:D226"/>
+    <mergeCell ref="B221:B226"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="D227:D232"/>
+    <mergeCell ref="C227:C232"/>
+    <mergeCell ref="B227:B232"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="D247:D251"/>
+    <mergeCell ref="C247:C251"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="D256:D258"/>
+    <mergeCell ref="B256:B258"/>
+    <mergeCell ref="A256:A258"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670D26A-CA65-4690-A430-55298EA86C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E6B99-FB95-40F5-BBEF-E3B2337D73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="406">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1197,6 +1197,69 @@
   </si>
   <si>
     <t>8. Click the Remove all items from view button</t>
+  </si>
+  <si>
+    <t>Find a registry or gift list</t>
+  </si>
+  <si>
+    <t>SK_56</t>
+  </si>
+  <si>
+    <t>3. Write 'Ali' in the search box</t>
+  </si>
+  <si>
+    <t>Search results for "Ali" are presented</t>
+  </si>
+  <si>
+    <t>Each result contains the word 'ali'</t>
+  </si>
+  <si>
+    <t>Find a registry or gift list - Change Location</t>
+  </si>
+  <si>
+    <t>Find a registry or gift list - Date Range</t>
+  </si>
+  <si>
+    <t>SK_57</t>
+  </si>
+  <si>
+    <t>Verify Find a registry or gift list search option works</t>
+  </si>
+  <si>
+    <t>Each result contains the word 'ali' and is from California</t>
+  </si>
+  <si>
+    <t>SK_58</t>
+  </si>
+  <si>
+    <t>Verify the location filter in the Find a registry or gift list search option works</t>
+  </si>
+  <si>
+    <t>Each result contains the word 'ali' and is from after January 2020</t>
+  </si>
+  <si>
+    <t>Verify the date range filter in the Find a registry or gift list search option works</t>
+  </si>
+  <si>
+    <t>4. Click the dropdown</t>
+  </si>
+  <si>
+    <t>Dropdown options are presented</t>
+  </si>
+  <si>
+    <t>5. Choose 'Birthday Gift List' from the dropdown</t>
+  </si>
+  <si>
+    <t>6. Click Search</t>
+  </si>
+  <si>
+    <t>7. In the location dropdown, choose California</t>
+  </si>
+  <si>
+    <t>8. Click Search for a Birthday Gift List button</t>
+  </si>
+  <si>
+    <t>7. In the Date Range dropdowns choose January and 2020</t>
   </si>
 </sst>
 </file>
@@ -1953,6 +2016,24 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1960,24 +2041,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E260" sqref="E260"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H270" sqref="H270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2454,7 +2517,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="40"/>
       <c r="C4" s="37"/>
       <c r="D4" s="46"/>
@@ -2464,7 +2527,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
       <c r="D5" s="46"/>
@@ -2474,7 +2537,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="40"/>
       <c r="C6" s="37"/>
       <c r="D6" s="47"/>
@@ -2486,7 +2549,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -2504,7 +2567,7 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="41"/>
       <c r="C8" s="38"/>
       <c r="D8" s="47"/>
@@ -2607,7 +2670,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -2623,7 +2686,7 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="40"/>
       <c r="C17" s="37"/>
       <c r="D17" s="46"/>
@@ -2633,7 +2696,7 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="41"/>
       <c r="C18" s="38"/>
       <c r="D18" s="46"/>
@@ -2697,7 +2760,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -2715,7 +2778,7 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="40"/>
       <c r="C24" s="37"/>
       <c r="D24" s="46"/>
@@ -2725,7 +2788,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="41"/>
       <c r="C25" s="38"/>
       <c r="D25" s="47"/>
@@ -2737,7 +2800,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="63" t="s">
@@ -2755,7 +2818,7 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="64"/>
       <c r="C27" s="37"/>
       <c r="D27" s="34"/>
@@ -2765,7 +2828,7 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="64"/>
       <c r="C28" s="37"/>
       <c r="D28" s="34"/>
@@ -2775,7 +2838,7 @@
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="64"/>
       <c r="C29" s="37"/>
       <c r="D29" s="34"/>
@@ -2787,7 +2850,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="64"/>
       <c r="C30" s="37"/>
       <c r="D30" s="34"/>
@@ -2797,7 +2860,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="64"/>
       <c r="C31" s="38"/>
       <c r="D31" s="35"/>
@@ -2807,7 +2870,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="39" t="s">
@@ -2825,7 +2888,7 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="40"/>
       <c r="C33" s="37"/>
       <c r="D33" s="34"/>
@@ -2837,7 +2900,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="40"/>
       <c r="C34" s="37"/>
       <c r="D34" s="34"/>
@@ -2847,7 +2910,7 @@
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="40"/>
       <c r="C35" s="37"/>
       <c r="D35" s="34"/>
@@ -2857,7 +2920,7 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="41"/>
       <c r="C36" s="38"/>
       <c r="D36" s="35"/>
@@ -2869,7 +2932,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="42" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="39" t="s">
@@ -2887,7 +2950,7 @@
       <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="40"/>
       <c r="C38" s="37"/>
       <c r="D38" s="34"/>
@@ -2899,7 +2962,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="40"/>
       <c r="C39" s="37"/>
       <c r="D39" s="34"/>
@@ -2909,7 +2972,7 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="40"/>
       <c r="C40" s="37"/>
       <c r="D40" s="34"/>
@@ -2921,7 +2984,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="41"/>
       <c r="C41" s="38"/>
       <c r="D41" s="35"/>
@@ -2933,7 +2996,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="42" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="39" t="s">
@@ -2951,7 +3014,7 @@
       <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="40"/>
       <c r="C43" s="37"/>
       <c r="D43" s="46"/>
@@ -2963,7 +3026,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="49"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="40"/>
       <c r="C44" s="37"/>
       <c r="D44" s="46"/>
@@ -2975,7 +3038,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="41"/>
       <c r="C45" s="38"/>
       <c r="D45" s="47"/>
@@ -2987,7 +3050,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="48" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="39" t="s">
@@ -3005,7 +3068,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="41"/>
       <c r="C47" s="38"/>
       <c r="D47" s="27" t="s">
@@ -3019,7 +3082,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="48" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="39" t="s">
@@ -3037,7 +3100,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="40"/>
       <c r="C49" s="37"/>
       <c r="D49" s="28" t="s">
@@ -3051,7 +3114,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="41"/>
       <c r="C50" s="38"/>
       <c r="D50" s="27"/>
@@ -3063,7 +3126,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="42" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="39" t="s">
@@ -3081,7 +3144,7 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="40"/>
       <c r="C52" s="37"/>
       <c r="D52" s="56"/>
@@ -3093,7 +3156,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="40"/>
       <c r="C53" s="37"/>
       <c r="D53" s="56"/>
@@ -3105,7 +3168,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="40"/>
       <c r="C54" s="37"/>
       <c r="D54" s="80" t="s">
@@ -3117,7 +3180,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="41"/>
       <c r="C55" s="38"/>
       <c r="D55" s="81"/>
@@ -3129,7 +3192,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="42" t="s">
         <v>102</v>
       </c>
       <c r="B56" s="39" t="s">
@@ -3147,7 +3210,7 @@
       <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="49"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="40"/>
       <c r="C57" s="37"/>
       <c r="D57" s="79"/>
@@ -3157,7 +3220,7 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="49"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="40"/>
       <c r="C58" s="37"/>
       <c r="D58" s="80" t="s">
@@ -3171,7 +3234,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="41"/>
       <c r="C59" s="38"/>
       <c r="D59" s="81"/>
@@ -3183,7 +3246,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="42" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="39" t="s">
@@ -3201,7 +3264,7 @@
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="49"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="40"/>
       <c r="C61" s="37"/>
       <c r="D61" s="34"/>
@@ -3211,7 +3274,7 @@
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="49"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="40"/>
       <c r="C62" s="37"/>
       <c r="D62" s="34"/>
@@ -3223,7 +3286,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="49"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="40"/>
       <c r="C63" s="37"/>
       <c r="D63" s="34"/>
@@ -3233,7 +3296,7 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="41"/>
       <c r="C64" s="38"/>
       <c r="D64" s="35"/>
@@ -3245,7 +3308,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="48" t="s">
+      <c r="A65" s="42" t="s">
         <v>114</v>
       </c>
       <c r="B65" s="39" t="s">
@@ -3263,7 +3326,7 @@
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="49"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="40"/>
       <c r="C66" s="37"/>
       <c r="D66" s="79"/>
@@ -3273,7 +3336,7 @@
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="49"/>
+      <c r="A67" s="43"/>
       <c r="B67" s="40"/>
       <c r="C67" s="37"/>
       <c r="D67" s="80" t="s">
@@ -3287,7 +3350,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="41"/>
       <c r="C68" s="38"/>
       <c r="D68" s="81"/>
@@ -3299,7 +3362,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="42" t="s">
         <v>123</v>
       </c>
       <c r="B69" s="39" t="s">
@@ -3317,7 +3380,7 @@
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="49"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="40"/>
       <c r="C70" s="53"/>
       <c r="D70" s="46"/>
@@ -3327,7 +3390,7 @@
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="49"/>
+      <c r="A71" s="43"/>
       <c r="B71" s="40"/>
       <c r="C71" s="53"/>
       <c r="D71" s="46"/>
@@ -3339,7 +3402,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="49"/>
+      <c r="A72" s="43"/>
       <c r="B72" s="40"/>
       <c r="C72" s="53"/>
       <c r="D72" s="46"/>
@@ -3351,7 +3414,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="49"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="40"/>
       <c r="C73" s="53"/>
       <c r="D73" s="46"/>
@@ -3361,7 +3424,7 @@
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="40"/>
       <c r="C74" s="53"/>
       <c r="D74" s="46"/>
@@ -3371,7 +3434,7 @@
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
+      <c r="A75" s="44"/>
       <c r="B75" s="41"/>
       <c r="C75" s="54"/>
       <c r="D75" s="47"/>
@@ -3383,7 +3446,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="48" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="39" t="s">
@@ -3401,7 +3464,7 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="43"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="40"/>
       <c r="C77" s="37"/>
       <c r="D77" s="79"/>
@@ -3411,7 +3474,7 @@
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
+      <c r="A78" s="50"/>
       <c r="B78" s="41"/>
       <c r="C78" s="38"/>
       <c r="D78" s="31" t="s">
@@ -3425,7 +3488,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="42" t="s">
         <v>145</v>
       </c>
       <c r="B79" s="39" t="s">
@@ -3443,7 +3506,7 @@
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="49"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="40"/>
       <c r="C80" s="37"/>
       <c r="D80" s="79"/>
@@ -3453,7 +3516,7 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="49"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="40"/>
       <c r="C81" s="37"/>
       <c r="D81" s="79"/>
@@ -3465,7 +3528,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="49"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="40"/>
       <c r="C82" s="37"/>
       <c r="D82" s="82" t="s">
@@ -3477,7 +3540,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="41"/>
       <c r="C83" s="38"/>
       <c r="D83" s="83"/>
@@ -3487,7 +3550,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="42" t="s">
         <v>149</v>
       </c>
       <c r="B84" s="39" t="s">
@@ -3505,7 +3568,7 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="49"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="40"/>
       <c r="C85" s="37"/>
       <c r="D85" s="79"/>
@@ -3515,7 +3578,7 @@
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="49"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="40"/>
       <c r="C86" s="37"/>
       <c r="D86" s="32" t="s">
@@ -3529,7 +3592,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
+      <c r="A87" s="44"/>
       <c r="B87" s="41"/>
       <c r="C87" s="38"/>
       <c r="D87" s="31"/>
@@ -3539,7 +3602,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="48" t="s">
+      <c r="A88" s="42" t="s">
         <v>154</v>
       </c>
       <c r="B88" s="39" t="s">
@@ -3557,7 +3620,7 @@
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="49"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="40"/>
       <c r="C89" s="37"/>
       <c r="D89" s="34"/>
@@ -3569,7 +3632,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="49"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="40"/>
       <c r="C90" s="37"/>
       <c r="D90" s="34"/>
@@ -3581,7 +3644,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="49"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="40"/>
       <c r="C91" s="37"/>
       <c r="D91" s="34"/>
@@ -3593,7 +3656,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="50"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="41"/>
       <c r="C92" s="38"/>
       <c r="D92" s="35"/>
@@ -3603,7 +3666,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="48" t="s">
+      <c r="A93" s="42" t="s">
         <v>162</v>
       </c>
       <c r="B93" s="39" t="s">
@@ -3621,7 +3684,7 @@
       <c r="F93" s="25"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="49"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="40"/>
       <c r="C94" s="37"/>
       <c r="D94" s="34"/>
@@ -3633,7 +3696,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A95" s="49"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="40"/>
       <c r="C95" s="37"/>
       <c r="D95" s="34"/>
@@ -3645,7 +3708,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="49"/>
+      <c r="A96" s="43"/>
       <c r="B96" s="40"/>
       <c r="C96" s="37"/>
       <c r="D96" s="34"/>
@@ -3657,7 +3720,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="50"/>
+      <c r="A97" s="44"/>
       <c r="B97" s="41"/>
       <c r="C97" s="38"/>
       <c r="D97" s="35"/>
@@ -3669,7 +3732,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="42" t="s">
         <v>171</v>
       </c>
       <c r="B98" s="39" t="s">
@@ -3687,7 +3750,7 @@
       <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="49"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="40"/>
       <c r="C99" s="37"/>
       <c r="D99" s="34"/>
@@ -3699,7 +3762,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="49"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="40"/>
       <c r="C100" s="37"/>
       <c r="D100" s="34"/>
@@ -3711,7 +3774,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="49"/>
+      <c r="A101" s="43"/>
       <c r="B101" s="40"/>
       <c r="C101" s="37"/>
       <c r="D101" s="34"/>
@@ -3723,7 +3786,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="50"/>
+      <c r="A102" s="44"/>
       <c r="B102" s="41"/>
       <c r="C102" s="38"/>
       <c r="D102" s="35"/>
@@ -3733,7 +3796,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="42" t="s">
         <v>177</v>
       </c>
       <c r="B103" s="39" t="s">
@@ -3751,7 +3814,7 @@
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="49"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="40"/>
       <c r="C104" s="37"/>
       <c r="D104" s="34"/>
@@ -3763,7 +3826,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="49"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="40"/>
       <c r="C105" s="37"/>
       <c r="D105" s="34"/>
@@ -3775,7 +3838,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="49"/>
+      <c r="A106" s="43"/>
       <c r="B106" s="40"/>
       <c r="C106" s="37"/>
       <c r="D106" s="34"/>
@@ -3785,7 +3848,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="50"/>
+      <c r="A107" s="44"/>
       <c r="B107" s="41"/>
       <c r="C107" s="38"/>
       <c r="D107" s="35"/>
@@ -3795,7 +3858,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="42" t="s">
         <v>186</v>
       </c>
       <c r="B108" s="39" t="s">
@@ -3813,7 +3876,7 @@
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="49"/>
+      <c r="A109" s="43"/>
       <c r="B109" s="40"/>
       <c r="C109" s="37"/>
       <c r="D109" s="46"/>
@@ -3823,7 +3886,7 @@
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="49"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="40"/>
       <c r="C110" s="37"/>
       <c r="D110" s="46"/>
@@ -3835,7 +3898,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
+      <c r="A111" s="44"/>
       <c r="B111" s="41"/>
       <c r="C111" s="38"/>
       <c r="D111" s="47"/>
@@ -3847,7 +3910,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="48" t="s">
         <v>193</v>
       </c>
       <c r="B112" s="39" t="s">
@@ -3865,7 +3928,7 @@
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="43"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="40"/>
       <c r="C113" s="37"/>
       <c r="D113" s="34"/>
@@ -3875,7 +3938,7 @@
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="43"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="40"/>
       <c r="C114" s="37"/>
       <c r="D114" s="34"/>
@@ -3887,7 +3950,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="43"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="40"/>
       <c r="C115" s="37"/>
       <c r="D115" s="34"/>
@@ -3899,7 +3962,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A116" s="43"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="40"/>
       <c r="C116" s="37"/>
       <c r="D116" s="34"/>
@@ -3909,7 +3972,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="41"/>
       <c r="C117" s="38"/>
       <c r="D117" s="35"/>
@@ -3919,7 +3982,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="48" t="s">
         <v>207</v>
       </c>
       <c r="B118" s="39" t="s">
@@ -3937,7 +4000,7 @@
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="43"/>
+      <c r="A119" s="49"/>
       <c r="B119" s="40"/>
       <c r="C119" s="37"/>
       <c r="D119" s="34"/>
@@ -3947,7 +4010,7 @@
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="43"/>
+      <c r="A120" s="49"/>
       <c r="B120" s="40"/>
       <c r="C120" s="37"/>
       <c r="D120" s="34"/>
@@ -3959,7 +4022,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="43"/>
+      <c r="A121" s="49"/>
       <c r="B121" s="40"/>
       <c r="C121" s="37"/>
       <c r="D121" s="34"/>
@@ -3971,7 +4034,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A122" s="43"/>
+      <c r="A122" s="49"/>
       <c r="B122" s="40"/>
       <c r="C122" s="37"/>
       <c r="D122" s="34"/>
@@ -3981,7 +4044,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
+      <c r="A123" s="50"/>
       <c r="B123" s="41" t="s">
         <v>195</v>
       </c>
@@ -3993,7 +4056,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="48" t="s">
+      <c r="A124" s="42" t="s">
         <v>212</v>
       </c>
       <c r="B124" s="39" t="s">
@@ -4011,7 +4074,7 @@
       <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="49"/>
+      <c r="A125" s="43"/>
       <c r="B125" s="40"/>
       <c r="C125" s="37"/>
       <c r="D125" s="46"/>
@@ -4021,7 +4084,7 @@
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="49"/>
+      <c r="A126" s="43"/>
       <c r="B126" s="40"/>
       <c r="C126" s="37"/>
       <c r="D126" s="46"/>
@@ -4033,7 +4096,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
+      <c r="A127" s="44"/>
       <c r="B127" s="41"/>
       <c r="C127" s="38"/>
       <c r="D127" s="47"/>
@@ -4045,7 +4108,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="48" t="s">
+      <c r="A128" s="42" t="s">
         <v>216</v>
       </c>
       <c r="B128" s="39" t="s">
@@ -4063,7 +4126,7 @@
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="49"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="40"/>
       <c r="C129" s="37"/>
       <c r="D129" s="34"/>
@@ -4073,7 +4136,7 @@
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="49"/>
+      <c r="A130" s="43"/>
       <c r="B130" s="40"/>
       <c r="C130" s="37"/>
       <c r="D130" s="34"/>
@@ -4085,7 +4148,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="49"/>
+      <c r="A131" s="43"/>
       <c r="B131" s="40"/>
       <c r="C131" s="37"/>
       <c r="D131" s="34"/>
@@ -4097,7 +4160,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
+      <c r="A132" s="44"/>
       <c r="B132" s="41"/>
       <c r="C132" s="38"/>
       <c r="D132" s="35"/>
@@ -4109,7 +4172,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="48" t="s">
+      <c r="A133" s="42" t="s">
         <v>222</v>
       </c>
       <c r="B133" s="39" t="s">
@@ -4127,7 +4190,7 @@
       <c r="F133" s="25"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="49"/>
+      <c r="A134" s="43"/>
       <c r="B134" s="40"/>
       <c r="C134" s="37"/>
       <c r="D134" s="34"/>
@@ -4137,7 +4200,7 @@
       <c r="F134" s="5"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="49"/>
+      <c r="A135" s="43"/>
       <c r="B135" s="40"/>
       <c r="C135" s="37"/>
       <c r="D135" s="34"/>
@@ -4149,7 +4212,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="49"/>
+      <c r="A136" s="43"/>
       <c r="B136" s="40"/>
       <c r="C136" s="37"/>
       <c r="D136" s="34"/>
@@ -4161,7 +4224,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="49"/>
+      <c r="A137" s="43"/>
       <c r="B137" s="40"/>
       <c r="C137" s="37"/>
       <c r="D137" s="34"/>
@@ -4173,7 +4236,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="49"/>
+      <c r="A138" s="43"/>
       <c r="B138" s="40"/>
       <c r="C138" s="37"/>
       <c r="D138" s="34"/>
@@ -4183,7 +4246,7 @@
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="50"/>
+      <c r="A139" s="44"/>
       <c r="B139" s="41"/>
       <c r="C139" s="38"/>
       <c r="D139" s="35"/>
@@ -4195,7 +4258,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="42" t="s">
         <v>230</v>
       </c>
       <c r="B140" s="39" t="s">
@@ -4213,7 +4276,7 @@
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="49"/>
+      <c r="A141" s="43"/>
       <c r="B141" s="40"/>
       <c r="C141" s="37"/>
       <c r="D141" s="34"/>
@@ -4223,7 +4286,7 @@
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="49"/>
+      <c r="A142" s="43"/>
       <c r="B142" s="40"/>
       <c r="C142" s="37"/>
       <c r="D142" s="34"/>
@@ -4235,7 +4298,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="49"/>
+      <c r="A143" s="43"/>
       <c r="B143" s="40"/>
       <c r="C143" s="37"/>
       <c r="D143" s="34"/>
@@ -4247,7 +4310,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="49"/>
+      <c r="A144" s="43"/>
       <c r="B144" s="40"/>
       <c r="C144" s="37"/>
       <c r="D144" s="34"/>
@@ -4257,7 +4320,7 @@
       <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="49"/>
+      <c r="A145" s="43"/>
       <c r="B145" s="40"/>
       <c r="C145" s="37"/>
       <c r="D145" s="34"/>
@@ -4267,7 +4330,7 @@
       <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="50"/>
+      <c r="A146" s="44"/>
       <c r="B146" s="41"/>
       <c r="C146" s="38"/>
       <c r="D146" s="35"/>
@@ -4279,7 +4342,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="48" t="s">
+      <c r="A147" s="42" t="s">
         <v>236</v>
       </c>
       <c r="B147" s="39" t="s">
@@ -4297,7 +4360,7 @@
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="49"/>
+      <c r="A148" s="43"/>
       <c r="B148" s="40"/>
       <c r="C148" s="37"/>
       <c r="D148" s="34"/>
@@ -4307,7 +4370,7 @@
       <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="49"/>
+      <c r="A149" s="43"/>
       <c r="B149" s="40"/>
       <c r="C149" s="37"/>
       <c r="D149" s="34"/>
@@ -4319,7 +4382,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="49"/>
+      <c r="A150" s="43"/>
       <c r="B150" s="40"/>
       <c r="C150" s="37"/>
       <c r="D150" s="34"/>
@@ -4329,7 +4392,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="50"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="41"/>
       <c r="C151" s="38"/>
       <c r="D151" s="35"/>
@@ -4339,7 +4402,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="48" t="s">
+      <c r="A152" s="42" t="s">
         <v>241</v>
       </c>
       <c r="B152" s="39" t="s">
@@ -4357,7 +4420,7 @@
       <c r="F152" s="5"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="49"/>
+      <c r="A153" s="43"/>
       <c r="B153" s="40"/>
       <c r="C153" s="37"/>
       <c r="D153" s="46"/>
@@ -4369,7 +4432,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="49"/>
+      <c r="A154" s="43"/>
       <c r="B154" s="40"/>
       <c r="C154" s="37"/>
       <c r="D154" s="46"/>
@@ -4379,7 +4442,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="50"/>
+      <c r="A155" s="44"/>
       <c r="B155" s="41"/>
       <c r="C155" s="38"/>
       <c r="D155" s="47"/>
@@ -4389,7 +4452,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="48" t="s">
+      <c r="A156" s="42" t="s">
         <v>248</v>
       </c>
       <c r="B156" s="39" t="s">
@@ -4407,7 +4470,7 @@
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="49"/>
+      <c r="A157" s="43"/>
       <c r="B157" s="40"/>
       <c r="C157" s="37"/>
       <c r="D157" s="46"/>
@@ -4419,7 +4482,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="49"/>
+      <c r="A158" s="43"/>
       <c r="B158" s="40"/>
       <c r="C158" s="37"/>
       <c r="D158" s="46"/>
@@ -4429,7 +4492,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="50"/>
+      <c r="A159" s="44"/>
       <c r="B159" s="41"/>
       <c r="C159" s="38"/>
       <c r="D159" s="47"/>
@@ -4439,7 +4502,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="48" t="s">
+      <c r="A160" s="42" t="s">
         <v>258</v>
       </c>
       <c r="B160" s="39" t="s">
@@ -4457,7 +4520,7 @@
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="49"/>
+      <c r="A161" s="43"/>
       <c r="B161" s="40"/>
       <c r="C161" s="37"/>
       <c r="D161" s="34"/>
@@ -4467,7 +4530,7 @@
       <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="49"/>
+      <c r="A162" s="43"/>
       <c r="B162" s="40"/>
       <c r="C162" s="37"/>
       <c r="D162" s="34"/>
@@ -4477,7 +4540,7 @@
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="49"/>
+      <c r="A163" s="43"/>
       <c r="B163" s="40"/>
       <c r="C163" s="37"/>
       <c r="D163" s="34"/>
@@ -4489,7 +4552,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="50"/>
+      <c r="A164" s="44"/>
       <c r="B164" s="41"/>
       <c r="C164" s="38"/>
       <c r="D164" s="35"/>
@@ -4501,7 +4564,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="48" t="s">
+      <c r="A165" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B165" s="39" t="s">
@@ -4519,7 +4582,7 @@
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="49"/>
+      <c r="A166" s="43"/>
       <c r="B166" s="40"/>
       <c r="C166" s="37"/>
       <c r="D166" s="46"/>
@@ -4529,7 +4592,7 @@
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="49"/>
+      <c r="A167" s="43"/>
       <c r="B167" s="40"/>
       <c r="C167" s="37"/>
       <c r="D167" s="46"/>
@@ -4539,7 +4602,7 @@
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="50"/>
+      <c r="A168" s="44"/>
       <c r="B168" s="41"/>
       <c r="C168" s="38"/>
       <c r="D168" s="47"/>
@@ -4551,7 +4614,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="48" t="s">
+      <c r="A169" s="42" t="s">
         <v>271</v>
       </c>
       <c r="B169" s="39" t="s">
@@ -4569,7 +4632,7 @@
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="49"/>
+      <c r="A170" s="43"/>
       <c r="B170" s="40"/>
       <c r="C170" s="37"/>
       <c r="D170" s="46"/>
@@ -4579,7 +4642,7 @@
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="49"/>
+      <c r="A171" s="43"/>
       <c r="B171" s="40"/>
       <c r="C171" s="37"/>
       <c r="D171" s="46"/>
@@ -4589,7 +4652,7 @@
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="50"/>
+      <c r="A172" s="44"/>
       <c r="B172" s="41"/>
       <c r="C172" s="38"/>
       <c r="D172" s="47"/>
@@ -4601,7 +4664,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="48" t="s">
+      <c r="A173" s="42" t="s">
         <v>272</v>
       </c>
       <c r="B173" s="39" t="s">
@@ -4619,7 +4682,7 @@
       <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="49"/>
+      <c r="A174" s="43"/>
       <c r="B174" s="40"/>
       <c r="C174" s="37"/>
       <c r="D174" s="46"/>
@@ -4629,7 +4692,7 @@
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="49"/>
+      <c r="A175" s="43"/>
       <c r="B175" s="40"/>
       <c r="C175" s="37"/>
       <c r="D175" s="46"/>
@@ -4641,7 +4704,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="50"/>
+      <c r="A176" s="44"/>
       <c r="B176" s="41"/>
       <c r="C176" s="38"/>
       <c r="D176" s="47"/>
@@ -4653,7 +4716,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="48" t="s">
+      <c r="A177" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B177" s="39" t="s">
@@ -4671,7 +4734,7 @@
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="49"/>
+      <c r="A178" s="43"/>
       <c r="B178" s="40"/>
       <c r="C178" s="37"/>
       <c r="D178" s="46"/>
@@ -4681,7 +4744,7 @@
       <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="49"/>
+      <c r="A179" s="43"/>
       <c r="B179" s="40"/>
       <c r="C179" s="37"/>
       <c r="D179" s="46"/>
@@ -4693,7 +4756,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="50"/>
+      <c r="A180" s="44"/>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
       <c r="D180" s="47"/>
@@ -4703,7 +4766,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="48" t="s">
+      <c r="A181" s="42" t="s">
         <v>289</v>
       </c>
       <c r="B181" s="39" t="s">
@@ -4721,7 +4784,7 @@
       <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="49"/>
+      <c r="A182" s="43"/>
       <c r="B182" s="40"/>
       <c r="C182" s="37"/>
       <c r="D182" s="46"/>
@@ -4731,7 +4794,7 @@
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="49"/>
+      <c r="A183" s="43"/>
       <c r="B183" s="40"/>
       <c r="C183" s="37"/>
       <c r="D183" s="46"/>
@@ -4743,7 +4806,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="50"/>
+      <c r="A184" s="44"/>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
       <c r="D184" s="47"/>
@@ -4753,7 +4816,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="48" t="s">
+      <c r="A185" s="42" t="s">
         <v>293</v>
       </c>
       <c r="B185" s="39" t="s">
@@ -4771,7 +4834,7 @@
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="49"/>
+      <c r="A186" s="43"/>
       <c r="B186" s="40"/>
       <c r="C186" s="37"/>
       <c r="D186" s="46"/>
@@ -4781,7 +4844,7 @@
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="49"/>
+      <c r="A187" s="43"/>
       <c r="B187" s="40"/>
       <c r="C187" s="37"/>
       <c r="D187" s="46"/>
@@ -4793,7 +4856,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="50"/>
+      <c r="A188" s="44"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
       <c r="D188" s="47"/>
@@ -4803,7 +4866,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="48" t="s">
+      <c r="A189" s="42" t="s">
         <v>296</v>
       </c>
       <c r="B189" s="39" t="s">
@@ -4821,7 +4884,7 @@
       <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="49"/>
+      <c r="A190" s="43"/>
       <c r="B190" s="40"/>
       <c r="C190" s="37"/>
       <c r="D190" s="46"/>
@@ -4831,7 +4894,7 @@
       <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="49"/>
+      <c r="A191" s="43"/>
       <c r="B191" s="40"/>
       <c r="C191" s="37"/>
       <c r="D191" s="46"/>
@@ -4841,7 +4904,7 @@
       <c r="F191" s="5"/>
     </row>
     <row r="192" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="49"/>
+      <c r="A192" s="43"/>
       <c r="B192" s="40"/>
       <c r="C192" s="37"/>
       <c r="D192" s="46"/>
@@ -4851,7 +4914,7 @@
       <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="49"/>
+      <c r="A193" s="43"/>
       <c r="B193" s="40"/>
       <c r="C193" s="37"/>
       <c r="D193" s="46"/>
@@ -4863,7 +4926,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="48" t="s">
+      <c r="A194" s="42" t="s">
         <v>302</v>
       </c>
       <c r="B194" s="39" t="s">
@@ -4881,7 +4944,7 @@
       <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="49"/>
+      <c r="A195" s="43"/>
       <c r="B195" s="40"/>
       <c r="C195" s="37"/>
       <c r="D195" s="34"/>
@@ -4891,7 +4954,7 @@
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="49"/>
+      <c r="A196" s="43"/>
       <c r="B196" s="40"/>
       <c r="C196" s="37"/>
       <c r="D196" s="34"/>
@@ -4903,7 +4966,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="49"/>
+      <c r="A197" s="43"/>
       <c r="B197" s="40"/>
       <c r="C197" s="37"/>
       <c r="D197" s="34"/>
@@ -4915,7 +4978,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="50"/>
+      <c r="A198" s="44"/>
       <c r="B198" s="41"/>
       <c r="C198" s="38"/>
       <c r="D198" s="35"/>
@@ -4925,7 +4988,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="42" t="s">
+      <c r="A199" s="48" t="s">
         <v>309</v>
       </c>
       <c r="B199" s="39" t="s">
@@ -4943,7 +5006,7 @@
       <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A200" s="43"/>
+      <c r="A200" s="49"/>
       <c r="B200" s="40"/>
       <c r="C200" s="37"/>
       <c r="D200" s="46"/>
@@ -4955,7 +5018,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="44"/>
+      <c r="A201" s="50"/>
       <c r="B201" s="41"/>
       <c r="C201" s="38"/>
       <c r="D201" s="47"/>
@@ -4967,7 +5030,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="48" t="s">
+      <c r="A202" s="42" t="s">
         <v>318</v>
       </c>
       <c r="B202" s="39" t="s">
@@ -4985,7 +5048,7 @@
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="49"/>
+      <c r="A203" s="43"/>
       <c r="B203" s="40"/>
       <c r="C203" s="37"/>
       <c r="D203" s="46"/>
@@ -4997,7 +5060,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="49"/>
+      <c r="A204" s="43"/>
       <c r="B204" s="40"/>
       <c r="C204" s="37"/>
       <c r="D204" s="46"/>
@@ -5009,7 +5072,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="50"/>
+      <c r="A205" s="44"/>
       <c r="B205" s="41"/>
       <c r="C205" s="38"/>
       <c r="D205" s="47"/>
@@ -5019,7 +5082,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="48" t="s">
+      <c r="A206" s="42" t="s">
         <v>321</v>
       </c>
       <c r="B206" s="39" t="s">
@@ -5037,7 +5100,7 @@
       <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="49"/>
+      <c r="A207" s="43"/>
       <c r="B207" s="40"/>
       <c r="C207" s="37"/>
       <c r="D207" s="46"/>
@@ -5047,7 +5110,7 @@
       <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="49"/>
+      <c r="A208" s="43"/>
       <c r="B208" s="40"/>
       <c r="C208" s="37"/>
       <c r="D208" s="46"/>
@@ -5059,7 +5122,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="49"/>
+      <c r="A209" s="43"/>
       <c r="B209" s="40"/>
       <c r="C209" s="37"/>
       <c r="D209" s="46"/>
@@ -5069,7 +5132,7 @@
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="49"/>
+      <c r="A210" s="43"/>
       <c r="B210" s="40"/>
       <c r="C210" s="37"/>
       <c r="D210" s="46"/>
@@ -5079,7 +5142,7 @@
       <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="49"/>
+      <c r="A211" s="43"/>
       <c r="B211" s="40"/>
       <c r="C211" s="37"/>
       <c r="D211" s="46"/>
@@ -5091,7 +5154,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="49"/>
+      <c r="A212" s="43"/>
       <c r="B212" s="40"/>
       <c r="C212" s="37"/>
       <c r="D212" s="46"/>
@@ -5101,7 +5164,7 @@
       <c r="F212" s="5"/>
     </row>
     <row r="213" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="50"/>
+      <c r="A213" s="44"/>
       <c r="B213" s="41"/>
       <c r="C213" s="38"/>
       <c r="D213" s="47"/>
@@ -5113,7 +5176,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="48" t="s">
+      <c r="A214" s="42" t="s">
         <v>333</v>
       </c>
       <c r="B214" s="39" t="s">
@@ -5131,7 +5194,7 @@
       <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A215" s="49"/>
+      <c r="A215" s="43"/>
       <c r="B215" s="40"/>
       <c r="C215" s="37"/>
       <c r="D215" s="34"/>
@@ -5143,7 +5206,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="49"/>
+      <c r="A216" s="43"/>
       <c r="B216" s="40"/>
       <c r="C216" s="37"/>
       <c r="D216" s="34"/>
@@ -5155,7 +5218,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="49"/>
+      <c r="A217" s="43"/>
       <c r="B217" s="40"/>
       <c r="C217" s="37"/>
       <c r="D217" s="34"/>
@@ -5165,7 +5228,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="49"/>
+      <c r="A218" s="43"/>
       <c r="B218" s="40"/>
       <c r="C218" s="37"/>
       <c r="D218" s="34"/>
@@ -5175,7 +5238,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="49"/>
+      <c r="A219" s="43"/>
       <c r="B219" s="40"/>
       <c r="C219" s="37"/>
       <c r="D219" s="34"/>
@@ -5185,7 +5248,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="50"/>
+      <c r="A220" s="44"/>
       <c r="B220" s="41"/>
       <c r="C220" s="38"/>
       <c r="D220" s="35"/>
@@ -5197,7 +5260,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="42" t="s">
+      <c r="A221" s="48" t="s">
         <v>342</v>
       </c>
       <c r="B221" s="39" t="s">
@@ -5215,7 +5278,7 @@
       <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A222" s="43"/>
+      <c r="A222" s="49"/>
       <c r="B222" s="40"/>
       <c r="C222" s="37"/>
       <c r="D222" s="34"/>
@@ -5227,7 +5290,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="43"/>
+      <c r="A223" s="49"/>
       <c r="B223" s="40"/>
       <c r="C223" s="37"/>
       <c r="D223" s="34"/>
@@ -5239,7 +5302,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A224" s="43"/>
+      <c r="A224" s="49"/>
       <c r="B224" s="40"/>
       <c r="C224" s="37"/>
       <c r="D224" s="34"/>
@@ -5249,7 +5312,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A225" s="43"/>
+      <c r="A225" s="49"/>
       <c r="B225" s="40"/>
       <c r="C225" s="37"/>
       <c r="D225" s="34"/>
@@ -5261,7 +5324,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="44"/>
+      <c r="A226" s="50"/>
       <c r="B226" s="41"/>
       <c r="C226" s="38"/>
       <c r="D226" s="35"/>
@@ -5273,7 +5336,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="42" t="s">
+      <c r="A227" s="48" t="s">
         <v>352</v>
       </c>
       <c r="B227" s="39" t="s">
@@ -5291,7 +5354,7 @@
       <c r="F227" s="5"/>
     </row>
     <row r="228" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="43"/>
+      <c r="A228" s="49"/>
       <c r="B228" s="40"/>
       <c r="C228" s="37"/>
       <c r="D228" s="34"/>
@@ -5301,7 +5364,7 @@
       <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="43"/>
+      <c r="A229" s="49"/>
       <c r="B229" s="40"/>
       <c r="C229" s="37"/>
       <c r="D229" s="34"/>
@@ -5313,7 +5376,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="43"/>
+      <c r="A230" s="49"/>
       <c r="B230" s="40"/>
       <c r="C230" s="37"/>
       <c r="D230" s="34"/>
@@ -5323,7 +5386,7 @@
       <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="43"/>
+      <c r="A231" s="49"/>
       <c r="B231" s="40"/>
       <c r="C231" s="37"/>
       <c r="D231" s="34"/>
@@ -5335,7 +5398,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="44"/>
+      <c r="A232" s="50"/>
       <c r="B232" s="41"/>
       <c r="C232" s="38"/>
       <c r="D232" s="35"/>
@@ -5345,7 +5408,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="42" t="s">
+      <c r="A233" s="48" t="s">
         <v>360</v>
       </c>
       <c r="B233" s="39" t="s">
@@ -5363,7 +5426,7 @@
       <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="43"/>
+      <c r="A234" s="49"/>
       <c r="B234" s="40"/>
       <c r="C234" s="37"/>
       <c r="D234" s="34"/>
@@ -5373,7 +5436,7 @@
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="43"/>
+      <c r="A235" s="49"/>
       <c r="B235" s="40"/>
       <c r="C235" s="37"/>
       <c r="D235" s="34"/>
@@ -5385,7 +5448,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="43"/>
+      <c r="A236" s="49"/>
       <c r="B236" s="40"/>
       <c r="C236" s="37"/>
       <c r="D236" s="34"/>
@@ -5395,7 +5458,7 @@
       <c r="F236" s="5"/>
     </row>
     <row r="237" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="43"/>
+      <c r="A237" s="49"/>
       <c r="B237" s="40"/>
       <c r="C237" s="37"/>
       <c r="D237" s="34"/>
@@ -5407,7 +5470,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="44"/>
+      <c r="A238" s="50"/>
       <c r="B238" s="41"/>
       <c r="C238" s="38"/>
       <c r="D238" s="35"/>
@@ -5419,7 +5482,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="42" t="s">
+      <c r="A239" s="48" t="s">
         <v>363</v>
       </c>
       <c r="B239" s="39" t="s">
@@ -5437,7 +5500,7 @@
       <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="43"/>
+      <c r="A240" s="49"/>
       <c r="B240" s="40"/>
       <c r="C240" s="37"/>
       <c r="D240" s="46"/>
@@ -5447,7 +5510,7 @@
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="43"/>
+      <c r="A241" s="49"/>
       <c r="B241" s="40"/>
       <c r="C241" s="37"/>
       <c r="D241" s="46"/>
@@ -5459,7 +5522,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="43"/>
+      <c r="A242" s="49"/>
       <c r="B242" s="40"/>
       <c r="C242" s="37"/>
       <c r="D242" s="46"/>
@@ -5469,7 +5532,7 @@
       <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="43"/>
+      <c r="A243" s="49"/>
       <c r="B243" s="40"/>
       <c r="C243" s="37"/>
       <c r="D243" s="46"/>
@@ -5481,7 +5544,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="43"/>
+      <c r="A244" s="49"/>
       <c r="B244" s="40"/>
       <c r="C244" s="37"/>
       <c r="D244" s="46"/>
@@ -5493,7 +5556,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="43"/>
+      <c r="A245" s="49"/>
       <c r="B245" s="40"/>
       <c r="C245" s="37"/>
       <c r="D245" s="46"/>
@@ -5505,7 +5568,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="44"/>
+      <c r="A246" s="50"/>
       <c r="B246" s="41"/>
       <c r="C246" s="38"/>
       <c r="D246" s="47"/>
@@ -5517,7 +5580,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="42" t="s">
+      <c r="A247" s="48" t="s">
         <v>369</v>
       </c>
       <c r="B247" s="39" t="s">
@@ -5535,7 +5598,7 @@
       <c r="F247" s="25"/>
     </row>
     <row r="248" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="43"/>
+      <c r="A248" s="49"/>
       <c r="B248" s="40"/>
       <c r="C248" s="37"/>
       <c r="D248" s="34"/>
@@ -5545,7 +5608,7 @@
       <c r="F248" s="5"/>
     </row>
     <row r="249" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="43"/>
+      <c r="A249" s="49"/>
       <c r="B249" s="40"/>
       <c r="C249" s="37"/>
       <c r="D249" s="34"/>
@@ -5557,7 +5620,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="43"/>
+      <c r="A250" s="49"/>
       <c r="B250" s="40"/>
       <c r="C250" s="37"/>
       <c r="D250" s="34"/>
@@ -5567,11 +5630,11 @@
       <c r="F250" s="5"/>
     </row>
     <row r="251" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="44"/>
+      <c r="A251" s="50"/>
       <c r="B251" s="41"/>
       <c r="C251" s="38"/>
       <c r="D251" s="35"/>
-      <c r="E251" s="19" t="s">
+      <c r="E251" s="18" t="s">
         <v>111</v>
       </c>
       <c r="F251" s="11" t="s">
@@ -5579,7 +5642,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="48" t="s">
+      <c r="A252" s="42" t="s">
         <v>370</v>
       </c>
       <c r="B252" s="39" t="s">
@@ -5591,13 +5654,13 @@
       <c r="D252" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E252" s="19" t="s">
+      <c r="E252" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F252" s="5"/>
     </row>
     <row r="253" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A253" s="49"/>
+      <c r="A253" s="43"/>
       <c r="B253" s="40"/>
       <c r="C253" s="37"/>
       <c r="D253" s="46"/>
@@ -5609,7 +5672,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="49"/>
+      <c r="A254" s="43"/>
       <c r="B254" s="40"/>
       <c r="C254" s="37"/>
       <c r="D254" s="46"/>
@@ -5621,7 +5684,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="50"/>
+      <c r="A255" s="44"/>
       <c r="B255" s="41"/>
       <c r="C255" s="38"/>
       <c r="D255" s="47"/>
@@ -5633,7 +5696,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="42" t="s">
+      <c r="A256" s="48" t="s">
         <v>377</v>
       </c>
       <c r="B256" s="39" t="s">
@@ -5651,7 +5714,7 @@
       <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="43"/>
+      <c r="A257" s="49"/>
       <c r="B257" s="40"/>
       <c r="C257" s="37"/>
       <c r="D257" s="46"/>
@@ -5663,7 +5726,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="44"/>
+      <c r="A258" s="50"/>
       <c r="B258" s="41"/>
       <c r="C258" s="38"/>
       <c r="D258" s="47"/>
@@ -5674,9 +5737,271 @@
         <v>375</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="259" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="B259" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="C259" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="D259" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E259" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" s="5"/>
+    </row>
+    <row r="260" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="43"/>
+      <c r="B260" s="40"/>
+      <c r="C260" s="37"/>
+      <c r="D260" s="34"/>
+      <c r="E260" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="43"/>
+      <c r="B261" s="40"/>
+      <c r="C261" s="37"/>
+      <c r="D261" s="34"/>
+      <c r="E261" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="F261" s="5"/>
+    </row>
+    <row r="262" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="43"/>
+      <c r="B262" s="40"/>
+      <c r="C262" s="37"/>
+      <c r="D262" s="34"/>
+      <c r="E262" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="43"/>
+      <c r="B263" s="40"/>
+      <c r="C263" s="37"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="F263" s="5"/>
+    </row>
+    <row r="264" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="43"/>
+      <c r="B264" s="40"/>
+      <c r="C264" s="37"/>
+      <c r="D264" s="34"/>
+      <c r="E264" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="44"/>
+      <c r="B265" s="41"/>
+      <c r="C265" s="38"/>
+      <c r="D265" s="35"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="B266" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="C266" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="D266" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E266" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" s="5"/>
+    </row>
+    <row r="267" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="49"/>
+      <c r="B267" s="40"/>
+      <c r="C267" s="37"/>
+      <c r="D267" s="46"/>
+      <c r="E267" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="49"/>
+      <c r="B268" s="40"/>
+      <c r="C268" s="37"/>
+      <c r="D268" s="46"/>
+      <c r="E268" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="F268" s="5"/>
+    </row>
+    <row r="269" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="49"/>
+      <c r="B269" s="40"/>
+      <c r="C269" s="37"/>
+      <c r="D269" s="46"/>
+      <c r="E269" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="49"/>
+      <c r="B270" s="40"/>
+      <c r="C270" s="37"/>
+      <c r="D270" s="46"/>
+      <c r="E270" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="F270" s="5"/>
+    </row>
+    <row r="271" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="49"/>
+      <c r="B271" s="40"/>
+      <c r="C271" s="37"/>
+      <c r="D271" s="46"/>
+      <c r="E271" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F271" s="5"/>
+    </row>
+    <row r="272" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="49"/>
+      <c r="B272" s="40"/>
+      <c r="C272" s="37"/>
+      <c r="D272" s="46"/>
+      <c r="E272" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="F272" s="5"/>
+    </row>
+    <row r="273" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="50"/>
+      <c r="B273" s="41"/>
+      <c r="C273" s="38"/>
+      <c r="D273" s="47"/>
+      <c r="E273" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F273" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="B274" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="C274" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="D274" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E274" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" s="5"/>
+    </row>
+    <row r="275" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="43"/>
+      <c r="B275" s="40"/>
+      <c r="C275" s="37"/>
+      <c r="D275" s="34"/>
+      <c r="E275" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="43"/>
+      <c r="B276" s="40"/>
+      <c r="C276" s="37"/>
+      <c r="D276" s="34"/>
+      <c r="E276" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="F276" s="5"/>
+    </row>
+    <row r="277" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="43"/>
+      <c r="B277" s="40"/>
+      <c r="C277" s="37"/>
+      <c r="D277" s="34"/>
+      <c r="E277" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="43"/>
+      <c r="B278" s="40"/>
+      <c r="C278" s="37"/>
+      <c r="D278" s="34"/>
+      <c r="E278" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="F278" s="5"/>
+    </row>
+    <row r="279" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="43"/>
+      <c r="B279" s="40"/>
+      <c r="C279" s="37"/>
+      <c r="D279" s="34"/>
+      <c r="E279" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F279" s="5"/>
+    </row>
+    <row r="280" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="44"/>
+      <c r="B280" s="41"/>
+      <c r="C280" s="38"/>
+      <c r="D280" s="35"/>
+      <c r="E280" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F280" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="234">
     <mergeCell ref="A185:A188"/>
     <mergeCell ref="B185:B188"/>
     <mergeCell ref="C185:C188"/>
@@ -5899,6 +6224,18 @@
     <mergeCell ref="D256:D258"/>
     <mergeCell ref="B256:B258"/>
     <mergeCell ref="A256:A258"/>
+    <mergeCell ref="D274:D280"/>
+    <mergeCell ref="C274:C280"/>
+    <mergeCell ref="B274:B280"/>
+    <mergeCell ref="A274:A280"/>
+    <mergeCell ref="D259:D265"/>
+    <mergeCell ref="C259:C265"/>
+    <mergeCell ref="B259:B265"/>
+    <mergeCell ref="A259:A265"/>
+    <mergeCell ref="D266:D273"/>
+    <mergeCell ref="C266:C273"/>
+    <mergeCell ref="B266:B273"/>
+    <mergeCell ref="A266:A273"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E6B99-FB95-40F5-BBEF-E3B2337D73F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20D594-401F-4EA5-A859-F255DC73F1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="418">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1226,9 +1226,6 @@
     <t>Verify Find a registry or gift list search option works</t>
   </si>
   <si>
-    <t>Each result contains the word 'ali' and is from California</t>
-  </si>
-  <si>
     <t>SK_58</t>
   </si>
   <si>
@@ -1260,6 +1257,45 @@
   </si>
   <si>
     <t>7. In the Date Range dropdowns choose January and 2020</t>
+  </si>
+  <si>
+    <t>Watch A Gift List</t>
+  </si>
+  <si>
+    <t>7. Click one of the lists' names</t>
+  </si>
+  <si>
+    <t>SK_59</t>
+  </si>
+  <si>
+    <t>Create A Registry - Not Logged In</t>
+  </si>
+  <si>
+    <t>The list with the correct name is displayed</t>
+  </si>
+  <si>
+    <t>There are presented items in the list</t>
+  </si>
+  <si>
+    <t>SK_60</t>
+  </si>
+  <si>
+    <t>Verify Clicking a Registry list shows the registry's page</t>
+  </si>
+  <si>
+    <t>3. Click Wedding Registry box</t>
+  </si>
+  <si>
+    <t>Amazon Wedding page is displayed</t>
+  </si>
+  <si>
+    <t>4. Click Create your registry button</t>
+  </si>
+  <si>
+    <t>Verify Creating a wedding registry requieres signing in</t>
+  </si>
+  <si>
+    <t>Each result is from California</t>
   </si>
 </sst>
 </file>
@@ -2454,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:G293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H270" sqref="H270"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5783,10 +5819,10 @@
       <c r="C262" s="37"/>
       <c r="D262" s="34"/>
       <c r="E262" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="F262" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="F262" s="5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5795,7 +5831,7 @@
       <c r="C263" s="37"/>
       <c r="D263" s="34"/>
       <c r="E263" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F263" s="5"/>
     </row>
@@ -5805,7 +5841,7 @@
       <c r="C264" s="37"/>
       <c r="D264" s="34"/>
       <c r="E264" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>388</v>
@@ -5829,7 +5865,7 @@
         <v>390</v>
       </c>
       <c r="C266" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D266" s="45" t="s">
         <v>27</v>
@@ -5867,10 +5903,10 @@
       <c r="C269" s="37"/>
       <c r="D269" s="46"/>
       <c r="E269" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="F269" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5879,7 +5915,7 @@
       <c r="C270" s="37"/>
       <c r="D270" s="46"/>
       <c r="E270" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F270" s="5"/>
     </row>
@@ -5889,7 +5925,7 @@
       <c r="C271" s="37"/>
       <c r="D271" s="46"/>
       <c r="E271" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F271" s="5"/>
     </row>
@@ -5899,7 +5935,7 @@
       <c r="C272" s="37"/>
       <c r="D272" s="46"/>
       <c r="E272" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F272" s="5"/>
     </row>
@@ -5909,21 +5945,21 @@
       <c r="C273" s="38"/>
       <c r="D273" s="47"/>
       <c r="E273" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F273" s="11" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A274" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B274" s="39" t="s">
         <v>391</v>
       </c>
       <c r="C274" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D274" s="33" t="s">
         <v>27</v>
@@ -5961,10 +5997,10 @@
       <c r="C277" s="37"/>
       <c r="D277" s="34"/>
       <c r="E277" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="F277" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="F277" s="5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5973,7 +6009,7 @@
       <c r="C278" s="37"/>
       <c r="D278" s="34"/>
       <c r="E278" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F278" s="5"/>
     </row>
@@ -5983,7 +6019,7 @@
       <c r="C279" s="37"/>
       <c r="D279" s="34"/>
       <c r="E279" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F279" s="5"/>
     </row>
@@ -5993,15 +6029,171 @@
       <c r="C280" s="38"/>
       <c r="D280" s="35"/>
       <c r="E280" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F280" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="B281" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="F280" s="11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="C281" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="D281" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E281" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" s="5"/>
+    </row>
+    <row r="282" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="49"/>
+      <c r="B282" s="40"/>
+      <c r="C282" s="37"/>
+      <c r="D282" s="46"/>
+      <c r="E282" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="49"/>
+      <c r="B283" s="40"/>
+      <c r="C283" s="37"/>
+      <c r="D283" s="46"/>
+      <c r="E283" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="F283" s="5"/>
+    </row>
+    <row r="284" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="49"/>
+      <c r="B284" s="40"/>
+      <c r="C284" s="37"/>
+      <c r="D284" s="46"/>
+      <c r="E284" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="49"/>
+      <c r="B285" s="40"/>
+      <c r="C285" s="37"/>
+      <c r="D285" s="46"/>
+      <c r="E285" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="F285" s="5"/>
+    </row>
+    <row r="286" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="49"/>
+      <c r="B286" s="40"/>
+      <c r="C286" s="37"/>
+      <c r="D286" s="46"/>
+      <c r="E286" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="49"/>
+      <c r="B287" s="40"/>
+      <c r="C287" s="37"/>
+      <c r="D287" s="46"/>
+      <c r="E287" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="50"/>
+      <c r="B288" s="41"/>
+      <c r="C288" s="38"/>
+      <c r="D288" s="47"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B289" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="C289" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D289" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E289" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289" s="5"/>
+    </row>
+    <row r="290" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="43"/>
+      <c r="B290" s="40"/>
+      <c r="C290" s="37"/>
+      <c r="D290" s="46"/>
+      <c r="E290" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F290" s="5"/>
+    </row>
+    <row r="291" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="43"/>
+      <c r="B291" s="40"/>
+      <c r="C291" s="37"/>
+      <c r="D291" s="46"/>
+      <c r="E291" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="44"/>
+      <c r="B292" s="41"/>
+      <c r="C292" s="38"/>
+      <c r="D292" s="47"/>
+      <c r="E292" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="F292" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="234">
+  <mergeCells count="242">
+    <mergeCell ref="D281:D288"/>
+    <mergeCell ref="C281:C288"/>
+    <mergeCell ref="B281:B288"/>
+    <mergeCell ref="A281:A288"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
     <mergeCell ref="A185:A188"/>
     <mergeCell ref="B185:B188"/>
     <mergeCell ref="C185:C188"/>

--- a/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
+++ b/target/test-classes/test_descriptions/Amazon_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\project\UITest2Code\src\test\resources\test_descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A20D594-401F-4EA5-A859-F255DC73F1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530D4557-6D90-41A5-90DD-B592EA77A785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{69D7677A-DDC2-4B19-9D67-569553D1193C}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -2025,6 +2025,51 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2034,119 +2079,26 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,23 +2110,71 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2492,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4499A6-D6A7-4D16-B2B9-6AFCE0747082}">
   <dimension ref="A1:G293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F299" sqref="F299"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E296" sqref="E296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2527,20 +2527,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="60" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="37" t="s">
@@ -2553,30 +2553,30 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="40"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="40"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="40"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2585,7 +2585,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -2594,7 +2594,7 @@
       <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -2603,10 +2603,10 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="41"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
@@ -2615,16 +2615,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="62" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -2633,20 +2633,20 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="66"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
@@ -2655,26 +2655,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2683,10 +2683,10 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2695,10 +2695,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="47"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
         <v>36</v>
@@ -2706,7 +2706,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -2715,27 +2715,27 @@
       <c r="C16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="40"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="46"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="41"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="46"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="12" t="s">
         <v>24</v>
       </c>
@@ -2744,10 +2744,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="68" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -2762,8 +2762,8 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="37"/>
       <c r="D20" s="28" t="s">
         <v>39</v>
@@ -2774,8 +2774,8 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="37"/>
       <c r="D21" s="28" t="s">
         <v>43</v>
@@ -2786,8 +2786,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="38"/>
       <c r="D22" s="21"/>
       <c r="E22" s="19"/>
@@ -2796,7 +2796,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -2805,7 +2805,7 @@
       <c r="C23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2814,20 +2814,20 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="40"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="41"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="47"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
@@ -2836,16 +2836,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="77" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -2854,30 +2854,30 @@
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="16" t="s">
         <v>57</v>
       </c>
@@ -2886,27 +2886,27 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="37"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="16"/>
       <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="35"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="39" t="s">
@@ -2915,7 +2915,7 @@
       <c r="C32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -2924,10 +2924,10 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="40"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="34"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="16" t="s">
         <v>61</v>
       </c>
@@ -2936,30 +2936,30 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="43"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="40"/>
       <c r="C34" s="37"/>
-      <c r="D34" s="34"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="22" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="40"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="34"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="41"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="35"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="19" t="s">
         <v>65</v>
       </c>
@@ -2968,7 +2968,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="45" t="s">
         <v>69</v>
       </c>
       <c r="B37" s="39" t="s">
@@ -2977,7 +2977,7 @@
       <c r="C37" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -2986,10 +2986,10 @@
       <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="40"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="34"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="16" t="s">
         <v>61</v>
       </c>
@@ -2998,20 +2998,20 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="40"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="34"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="40"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="16" t="s">
         <v>73</v>
       </c>
@@ -3020,10 +3020,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="41"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="35"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="18" t="s">
         <v>74</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="45" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="39" t="s">
@@ -3050,10 +3050,10 @@
       <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="40"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="46"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="24" t="s">
         <v>79</v>
       </c>
@@ -3062,10 +3062,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="40"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="22" t="s">
         <v>80</v>
       </c>
@@ -3074,10 +3074,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="41"/>
       <c r="C45" s="38"/>
-      <c r="D45" s="47"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="18" t="s">
         <v>85</v>
       </c>
@@ -3086,7 +3086,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="42" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="39" t="s">
@@ -3104,7 +3104,7 @@
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="41"/>
       <c r="C47" s="38"/>
       <c r="D47" s="27" t="s">
@@ -3118,7 +3118,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="42" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="39" t="s">
@@ -3136,7 +3136,7 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="40"/>
       <c r="C49" s="37"/>
       <c r="D49" s="28" t="s">
@@ -3150,7 +3150,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="41"/>
       <c r="C50" s="38"/>
       <c r="D50" s="27"/>
@@ -3162,7 +3162,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="45" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="39" t="s">
@@ -3171,7 +3171,7 @@
       <c r="C51" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="79" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -3180,10 +3180,10 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="40"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="56"/>
+      <c r="D52" s="80"/>
       <c r="E52" s="16" t="s">
         <v>95</v>
       </c>
@@ -3192,10 +3192,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="40"/>
       <c r="C53" s="37"/>
-      <c r="D53" s="56"/>
+      <c r="D53" s="80"/>
       <c r="E53" s="22" t="s">
         <v>100</v>
       </c>
@@ -3204,10 +3204,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="40"/>
       <c r="C54" s="37"/>
-      <c r="D54" s="80" t="s">
+      <c r="D54" s="56" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="16"/>
@@ -3216,10 +3216,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="41"/>
       <c r="C55" s="38"/>
-      <c r="D55" s="81"/>
+      <c r="D55" s="57"/>
       <c r="E55" s="18" t="s">
         <v>101</v>
       </c>
@@ -3228,7 +3228,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="45" t="s">
         <v>102</v>
       </c>
       <c r="B56" s="39" t="s">
@@ -3237,7 +3237,7 @@
       <c r="C56" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -3246,20 +3246,20 @@
       <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="43"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="40"/>
       <c r="C57" s="37"/>
-      <c r="D57" s="79"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="43"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="40"/>
       <c r="C58" s="37"/>
-      <c r="D58" s="80" t="s">
+      <c r="D58" s="56" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="22" t="s">
@@ -3270,10 +3270,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="41"/>
       <c r="C59" s="38"/>
-      <c r="D59" s="81"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="18" t="s">
         <v>110</v>
       </c>
@@ -3282,7 +3282,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="45" t="s">
         <v>107</v>
       </c>
       <c r="B60" s="39" t="s">
@@ -3291,7 +3291,7 @@
       <c r="C60" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -3300,20 +3300,20 @@
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="43"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="40"/>
       <c r="C61" s="37"/>
-      <c r="D61" s="34"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="43"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="40"/>
       <c r="C62" s="37"/>
-      <c r="D62" s="34"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="22" t="s">
         <v>105</v>
       </c>
@@ -3322,20 +3322,20 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="43"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="40"/>
       <c r="C63" s="37"/>
-      <c r="D63" s="34"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="41"/>
       <c r="C64" s="38"/>
-      <c r="D64" s="35"/>
+      <c r="D64" s="50"/>
       <c r="E64" s="18" t="s">
         <v>111</v>
       </c>
@@ -3344,7 +3344,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="45" t="s">
         <v>114</v>
       </c>
       <c r="B65" s="39" t="s">
@@ -3353,7 +3353,7 @@
       <c r="C65" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="78" t="s">
+      <c r="D65" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -3362,20 +3362,20 @@
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="43"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="40"/>
       <c r="C66" s="37"/>
-      <c r="D66" s="79"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="43"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="40"/>
       <c r="C67" s="37"/>
-      <c r="D67" s="80" t="s">
+      <c r="D67" s="56" t="s">
         <v>39</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -3386,10 +3386,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="41"/>
       <c r="C68" s="38"/>
-      <c r="D68" s="81"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="18" t="s">
         <v>117</v>
       </c>
@@ -3398,16 +3398,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="45" t="s">
         <v>123</v>
       </c>
       <c r="B69" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="15" t="s">
@@ -3416,20 +3416,20 @@
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="43"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="40"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="46"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="43"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="40"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="46"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="30" t="s">
         <v>126</v>
       </c>
@@ -3438,10 +3438,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="43"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="40"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="46"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="22" t="s">
         <v>128</v>
       </c>
@@ -3450,30 +3450,30 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="43"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="40"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="46"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="24" t="s">
         <v>130</v>
       </c>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="43"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="40"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="46"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="22" t="s">
         <v>131</v>
       </c>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="41"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="47"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="18" t="s">
         <v>132</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="42" t="s">
         <v>134</v>
       </c>
       <c r="B76" s="39" t="s">
@@ -3491,7 +3491,7 @@
       <c r="C76" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="78" t="s">
+      <c r="D76" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="15" t="s">
@@ -3500,17 +3500,17 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="49"/>
+      <c r="A77" s="43"/>
       <c r="B77" s="40"/>
       <c r="C77" s="37"/>
-      <c r="D77" s="79"/>
+      <c r="D77" s="53"/>
       <c r="E77" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="41"/>
       <c r="C78" s="38"/>
       <c r="D78" s="31" t="s">
@@ -3524,7 +3524,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="45" t="s">
         <v>145</v>
       </c>
       <c r="B79" s="39" t="s">
@@ -3533,7 +3533,7 @@
       <c r="C79" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="78" t="s">
+      <c r="D79" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="15" t="s">
@@ -3542,20 +3542,20 @@
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="43"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="40"/>
       <c r="C80" s="37"/>
-      <c r="D80" s="79"/>
+      <c r="D80" s="53"/>
       <c r="E80" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="43"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="40"/>
       <c r="C81" s="37"/>
-      <c r="D81" s="79"/>
+      <c r="D81" s="53"/>
       <c r="E81" s="22" t="s">
         <v>150</v>
       </c>
@@ -3564,10 +3564,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="43"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="40"/>
       <c r="C82" s="37"/>
-      <c r="D82" s="82" t="s">
+      <c r="D82" s="54" t="s">
         <v>141</v>
       </c>
       <c r="E82" s="16"/>
@@ -3576,17 +3576,17 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="41"/>
       <c r="C83" s="38"/>
-      <c r="D83" s="83"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="18"/>
       <c r="F83" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="45" t="s">
         <v>149</v>
       </c>
       <c r="B84" s="39" t="s">
@@ -3595,7 +3595,7 @@
       <c r="C84" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="78" t="s">
+      <c r="D84" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="16" t="s">
@@ -3604,17 +3604,17 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="43"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="40"/>
       <c r="C85" s="37"/>
-      <c r="D85" s="79"/>
+      <c r="D85" s="53"/>
       <c r="E85" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="43"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="40"/>
       <c r="C86" s="37"/>
       <c r="D86" s="32" t="s">
@@ -3628,7 +3628,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="41"/>
       <c r="C87" s="38"/>
       <c r="D87" s="31"/>
@@ -3638,7 +3638,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="45" t="s">
         <v>154</v>
       </c>
       <c r="B88" s="39" t="s">
@@ -3647,7 +3647,7 @@
       <c r="C88" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E88" s="15" t="s">
@@ -3656,10 +3656,10 @@
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="43"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="40"/>
       <c r="C89" s="37"/>
-      <c r="D89" s="34"/>
+      <c r="D89" s="49"/>
       <c r="E89" s="16" t="s">
         <v>155</v>
       </c>
@@ -3668,10 +3668,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="43"/>
+      <c r="A90" s="46"/>
       <c r="B90" s="40"/>
       <c r="C90" s="37"/>
-      <c r="D90" s="34"/>
+      <c r="D90" s="49"/>
       <c r="E90" s="22" t="s">
         <v>156</v>
       </c>
@@ -3680,10 +3680,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="43"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="40"/>
       <c r="C91" s="37"/>
-      <c r="D91" s="34"/>
+      <c r="D91" s="49"/>
       <c r="E91" s="16" t="s">
         <v>157</v>
       </c>
@@ -3692,17 +3692,17 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="41"/>
       <c r="C92" s="38"/>
-      <c r="D92" s="35"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="18"/>
       <c r="F92" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="42" t="s">
+      <c r="A93" s="45" t="s">
         <v>162</v>
       </c>
       <c r="B93" s="39" t="s">
@@ -3711,7 +3711,7 @@
       <c r="C93" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="33" t="s">
+      <c r="D93" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="15" t="s">
@@ -3720,10 +3720,10 @@
       <c r="F93" s="25"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="43"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="40"/>
       <c r="C94" s="37"/>
-      <c r="D94" s="34"/>
+      <c r="D94" s="49"/>
       <c r="E94" s="16" t="s">
         <v>155</v>
       </c>
@@ -3732,10 +3732,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A95" s="43"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="40"/>
       <c r="C95" s="37"/>
-      <c r="D95" s="34"/>
+      <c r="D95" s="49"/>
       <c r="E95" s="22" t="s">
         <v>164</v>
       </c>
@@ -3744,10 +3744,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="43"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="40"/>
       <c r="C96" s="37"/>
-      <c r="D96" s="34"/>
+      <c r="D96" s="49"/>
       <c r="E96" s="16" t="s">
         <v>163</v>
       </c>
@@ -3756,10 +3756,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="41"/>
       <c r="C97" s="38"/>
-      <c r="D97" s="35"/>
+      <c r="D97" s="50"/>
       <c r="E97" s="18" t="s">
         <v>167</v>
       </c>
@@ -3768,7 +3768,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="42" t="s">
+      <c r="A98" s="45" t="s">
         <v>171</v>
       </c>
       <c r="B98" s="39" t="s">
@@ -3777,7 +3777,7 @@
       <c r="C98" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="15" t="s">
@@ -3786,10 +3786,10 @@
       <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="43"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="40"/>
       <c r="C99" s="37"/>
-      <c r="D99" s="34"/>
+      <c r="D99" s="49"/>
       <c r="E99" s="16" t="s">
         <v>155</v>
       </c>
@@ -3798,10 +3798,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="43"/>
+      <c r="A100" s="46"/>
       <c r="B100" s="40"/>
       <c r="C100" s="37"/>
-      <c r="D100" s="34"/>
+      <c r="D100" s="49"/>
       <c r="E100" s="22" t="s">
         <v>172</v>
       </c>
@@ -3810,10 +3810,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="43"/>
+      <c r="A101" s="46"/>
       <c r="B101" s="40"/>
       <c r="C101" s="37"/>
-      <c r="D101" s="34"/>
+      <c r="D101" s="49"/>
       <c r="E101" s="16" t="s">
         <v>174</v>
       </c>
@@ -3822,17 +3822,17 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
+      <c r="A102" s="47"/>
       <c r="B102" s="41"/>
       <c r="C102" s="38"/>
-      <c r="D102" s="35"/>
+      <c r="D102" s="50"/>
       <c r="E102" s="18"/>
       <c r="F102" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="42" t="s">
+      <c r="A103" s="45" t="s">
         <v>177</v>
       </c>
       <c r="B103" s="39" t="s">
@@ -3841,7 +3841,7 @@
       <c r="C103" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="15" t="s">
@@ -3850,10 +3850,10 @@
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="43"/>
+      <c r="A104" s="46"/>
       <c r="B104" s="40"/>
       <c r="C104" s="37"/>
-      <c r="D104" s="34"/>
+      <c r="D104" s="49"/>
       <c r="E104" s="16" t="s">
         <v>155</v>
       </c>
@@ -3862,10 +3862,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="43"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="40"/>
       <c r="C105" s="37"/>
-      <c r="D105" s="34"/>
+      <c r="D105" s="49"/>
       <c r="E105" s="22" t="s">
         <v>179</v>
       </c>
@@ -3874,27 +3874,27 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="43"/>
+      <c r="A106" s="46"/>
       <c r="B106" s="40"/>
       <c r="C106" s="37"/>
-      <c r="D106" s="34"/>
+      <c r="D106" s="49"/>
       <c r="E106" s="16"/>
       <c r="F106" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="41"/>
       <c r="C107" s="38"/>
-      <c r="D107" s="35"/>
+      <c r="D107" s="50"/>
       <c r="E107" s="18"/>
       <c r="F107" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="45" t="s">
         <v>186</v>
       </c>
       <c r="B108" s="39" t="s">
@@ -3912,20 +3912,20 @@
       <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="43"/>
+      <c r="A109" s="46"/>
       <c r="B109" s="40"/>
       <c r="C109" s="37"/>
-      <c r="D109" s="46"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="22" t="s">
         <v>188</v>
       </c>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A110" s="43"/>
+      <c r="A110" s="46"/>
       <c r="B110" s="40"/>
       <c r="C110" s="37"/>
-      <c r="D110" s="46"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="16" t="s">
         <v>189</v>
       </c>
@@ -3934,10 +3934,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
+      <c r="A111" s="47"/>
       <c r="B111" s="41"/>
       <c r="C111" s="38"/>
-      <c r="D111" s="47"/>
+      <c r="D111" s="35"/>
       <c r="E111" s="18" t="s">
         <v>191</v>
       </c>
@@ -3946,7 +3946,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="42" t="s">
         <v>193</v>
       </c>
       <c r="B112" s="39" t="s">
@@ -3955,7 +3955,7 @@
       <c r="C112" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D112" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="15" t="s">
@@ -3964,20 +3964,20 @@
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="49"/>
+      <c r="A113" s="43"/>
       <c r="B113" s="40"/>
       <c r="C113" s="37"/>
-      <c r="D113" s="34"/>
+      <c r="D113" s="49"/>
       <c r="E113" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="49"/>
+      <c r="A114" s="43"/>
       <c r="B114" s="40"/>
       <c r="C114" s="37"/>
-      <c r="D114" s="34"/>
+      <c r="D114" s="49"/>
       <c r="E114" s="16" t="s">
         <v>122</v>
       </c>
@@ -3986,10 +3986,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="49"/>
+      <c r="A115" s="43"/>
       <c r="B115" s="40"/>
       <c r="C115" s="37"/>
-      <c r="D115" s="34"/>
+      <c r="D115" s="49"/>
       <c r="E115" s="22" t="s">
         <v>202</v>
       </c>
@@ -3998,27 +3998,27 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A116" s="49"/>
+      <c r="A116" s="43"/>
       <c r="B116" s="40"/>
       <c r="C116" s="37"/>
-      <c r="D116" s="34"/>
+      <c r="D116" s="49"/>
       <c r="E116" s="16"/>
       <c r="F116" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="50"/>
+      <c r="A117" s="44"/>
       <c r="B117" s="41"/>
       <c r="C117" s="38"/>
-      <c r="D117" s="35"/>
+      <c r="D117" s="50"/>
       <c r="E117" s="18"/>
       <c r="F117" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="48" t="s">
+      <c r="A118" s="42" t="s">
         <v>207</v>
       </c>
       <c r="B118" s="39" t="s">
@@ -4027,7 +4027,7 @@
       <c r="C118" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E118" s="15" t="s">
@@ -4036,20 +4036,20 @@
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="49"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="40"/>
       <c r="C119" s="37"/>
-      <c r="D119" s="34"/>
+      <c r="D119" s="49"/>
       <c r="E119" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="49"/>
+      <c r="A120" s="43"/>
       <c r="B120" s="40"/>
       <c r="C120" s="37"/>
-      <c r="D120" s="34"/>
+      <c r="D120" s="49"/>
       <c r="E120" s="16" t="s">
         <v>122</v>
       </c>
@@ -4058,10 +4058,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="49"/>
+      <c r="A121" s="43"/>
       <c r="B121" s="40"/>
       <c r="C121" s="37"/>
-      <c r="D121" s="34"/>
+      <c r="D121" s="49"/>
       <c r="E121" s="22" t="s">
         <v>208</v>
       </c>
@@ -4070,29 +4070,29 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A122" s="49"/>
+      <c r="A122" s="43"/>
       <c r="B122" s="40"/>
       <c r="C122" s="37"/>
-      <c r="D122" s="34"/>
+      <c r="D122" s="49"/>
       <c r="E122" s="16"/>
       <c r="F122" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="50"/>
+      <c r="A123" s="44"/>
       <c r="B123" s="41" t="s">
         <v>195</v>
       </c>
       <c r="C123" s="38"/>
-      <c r="D123" s="35"/>
+      <c r="D123" s="50"/>
       <c r="E123" s="18"/>
       <c r="F123" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="45" t="s">
         <v>212</v>
       </c>
       <c r="B124" s="39" t="s">
@@ -4110,20 +4110,20 @@
       <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="43"/>
+      <c r="A125" s="46"/>
       <c r="B125" s="40"/>
       <c r="C125" s="37"/>
-      <c r="D125" s="46"/>
+      <c r="D125" s="34"/>
       <c r="E125" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="43"/>
+      <c r="A126" s="46"/>
       <c r="B126" s="40"/>
       <c r="C126" s="37"/>
-      <c r="D126" s="46"/>
+      <c r="D126" s="34"/>
       <c r="E126" s="16" t="s">
         <v>105</v>
       </c>
@@ -4132,10 +4132,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
+      <c r="A127" s="47"/>
       <c r="B127" s="41"/>
       <c r="C127" s="38"/>
-      <c r="D127" s="47"/>
+      <c r="D127" s="35"/>
       <c r="E127" s="18" t="s">
         <v>213</v>
       </c>
@@ -4144,7 +4144,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="42" t="s">
+      <c r="A128" s="45" t="s">
         <v>216</v>
       </c>
       <c r="B128" s="39" t="s">
@@ -4153,7 +4153,7 @@
       <c r="C128" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D128" s="33" t="s">
+      <c r="D128" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E128" s="24" t="s">
@@ -4162,20 +4162,20 @@
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="43"/>
+      <c r="A129" s="46"/>
       <c r="B129" s="40"/>
       <c r="C129" s="37"/>
-      <c r="D129" s="34"/>
+      <c r="D129" s="49"/>
       <c r="E129" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="43"/>
+      <c r="A130" s="46"/>
       <c r="B130" s="40"/>
       <c r="C130" s="37"/>
-      <c r="D130" s="34"/>
+      <c r="D130" s="49"/>
       <c r="E130" s="22" t="s">
         <v>122</v>
       </c>
@@ -4184,10 +4184,10 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="43"/>
+      <c r="A131" s="46"/>
       <c r="B131" s="40"/>
       <c r="C131" s="37"/>
-      <c r="D131" s="34"/>
+      <c r="D131" s="49"/>
       <c r="E131" s="16" t="s">
         <v>217</v>
       </c>
@@ -4196,10 +4196,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
+      <c r="A132" s="47"/>
       <c r="B132" s="41"/>
       <c r="C132" s="38"/>
-      <c r="D132" s="35"/>
+      <c r="D132" s="50"/>
       <c r="E132" s="18" t="s">
         <v>219</v>
       </c>
@@ -4208,7 +4208,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="42" t="s">
+      <c r="A133" s="45" t="s">
         <v>222</v>
       </c>
       <c r="B133" s="39" t="s">
@@ -4217,7 +4217,7 @@
       <c r="C133" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D133" s="33" t="s">
+      <c r="D133" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E133" s="15" t="s">
@@ -4226,20 +4226,20 @@
       <c r="F133" s="25"/>
     </row>
     <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="43"/>
+      <c r="A134" s="46"/>
       <c r="B134" s="40"/>
       <c r="C134" s="37"/>
-      <c r="D134" s="34"/>
+      <c r="D134" s="49"/>
       <c r="E134" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F134" s="5"/>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="43"/>
+      <c r="A135" s="46"/>
       <c r="B135" s="40"/>
       <c r="C135" s="37"/>
-      <c r="D135" s="34"/>
+      <c r="D135" s="49"/>
       <c r="E135" s="16" t="s">
         <v>122</v>
       </c>
@@ -4248,10 +4248,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="43"/>
+      <c r="A136" s="46"/>
       <c r="B136" s="40"/>
       <c r="C136" s="37"/>
-      <c r="D136" s="34"/>
+      <c r="D136" s="49"/>
       <c r="E136" s="22" t="s">
         <v>224</v>
       </c>
@@ -4260,10 +4260,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="43"/>
+      <c r="A137" s="46"/>
       <c r="B137" s="40"/>
       <c r="C137" s="37"/>
-      <c r="D137" s="34"/>
+      <c r="D137" s="49"/>
       <c r="E137" s="16" t="s">
         <v>225</v>
       </c>
@@ -4272,20 +4272,20 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="43"/>
+      <c r="A138" s="46"/>
       <c r="B138" s="40"/>
       <c r="C138" s="37"/>
-      <c r="D138" s="34"/>
+      <c r="D138" s="49"/>
       <c r="E138" s="16" t="s">
         <v>227</v>
       </c>
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="41"/>
       <c r="C139" s="38"/>
-      <c r="D139" s="35"/>
+      <c r="D139" s="50"/>
       <c r="E139" s="18" t="s">
         <v>228</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="42" t="s">
+      <c r="A140" s="45" t="s">
         <v>230</v>
       </c>
       <c r="B140" s="39" t="s">
@@ -4303,7 +4303,7 @@
       <c r="C140" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="D140" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E140" s="15" t="s">
@@ -4312,20 +4312,20 @@
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="43"/>
+      <c r="A141" s="46"/>
       <c r="B141" s="40"/>
       <c r="C141" s="37"/>
-      <c r="D141" s="34"/>
+      <c r="D141" s="49"/>
       <c r="E141" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="43"/>
+      <c r="A142" s="46"/>
       <c r="B142" s="40"/>
       <c r="C142" s="37"/>
-      <c r="D142" s="34"/>
+      <c r="D142" s="49"/>
       <c r="E142" s="16" t="s">
         <v>122</v>
       </c>
@@ -4334,10 +4334,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="43"/>
+      <c r="A143" s="46"/>
       <c r="B143" s="40"/>
       <c r="C143" s="37"/>
-      <c r="D143" s="34"/>
+      <c r="D143" s="49"/>
       <c r="E143" s="16" t="s">
         <v>232</v>
       </c>
@@ -4346,30 +4346,30 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="43"/>
+      <c r="A144" s="46"/>
       <c r="B144" s="40"/>
       <c r="C144" s="37"/>
-      <c r="D144" s="34"/>
+      <c r="D144" s="49"/>
       <c r="E144" s="22" t="s">
         <v>233</v>
       </c>
       <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="43"/>
+      <c r="A145" s="46"/>
       <c r="B145" s="40"/>
       <c r="C145" s="37"/>
-      <c r="D145" s="34"/>
+      <c r="D145" s="49"/>
       <c r="E145" s="16" t="s">
         <v>234</v>
       </c>
       <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
+      <c r="A146" s="47"/>
       <c r="B146" s="41"/>
       <c r="C146" s="38"/>
-      <c r="D146" s="35"/>
+      <c r="D146" s="50"/>
       <c r="E146" s="18" t="s">
         <v>235</v>
       </c>
@@ -4378,7 +4378,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="42" t="s">
+      <c r="A147" s="45" t="s">
         <v>236</v>
       </c>
       <c r="B147" s="39" t="s">
@@ -4387,7 +4387,7 @@
       <c r="C147" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D147" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E147" s="24" t="s">
@@ -4396,20 +4396,20 @@
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="43"/>
+      <c r="A148" s="46"/>
       <c r="B148" s="40"/>
       <c r="C148" s="37"/>
-      <c r="D148" s="34"/>
+      <c r="D148" s="49"/>
       <c r="E148" s="16" t="s">
         <v>237</v>
       </c>
       <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="43"/>
+      <c r="A149" s="46"/>
       <c r="B149" s="40"/>
       <c r="C149" s="37"/>
-      <c r="D149" s="34"/>
+      <c r="D149" s="49"/>
       <c r="E149" s="22" t="s">
         <v>238</v>
       </c>
@@ -4418,27 +4418,27 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="43"/>
+      <c r="A150" s="46"/>
       <c r="B150" s="40"/>
       <c r="C150" s="37"/>
-      <c r="D150" s="34"/>
+      <c r="D150" s="49"/>
       <c r="E150" s="16"/>
       <c r="F150" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
+      <c r="A151" s="47"/>
       <c r="B151" s="41"/>
       <c r="C151" s="38"/>
-      <c r="D151" s="35"/>
+      <c r="D151" s="50"/>
       <c r="E151" s="18"/>
       <c r="F151" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="42" t="s">
+      <c r="A152" s="45" t="s">
         <v>241</v>
       </c>
       <c r="B152" s="39" t="s">
@@ -4456,10 +4456,10 @@
       <c r="F152" s="5"/>
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="43"/>
+      <c r="A153" s="46"/>
       <c r="B153" s="40"/>
       <c r="C153" s="37"/>
-      <c r="D153" s="46"/>
+      <c r="D153" s="34"/>
       <c r="E153" s="22" t="s">
         <v>243</v>
       </c>
@@ -4468,27 +4468,27 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="43"/>
+      <c r="A154" s="46"/>
       <c r="B154" s="40"/>
       <c r="C154" s="37"/>
-      <c r="D154" s="46"/>
+      <c r="D154" s="34"/>
       <c r="E154" s="16"/>
       <c r="F154" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="44"/>
+      <c r="A155" s="47"/>
       <c r="B155" s="41"/>
       <c r="C155" s="38"/>
-      <c r="D155" s="47"/>
+      <c r="D155" s="35"/>
       <c r="E155" s="18"/>
       <c r="F155" s="11" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="42" t="s">
+      <c r="A156" s="45" t="s">
         <v>248</v>
       </c>
       <c r="B156" s="39" t="s">
@@ -4506,10 +4506,10 @@
       <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="43"/>
+      <c r="A157" s="46"/>
       <c r="B157" s="40"/>
       <c r="C157" s="37"/>
-      <c r="D157" s="46"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="22" t="s">
         <v>249</v>
       </c>
@@ -4518,27 +4518,27 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="43"/>
+      <c r="A158" s="46"/>
       <c r="B158" s="40"/>
       <c r="C158" s="37"/>
-      <c r="D158" s="46"/>
+      <c r="D158" s="34"/>
       <c r="E158" s="16"/>
       <c r="F158" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="41"/>
       <c r="C159" s="38"/>
-      <c r="D159" s="47"/>
+      <c r="D159" s="35"/>
       <c r="E159" s="18"/>
       <c r="F159" s="11" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="42" t="s">
+      <c r="A160" s="45" t="s">
         <v>258</v>
       </c>
       <c r="B160" s="39" t="s">
@@ -4547,7 +4547,7 @@
       <c r="C160" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="D160" s="33" t="s">
+      <c r="D160" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E160" s="16" t="s">
@@ -4556,30 +4556,30 @@
       <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="43"/>
+      <c r="A161" s="46"/>
       <c r="B161" s="40"/>
       <c r="C161" s="37"/>
-      <c r="D161" s="34"/>
+      <c r="D161" s="49"/>
       <c r="E161" s="22" t="s">
         <v>188</v>
       </c>
       <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="43"/>
+      <c r="A162" s="46"/>
       <c r="B162" s="40"/>
       <c r="C162" s="37"/>
-      <c r="D162" s="34"/>
+      <c r="D162" s="49"/>
       <c r="E162" s="16" t="s">
         <v>260</v>
       </c>
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="43"/>
+      <c r="A163" s="46"/>
       <c r="B163" s="40"/>
       <c r="C163" s="37"/>
-      <c r="D163" s="34"/>
+      <c r="D163" s="49"/>
       <c r="E163" s="22" t="s">
         <v>261</v>
       </c>
@@ -4588,10 +4588,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
+      <c r="A164" s="47"/>
       <c r="B164" s="41"/>
       <c r="C164" s="38"/>
-      <c r="D164" s="35"/>
+      <c r="D164" s="50"/>
       <c r="E164" s="18" t="s">
         <v>263</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="42" t="s">
+      <c r="A165" s="45" t="s">
         <v>266</v>
       </c>
       <c r="B165" s="39" t="s">
@@ -4618,30 +4618,30 @@
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="43"/>
+      <c r="A166" s="46"/>
       <c r="B166" s="40"/>
       <c r="C166" s="37"/>
-      <c r="D166" s="46"/>
+      <c r="D166" s="34"/>
       <c r="E166" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="43"/>
+      <c r="A167" s="46"/>
       <c r="B167" s="40"/>
       <c r="C167" s="37"/>
-      <c r="D167" s="46"/>
+      <c r="D167" s="34"/>
       <c r="E167" s="16" t="s">
         <v>267</v>
       </c>
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
+      <c r="A168" s="47"/>
       <c r="B168" s="41"/>
       <c r="C168" s="38"/>
-      <c r="D168" s="47"/>
+      <c r="D168" s="35"/>
       <c r="E168" s="18" t="s">
         <v>268</v>
       </c>
@@ -4650,7 +4650,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="42" t="s">
+      <c r="A169" s="45" t="s">
         <v>271</v>
       </c>
       <c r="B169" s="39" t="s">
@@ -4668,30 +4668,30 @@
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="43"/>
+      <c r="A170" s="46"/>
       <c r="B170" s="40"/>
       <c r="C170" s="37"/>
-      <c r="D170" s="46"/>
+      <c r="D170" s="34"/>
       <c r="E170" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="43"/>
+      <c r="A171" s="46"/>
       <c r="B171" s="40"/>
       <c r="C171" s="37"/>
-      <c r="D171" s="46"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="16" t="s">
         <v>267</v>
       </c>
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
+      <c r="A172" s="47"/>
       <c r="B172" s="41"/>
       <c r="C172" s="38"/>
-      <c r="D172" s="47"/>
+      <c r="D172" s="35"/>
       <c r="E172" s="18" t="s">
         <v>274</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="42" t="s">
+      <c r="A173" s="45" t="s">
         <v>272</v>
       </c>
       <c r="B173" s="39" t="s">
@@ -4718,20 +4718,20 @@
       <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="43"/>
+      <c r="A174" s="46"/>
       <c r="B174" s="40"/>
       <c r="C174" s="37"/>
-      <c r="D174" s="46"/>
+      <c r="D174" s="34"/>
       <c r="E174" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="43"/>
+      <c r="A175" s="46"/>
       <c r="B175" s="40"/>
       <c r="C175" s="37"/>
-      <c r="D175" s="46"/>
+      <c r="D175" s="34"/>
       <c r="E175" s="16" t="s">
         <v>275</v>
       </c>
@@ -4740,10 +4740,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
+      <c r="A176" s="47"/>
       <c r="B176" s="41"/>
       <c r="C176" s="38"/>
-      <c r="D176" s="47"/>
+      <c r="D176" s="35"/>
       <c r="E176" s="18" t="s">
         <v>276</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="42" t="s">
+      <c r="A177" s="45" t="s">
         <v>279</v>
       </c>
       <c r="B177" s="39" t="s">
@@ -4770,20 +4770,20 @@
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="43"/>
+      <c r="A178" s="46"/>
       <c r="B178" s="40"/>
       <c r="C178" s="37"/>
-      <c r="D178" s="46"/>
+      <c r="D178" s="34"/>
       <c r="E178" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="43"/>
+      <c r="A179" s="46"/>
       <c r="B179" s="40"/>
       <c r="C179" s="37"/>
-      <c r="D179" s="46"/>
+      <c r="D179" s="34"/>
       <c r="E179" s="16" t="s">
         <v>285</v>
       </c>
@@ -4792,17 +4792,17 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
+      <c r="A180" s="47"/>
       <c r="B180" s="41"/>
       <c r="C180" s="38"/>
-      <c r="D180" s="47"/>
+      <c r="D180" s="35"/>
       <c r="E180" s="18"/>
       <c r="F180" s="11" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="42" t="s">
+      <c r="A181" s="45" t="s">
         <v>289</v>
       </c>
       <c r="B181" s="39" t="s">
@@ -4811,7 +4811,7 @@
       <c r="C181" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="D181" s="45" t="s">
+      <c r="D181" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E181" s="16" t="s">
@@ -4820,20 +4820,20 @@
       <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="43"/>
+      <c r="A182" s="46"/>
       <c r="B182" s="40"/>
       <c r="C182" s="37"/>
-      <c r="D182" s="46"/>
+      <c r="D182" s="34"/>
       <c r="E182" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="43"/>
+      <c r="A183" s="46"/>
       <c r="B183" s="40"/>
       <c r="C183" s="37"/>
-      <c r="D183" s="46"/>
+      <c r="D183" s="34"/>
       <c r="E183" s="16" t="s">
         <v>291</v>
       </c>
@@ -4842,17 +4842,17 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
+      <c r="A184" s="47"/>
       <c r="B184" s="41"/>
       <c r="C184" s="38"/>
-      <c r="D184" s="47"/>
+      <c r="D184" s="35"/>
       <c r="E184" s="18"/>
       <c r="F184" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="42" t="s">
+      <c r="A185" s="45" t="s">
         <v>293</v>
       </c>
       <c r="B185" s="39" t="s">
@@ -4861,7 +4861,7 @@
       <c r="C185" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="D185" s="45" t="s">
+      <c r="D185" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E185" s="16" t="s">
@@ -4870,20 +4870,20 @@
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="43"/>
+      <c r="A186" s="46"/>
       <c r="B186" s="40"/>
       <c r="C186" s="37"/>
-      <c r="D186" s="46"/>
+      <c r="D186" s="34"/>
       <c r="E186" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="43"/>
+      <c r="A187" s="46"/>
       <c r="B187" s="40"/>
       <c r="C187" s="37"/>
-      <c r="D187" s="46"/>
+      <c r="D187" s="34"/>
       <c r="E187" s="16" t="s">
         <v>303</v>
       </c>
@@ -4892,17 +4892,17 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="44"/>
+      <c r="A188" s="47"/>
       <c r="B188" s="41"/>
       <c r="C188" s="38"/>
-      <c r="D188" s="47"/>
+      <c r="D188" s="35"/>
       <c r="E188" s="18"/>
       <c r="F188" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="42" t="s">
+      <c r="A189" s="45" t="s">
         <v>296</v>
       </c>
       <c r="B189" s="39" t="s">
@@ -4911,7 +4911,7 @@
       <c r="C189" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="D189" s="45" t="s">
+      <c r="D189" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E189" s="16" t="s">
@@ -4920,40 +4920,40 @@
       <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="43"/>
+      <c r="A190" s="46"/>
       <c r="B190" s="40"/>
       <c r="C190" s="37"/>
-      <c r="D190" s="46"/>
+      <c r="D190" s="34"/>
       <c r="E190" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="43"/>
+      <c r="A191" s="46"/>
       <c r="B191" s="40"/>
       <c r="C191" s="37"/>
-      <c r="D191" s="46"/>
+      <c r="D191" s="34"/>
       <c r="E191" s="16" t="s">
         <v>299</v>
       </c>
       <c r="F191" s="5"/>
     </row>
     <row r="192" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="43"/>
+      <c r="A192" s="46"/>
       <c r="B192" s="40"/>
       <c r="C192" s="37"/>
-      <c r="D192" s="46"/>
+      <c r="D192" s="34"/>
       <c r="E192" s="19" t="s">
         <v>300</v>
       </c>
       <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="43"/>
+      <c r="A193" s="46"/>
       <c r="B193" s="40"/>
       <c r="C193" s="37"/>
-      <c r="D193" s="46"/>
+      <c r="D193" s="34"/>
       <c r="E193" s="19" t="s">
         <v>301</v>
       </c>
@@ -4962,7 +4962,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="42" t="s">
+      <c r="A194" s="45" t="s">
         <v>302</v>
       </c>
       <c r="B194" s="39" t="s">
@@ -4971,7 +4971,7 @@
       <c r="C194" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="D194" s="33" t="s">
+      <c r="D194" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E194" s="15" t="s">
@@ -4980,20 +4980,20 @@
       <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="43"/>
+      <c r="A195" s="46"/>
       <c r="B195" s="40"/>
       <c r="C195" s="37"/>
-      <c r="D195" s="34"/>
+      <c r="D195" s="49"/>
       <c r="E195" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="43"/>
+      <c r="A196" s="46"/>
       <c r="B196" s="40"/>
       <c r="C196" s="37"/>
-      <c r="D196" s="34"/>
+      <c r="D196" s="49"/>
       <c r="E196" s="19" t="s">
         <v>291</v>
       </c>
@@ -5002,10 +5002,10 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="43"/>
+      <c r="A197" s="46"/>
       <c r="B197" s="40"/>
       <c r="C197" s="37"/>
-      <c r="D197" s="34"/>
+      <c r="D197" s="49"/>
       <c r="E197" s="19" t="s">
         <v>304</v>
       </c>
@@ -5014,17 +5014,17 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="44"/>
+      <c r="A198" s="47"/>
       <c r="B198" s="41"/>
       <c r="C198" s="38"/>
-      <c r="D198" s="35"/>
+      <c r="D198" s="50"/>
       <c r="E198" s="18"/>
       <c r="F198" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="48" t="s">
+      <c r="A199" s="42" t="s">
         <v>309</v>
       </c>
       <c r="B199" s="39" t="s">
@@ -5033,7 +5033,7 @@
       <c r="C199" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="D199" s="45" t="s">
+      <c r="D199" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E199" s="19" t="s">
@@ -5042,10 +5042,10 @@
       <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A200" s="49"/>
+      <c r="A200" s="43"/>
       <c r="B200" s="40"/>
       <c r="C200" s="37"/>
-      <c r="D200" s="46"/>
+      <c r="D200" s="34"/>
       <c r="E200" s="19" t="s">
         <v>313</v>
       </c>
@@ -5054,10 +5054,10 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="50"/>
+      <c r="A201" s="44"/>
       <c r="B201" s="41"/>
       <c r="C201" s="38"/>
-      <c r="D201" s="47"/>
+      <c r="D201" s="35"/>
       <c r="E201" s="18" t="s">
         <v>315</v>
       </c>
@@ -5066,7 +5066,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="42" t="s">
+      <c r="A202" s="45" t="s">
         <v>318</v>
       </c>
       <c r="B202" s="39" t="s">
@@ -5075,7 +5075,7 @@
       <c r="C202" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="D202" s="45" t="s">
+      <c r="D202" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="16" t="s">
@@ -5084,10 +5084,10 @@
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="43"/>
+      <c r="A203" s="46"/>
       <c r="B203" s="40"/>
       <c r="C203" s="37"/>
-      <c r="D203" s="46"/>
+      <c r="D203" s="34"/>
       <c r="E203" s="22" t="s">
         <v>313</v>
       </c>
@@ -5096,10 +5096,10 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="43"/>
+      <c r="A204" s="46"/>
       <c r="B204" s="40"/>
       <c r="C204" s="37"/>
-      <c r="D204" s="46"/>
+      <c r="D204" s="34"/>
       <c r="E204" s="16" t="s">
         <v>327</v>
       </c>
@@ -5108,17 +5108,17 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="44"/>
+      <c r="A205" s="47"/>
       <c r="B205" s="41"/>
       <c r="C205" s="38"/>
-      <c r="D205" s="47"/>
+      <c r="D205" s="35"/>
       <c r="E205" s="18"/>
       <c r="F205" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="42" t="s">
+      <c r="A206" s="45" t="s">
         <v>321</v>
       </c>
       <c r="B206" s="39" t="s">
@@ -5127,7 +5127,7 @@
       <c r="C206" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D206" s="45" t="s">
+      <c r="D206" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E206" s="16" t="s">
@@ -5136,20 +5136,20 @@
       <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="43"/>
+      <c r="A207" s="46"/>
       <c r="B207" s="40"/>
       <c r="C207" s="37"/>
-      <c r="D207" s="46"/>
+      <c r="D207" s="34"/>
       <c r="E207" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="43"/>
+      <c r="A208" s="46"/>
       <c r="B208" s="40"/>
       <c r="C208" s="37"/>
-      <c r="D208" s="46"/>
+      <c r="D208" s="34"/>
       <c r="E208" s="16" t="s">
         <v>122</v>
       </c>
@@ -5158,30 +5158,30 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="43"/>
+      <c r="A209" s="46"/>
       <c r="B209" s="40"/>
       <c r="C209" s="37"/>
-      <c r="D209" s="46"/>
+      <c r="D209" s="34"/>
       <c r="E209" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="43"/>
+      <c r="A210" s="46"/>
       <c r="B210" s="40"/>
       <c r="C210" s="37"/>
-      <c r="D210" s="46"/>
+      <c r="D210" s="34"/>
       <c r="E210" s="19" t="s">
         <v>323</v>
       </c>
       <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="43"/>
+      <c r="A211" s="46"/>
       <c r="B211" s="40"/>
       <c r="C211" s="37"/>
-      <c r="D211" s="46"/>
+      <c r="D211" s="34"/>
       <c r="E211" s="19" t="s">
         <v>328</v>
       </c>
@@ -5190,20 +5190,20 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="43"/>
+      <c r="A212" s="46"/>
       <c r="B212" s="40"/>
       <c r="C212" s="37"/>
-      <c r="D212" s="46"/>
+      <c r="D212" s="34"/>
       <c r="E212" s="19" t="s">
         <v>324</v>
       </c>
       <c r="F212" s="5"/>
     </row>
     <row r="213" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="44"/>
+      <c r="A213" s="47"/>
       <c r="B213" s="41"/>
       <c r="C213" s="38"/>
-      <c r="D213" s="47"/>
+      <c r="D213" s="35"/>
       <c r="E213" s="18" t="s">
         <v>325</v>
       </c>
@@ -5212,7 +5212,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="42" t="s">
+      <c r="A214" s="45" t="s">
         <v>333</v>
       </c>
       <c r="B214" s="39" t="s">
@@ -5221,7 +5221,7 @@
       <c r="C214" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="D214" s="33" t="s">
+      <c r="D214" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E214" s="22" t="s">
@@ -5230,10 +5230,10 @@
       <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A215" s="43"/>
+      <c r="A215" s="46"/>
       <c r="B215" s="40"/>
       <c r="C215" s="37"/>
-      <c r="D215" s="34"/>
+      <c r="D215" s="49"/>
       <c r="E215" s="16" t="s">
         <v>95</v>
       </c>
@@ -5242,10 +5242,10 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="43"/>
+      <c r="A216" s="46"/>
       <c r="B216" s="40"/>
       <c r="C216" s="37"/>
-      <c r="D216" s="34"/>
+      <c r="D216" s="49"/>
       <c r="E216" s="16" t="s">
         <v>334</v>
       </c>
@@ -5254,40 +5254,40 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="43"/>
+      <c r="A217" s="46"/>
       <c r="B217" s="40"/>
       <c r="C217" s="37"/>
-      <c r="D217" s="34"/>
+      <c r="D217" s="49"/>
       <c r="E217" s="19"/>
       <c r="F217" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="43"/>
+      <c r="A218" s="46"/>
       <c r="B218" s="40"/>
       <c r="C218" s="37"/>
-      <c r="D218" s="34"/>
+      <c r="D218" s="49"/>
       <c r="E218" s="19"/>
       <c r="F218" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="43"/>
+      <c r="A219" s="46"/>
       <c r="B219" s="40"/>
       <c r="C219" s="37"/>
-      <c r="D219" s="34"/>
+      <c r="D219" s="49"/>
       <c r="E219" s="19"/>
       <c r="F219" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="44"/>
+      <c r="A220" s="47"/>
       <c r="B220" s="41"/>
       <c r="C220" s="38"/>
-      <c r="D220" s="35"/>
+      <c r="D220" s="50"/>
       <c r="E220" s="18" t="s">
         <v>340</v>
       </c>
@@ -5296,7 +5296,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="48" t="s">
+      <c r="A221" s="42" t="s">
         <v>342</v>
       </c>
       <c r="B221" s="39" t="s">
@@ -5305,7 +5305,7 @@
       <c r="C221" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="D221" s="33" t="s">
+      <c r="D221" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E221" s="22" t="s">
@@ -5314,10 +5314,10 @@
       <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A222" s="49"/>
+      <c r="A222" s="43"/>
       <c r="B222" s="40"/>
       <c r="C222" s="37"/>
-      <c r="D222" s="34"/>
+      <c r="D222" s="49"/>
       <c r="E222" s="16" t="s">
         <v>95</v>
       </c>
@@ -5326,10 +5326,10 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="49"/>
+      <c r="A223" s="43"/>
       <c r="B223" s="40"/>
       <c r="C223" s="37"/>
-      <c r="D223" s="34"/>
+      <c r="D223" s="49"/>
       <c r="E223" s="19" t="s">
         <v>343</v>
       </c>
@@ -5338,20 +5338,20 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A224" s="49"/>
+      <c r="A224" s="43"/>
       <c r="B224" s="40"/>
       <c r="C224" s="37"/>
-      <c r="D224" s="34"/>
+      <c r="D224" s="49"/>
       <c r="E224" s="19"/>
       <c r="F224" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A225" s="49"/>
+      <c r="A225" s="43"/>
       <c r="B225" s="40"/>
       <c r="C225" s="37"/>
-      <c r="D225" s="34"/>
+      <c r="D225" s="49"/>
       <c r="E225" s="19" t="s">
         <v>346</v>
       </c>
@@ -5360,10 +5360,10 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="50"/>
+      <c r="A226" s="44"/>
       <c r="B226" s="41"/>
       <c r="C226" s="38"/>
-      <c r="D226" s="35"/>
+      <c r="D226" s="50"/>
       <c r="E226" s="18" t="s">
         <v>347</v>
       </c>
@@ -5372,7 +5372,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="48" t="s">
+      <c r="A227" s="42" t="s">
         <v>352</v>
       </c>
       <c r="B227" s="39" t="s">
@@ -5381,7 +5381,7 @@
       <c r="C227" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="D227" s="33" t="s">
+      <c r="D227" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E227" s="22" t="s">
@@ -5390,20 +5390,20 @@
       <c r="F227" s="5"/>
     </row>
     <row r="228" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="49"/>
+      <c r="A228" s="43"/>
       <c r="B228" s="40"/>
       <c r="C228" s="37"/>
-      <c r="D228" s="34"/>
+      <c r="D228" s="49"/>
       <c r="E228" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="49"/>
+      <c r="A229" s="43"/>
       <c r="B229" s="40"/>
       <c r="C229" s="37"/>
-      <c r="D229" s="34"/>
+      <c r="D229" s="49"/>
       <c r="E229" s="19" t="s">
         <v>122</v>
       </c>
@@ -5412,20 +5412,20 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="49"/>
+      <c r="A230" s="43"/>
       <c r="B230" s="40"/>
       <c r="C230" s="37"/>
-      <c r="D230" s="34"/>
+      <c r="D230" s="49"/>
       <c r="E230" s="19" t="s">
         <v>354</v>
       </c>
       <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="49"/>
+      <c r="A231" s="43"/>
       <c r="B231" s="40"/>
       <c r="C231" s="37"/>
-      <c r="D231" s="34"/>
+      <c r="D231" s="49"/>
       <c r="E231" s="19" t="s">
         <v>355</v>
       </c>
@@ -5434,17 +5434,17 @@
       </c>
     </row>
     <row r="232" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="50"/>
+      <c r="A232" s="44"/>
       <c r="B232" s="41"/>
       <c r="C232" s="38"/>
-      <c r="D232" s="35"/>
+      <c r="D232" s="50"/>
       <c r="E232" s="18"/>
       <c r="F232" s="11" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="48" t="s">
+      <c r="A233" s="42" t="s">
         <v>360</v>
       </c>
       <c r="B233" s="39" t="s">
@@ -5453,7 +5453,7 @@
       <c r="C233" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="D233" s="33" t="s">
+      <c r="D233" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E233" s="22" t="s">
@@ -5462,20 +5462,20 @@
       <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="49"/>
+      <c r="A234" s="43"/>
       <c r="B234" s="40"/>
       <c r="C234" s="37"/>
-      <c r="D234" s="34"/>
+      <c r="D234" s="49"/>
       <c r="E234" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="49"/>
+      <c r="A235" s="43"/>
       <c r="B235" s="40"/>
       <c r="C235" s="37"/>
-      <c r="D235" s="34"/>
+      <c r="D235" s="49"/>
       <c r="E235" s="19" t="s">
         <v>122</v>
       </c>
@@ -5484,20 +5484,20 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="49"/>
+      <c r="A236" s="43"/>
       <c r="B236" s="40"/>
       <c r="C236" s="37"/>
-      <c r="D236" s="34"/>
+      <c r="D236" s="49"/>
       <c r="E236" s="19" t="s">
         <v>354</v>
       </c>
       <c r="F236" s="5"/>
     </row>
     <row r="237" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="49"/>
+      <c r="A237" s="43"/>
       <c r="B237" s="40"/>
       <c r="C237" s="37"/>
-      <c r="D237" s="34"/>
+      <c r="D237" s="49"/>
       <c r="E237" s="19" t="s">
         <v>355</v>
       </c>
@@ -5506,10 +5506,10 @@
       </c>
     </row>
     <row r="238" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="50"/>
+      <c r="A238" s="44"/>
       <c r="B238" s="41"/>
       <c r="C238" s="38"/>
-      <c r="D238" s="35"/>
+      <c r="D238" s="50"/>
       <c r="E238" s="18" t="s">
         <v>361</v>
       </c>
@@ -5518,7 +5518,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="48" t="s">
+      <c r="A239" s="42" t="s">
         <v>363</v>
       </c>
       <c r="B239" s="39" t="s">
@@ -5527,7 +5527,7 @@
       <c r="C239" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="D239" s="45" t="s">
+      <c r="D239" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E239" s="22" t="s">
@@ -5536,20 +5536,20 @@
       <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="49"/>
+      <c r="A240" s="43"/>
       <c r="B240" s="40"/>
       <c r="C240" s="37"/>
-      <c r="D240" s="46"/>
+      <c r="D240" s="34"/>
       <c r="E240" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="49"/>
+      <c r="A241" s="43"/>
       <c r="B241" s="40"/>
       <c r="C241" s="37"/>
-      <c r="D241" s="46"/>
+      <c r="D241" s="34"/>
       <c r="E241" s="19" t="s">
         <v>122</v>
       </c>
@@ -5558,20 +5558,20 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="49"/>
+      <c r="A242" s="43"/>
       <c r="B242" s="40"/>
       <c r="C242" s="37"/>
-      <c r="D242" s="46"/>
+      <c r="D242" s="34"/>
       <c r="E242" s="19" t="s">
         <v>354</v>
       </c>
       <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="49"/>
+      <c r="A243" s="43"/>
       <c r="B243" s="40"/>
       <c r="C243" s="37"/>
-      <c r="D243" s="46"/>
+      <c r="D243" s="34"/>
       <c r="E243" s="19" t="s">
         <v>355</v>
       </c>
@@ -5580,10 +5580,10 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="49"/>
+      <c r="A244" s="43"/>
       <c r="B244" s="40"/>
       <c r="C244" s="37"/>
-      <c r="D244" s="46"/>
+      <c r="D244" s="34"/>
       <c r="E244" s="19" t="s">
         <v>382</v>
       </c>
@@ -5592,10 +5592,10 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="49"/>
+      <c r="A245" s="43"/>
       <c r="B245" s="40"/>
       <c r="C245" s="37"/>
-      <c r="D245" s="46"/>
+      <c r="D245" s="34"/>
       <c r="E245" s="19" t="s">
         <v>383</v>
       </c>
@@ -5604,10 +5604,10 @@
       </c>
     </row>
     <row r="246" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="50"/>
+      <c r="A246" s="44"/>
       <c r="B246" s="41"/>
       <c r="C246" s="38"/>
-      <c r="D246" s="47"/>
+      <c r="D246" s="35"/>
       <c r="E246" s="18" t="s">
         <v>384</v>
       </c>
@@ -5616,7 +5616,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="48" t="s">
+      <c r="A247" s="42" t="s">
         <v>369</v>
       </c>
       <c r="B247" s="39" t="s">
@@ -5625,7 +5625,7 @@
       <c r="C247" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="D247" s="33" t="s">
+      <c r="D247" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E247" s="15" t="s">
@@ -5634,20 +5634,20 @@
       <c r="F247" s="25"/>
     </row>
     <row r="248" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="49"/>
+      <c r="A248" s="43"/>
       <c r="B248" s="40"/>
       <c r="C248" s="37"/>
-      <c r="D248" s="34"/>
+      <c r="D248" s="49"/>
       <c r="E248" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F248" s="5"/>
     </row>
     <row r="249" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="49"/>
+      <c r="A249" s="43"/>
       <c r="B249" s="40"/>
       <c r="C249" s="37"/>
-      <c r="D249" s="34"/>
+      <c r="D249" s="49"/>
       <c r="E249" s="22" t="s">
         <v>122</v>
       </c>
@@ -5656,20 +5656,20 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="49"/>
+      <c r="A250" s="43"/>
       <c r="B250" s="40"/>
       <c r="C250" s="37"/>
-      <c r="D250" s="34"/>
+      <c r="D250" s="49"/>
       <c r="E250" s="19" t="s">
         <v>109</v>
       </c>
       <c r="F250" s="5"/>
     </row>
     <row r="251" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="50"/>
+      <c r="A251" s="44"/>
       <c r="B251" s="41"/>
       <c r="C251" s="38"/>
-      <c r="D251" s="35"/>
+      <c r="D251" s="50"/>
       <c r="E251" s="18" t="s">
         <v>111</v>
       </c>
@@ -5678,7 +5678,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="42" t="s">
+      <c r="A252" s="45" t="s">
         <v>370</v>
       </c>
       <c r="B252" s="39" t="s">
@@ -5687,7 +5687,7 @@
       <c r="C252" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="D252" s="45" t="s">
+      <c r="D252" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E252" s="22" t="s">
@@ -5696,10 +5696,10 @@
       <c r="F252" s="5"/>
     </row>
     <row r="253" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A253" s="43"/>
+      <c r="A253" s="46"/>
       <c r="B253" s="40"/>
       <c r="C253" s="37"/>
-      <c r="D253" s="46"/>
+      <c r="D253" s="34"/>
       <c r="E253" s="19" t="s">
         <v>95</v>
       </c>
@@ -5708,10 +5708,10 @@
       </c>
     </row>
     <row r="254" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="43"/>
+      <c r="A254" s="46"/>
       <c r="B254" s="40"/>
       <c r="C254" s="37"/>
-      <c r="D254" s="46"/>
+      <c r="D254" s="34"/>
       <c r="E254" s="19" t="s">
         <v>372</v>
       </c>
@@ -5720,10 +5720,10 @@
       </c>
     </row>
     <row r="255" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="44"/>
+      <c r="A255" s="47"/>
       <c r="B255" s="41"/>
       <c r="C255" s="38"/>
-      <c r="D255" s="47"/>
+      <c r="D255" s="35"/>
       <c r="E255" s="18" t="s">
         <v>374</v>
       </c>
@@ -5732,7 +5732,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="48" t="s">
+      <c r="A256" s="42" t="s">
         <v>377</v>
       </c>
       <c r="B256" s="39" t="s">
@@ -5741,7 +5741,7 @@
       <c r="C256" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="D256" s="45" t="s">
+      <c r="D256" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E256" s="19" t="s">
@@ -5750,10 +5750,10 @@
       <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="49"/>
+      <c r="A257" s="43"/>
       <c r="B257" s="40"/>
       <c r="C257" s="37"/>
-      <c r="D257" s="46"/>
+      <c r="D257" s="34"/>
       <c r="E257" s="19" t="s">
         <v>15</v>
       </c>
@@ -5762,10 +5762,10 @@
       </c>
     </row>
     <row r="258" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="50"/>
+      <c r="A258" s="44"/>
       <c r="B258" s="41"/>
       <c r="C258" s="38"/>
-      <c r="D258" s="47"/>
+      <c r="D258" s="35"/>
       <c r="E258" s="18" t="s">
         <v>379</v>
       </c>
@@ -5774,7 +5774,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="42" t="s">
+      <c r="A259" s="45" t="s">
         <v>386</v>
       </c>
       <c r="B259" s="39" t="s">
@@ -5783,7 +5783,7 @@
       <c r="C259" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="D259" s="33" t="s">
+      <c r="D259" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E259" s="22" t="s">
@@ -5792,10 +5792,10 @@
       <c r="F259" s="5"/>
     </row>
     <row r="260" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="43"/>
+      <c r="A260" s="46"/>
       <c r="B260" s="40"/>
       <c r="C260" s="37"/>
-      <c r="D260" s="34"/>
+      <c r="D260" s="49"/>
       <c r="E260" s="16" t="s">
         <v>249</v>
       </c>
@@ -5804,20 +5804,20 @@
       </c>
     </row>
     <row r="261" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="43"/>
+      <c r="A261" s="46"/>
       <c r="B261" s="40"/>
       <c r="C261" s="37"/>
-      <c r="D261" s="34"/>
+      <c r="D261" s="49"/>
       <c r="E261" s="19" t="s">
         <v>387</v>
       </c>
       <c r="F261" s="5"/>
     </row>
     <row r="262" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="43"/>
+      <c r="A262" s="46"/>
       <c r="B262" s="40"/>
       <c r="C262" s="37"/>
-      <c r="D262" s="34"/>
+      <c r="D262" s="49"/>
       <c r="E262" s="19" t="s">
         <v>398</v>
       </c>
@@ -5826,20 +5826,20 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="43"/>
+      <c r="A263" s="46"/>
       <c r="B263" s="40"/>
       <c r="C263" s="37"/>
-      <c r="D263" s="34"/>
+      <c r="D263" s="49"/>
       <c r="E263" s="19" t="s">
         <v>400</v>
       </c>
       <c r="F263" s="5"/>
     </row>
     <row r="264" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="43"/>
+      <c r="A264" s="46"/>
       <c r="B264" s="40"/>
       <c r="C264" s="37"/>
-      <c r="D264" s="34"/>
+      <c r="D264" s="49"/>
       <c r="E264" s="19" t="s">
         <v>401</v>
       </c>
@@ -5848,17 +5848,17 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="44"/>
+      <c r="A265" s="47"/>
       <c r="B265" s="41"/>
       <c r="C265" s="38"/>
-      <c r="D265" s="35"/>
+      <c r="D265" s="50"/>
       <c r="E265" s="18"/>
       <c r="F265" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="48" t="s">
+      <c r="A266" s="42" t="s">
         <v>392</v>
       </c>
       <c r="B266" s="39" t="s">
@@ -5867,7 +5867,7 @@
       <c r="C266" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="D266" s="45" t="s">
+      <c r="D266" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E266" s="22" t="s">
@@ -5876,10 +5876,10 @@
       <c r="F266" s="5"/>
     </row>
     <row r="267" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="49"/>
+      <c r="A267" s="43"/>
       <c r="B267" s="40"/>
       <c r="C267" s="37"/>
-      <c r="D267" s="46"/>
+      <c r="D267" s="34"/>
       <c r="E267" s="16" t="s">
         <v>249</v>
       </c>
@@ -5888,20 +5888,20 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="49"/>
+      <c r="A268" s="43"/>
       <c r="B268" s="40"/>
       <c r="C268" s="37"/>
-      <c r="D268" s="46"/>
+      <c r="D268" s="34"/>
       <c r="E268" s="19" t="s">
         <v>387</v>
       </c>
       <c r="F268" s="5"/>
     </row>
     <row r="269" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="49"/>
+      <c r="A269" s="43"/>
       <c r="B269" s="40"/>
       <c r="C269" s="37"/>
-      <c r="D269" s="46"/>
+      <c r="D269" s="34"/>
       <c r="E269" s="19" t="s">
         <v>398</v>
       </c>
@@ -5910,40 +5910,40 @@
       </c>
     </row>
     <row r="270" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="49"/>
+      <c r="A270" s="43"/>
       <c r="B270" s="40"/>
       <c r="C270" s="37"/>
-      <c r="D270" s="46"/>
+      <c r="D270" s="34"/>
       <c r="E270" s="19" t="s">
         <v>400</v>
       </c>
       <c r="F270" s="5"/>
     </row>
     <row r="271" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="49"/>
+      <c r="A271" s="43"/>
       <c r="B271" s="40"/>
       <c r="C271" s="37"/>
-      <c r="D271" s="46"/>
+      <c r="D271" s="34"/>
       <c r="E271" s="19" t="s">
         <v>401</v>
       </c>
       <c r="F271" s="5"/>
     </row>
     <row r="272" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="49"/>
+      <c r="A272" s="43"/>
       <c r="B272" s="40"/>
       <c r="C272" s="37"/>
-      <c r="D272" s="46"/>
+      <c r="D272" s="34"/>
       <c r="E272" s="19" t="s">
         <v>402</v>
       </c>
       <c r="F272" s="5"/>
     </row>
     <row r="273" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="50"/>
+      <c r="A273" s="44"/>
       <c r="B273" s="41"/>
       <c r="C273" s="38"/>
-      <c r="D273" s="47"/>
+      <c r="D273" s="35"/>
       <c r="E273" s="18" t="s">
         <v>403</v>
       </c>
@@ -5952,7 +5952,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="42" t="s">
+      <c r="A274" s="45" t="s">
         <v>394</v>
       </c>
       <c r="B274" s="39" t="s">
@@ -5961,7 +5961,7 @@
       <c r="C274" s="36" t="s">
         <v>397</v>
       </c>
-      <c r="D274" s="33" t="s">
+      <c r="D274" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E274" s="22" t="s">
@@ -5970,10 +5970,10 @@
       <c r="F274" s="5"/>
     </row>
     <row r="275" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="43"/>
+      <c r="A275" s="46"/>
       <c r="B275" s="40"/>
       <c r="C275" s="37"/>
-      <c r="D275" s="34"/>
+      <c r="D275" s="49"/>
       <c r="E275" s="16" t="s">
         <v>249</v>
       </c>
@@ -5982,20 +5982,20 @@
       </c>
     </row>
     <row r="276" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="43"/>
+      <c r="A276" s="46"/>
       <c r="B276" s="40"/>
       <c r="C276" s="37"/>
-      <c r="D276" s="34"/>
+      <c r="D276" s="49"/>
       <c r="E276" s="19" t="s">
         <v>387</v>
       </c>
       <c r="F276" s="5"/>
     </row>
     <row r="277" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="43"/>
+      <c r="A277" s="46"/>
       <c r="B277" s="40"/>
       <c r="C277" s="37"/>
-      <c r="D277" s="34"/>
+      <c r="D277" s="49"/>
       <c r="E277" s="19" t="s">
         <v>398</v>
       </c>
@@ -6004,30 +6004,30 @@
       </c>
     </row>
     <row r="278" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="43"/>
+      <c r="A278" s="46"/>
       <c r="B278" s="40"/>
       <c r="C278" s="37"/>
-      <c r="D278" s="34"/>
+      <c r="D278" s="49"/>
       <c r="E278" s="19" t="s">
         <v>400</v>
       </c>
       <c r="F278" s="5"/>
     </row>
     <row r="279" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="43"/>
+      <c r="A279" s="46"/>
       <c r="B279" s="40"/>
       <c r="C279" s="37"/>
-      <c r="D279" s="34"/>
+      <c r="D279" s="49"/>
       <c r="E279" s="19" t="s">
         <v>401</v>
       </c>
       <c r="F279" s="5"/>
     </row>
     <row r="280" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="44"/>
+      <c r="A280" s="47"/>
       <c r="B280" s="41"/>
       <c r="C280" s="38"/>
-      <c r="D280" s="35"/>
+      <c r="D280" s="50"/>
       <c r="E280" s="18" t="s">
         <v>404</v>
       </c>
@@ -6036,7 +6036,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="48" t="s">
+      <c r="A281" s="42" t="s">
         <v>407</v>
       </c>
       <c r="B281" s="39" t="s">
@@ -6045,7 +6045,7 @@
       <c r="C281" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="D281" s="45" t="s">
+      <c r="D281" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E281" s="22" t="s">
@@ -6054,10 +6054,10 @@
       <c r="F281" s="5"/>
     </row>
     <row r="282" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="49"/>
+      <c r="A282" s="43"/>
       <c r="B282" s="40"/>
       <c r="C282" s="37"/>
-      <c r="D282" s="46"/>
+      <c r="D282" s="34"/>
       <c r="E282" s="16" t="s">
         <v>249</v>
       </c>
@@ -6066,20 +6066,20 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="49"/>
+      <c r="A283" s="43"/>
       <c r="B283" s="40"/>
       <c r="C283" s="37"/>
-      <c r="D283" s="46"/>
+      <c r="D283" s="34"/>
       <c r="E283" s="19" t="s">
         <v>387</v>
       </c>
       <c r="F283" s="5"/>
     </row>
     <row r="284" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="49"/>
+      <c r="A284" s="43"/>
       <c r="B284" s="40"/>
       <c r="C284" s="37"/>
-      <c r="D284" s="46"/>
+      <c r="D284" s="34"/>
       <c r="E284" s="19" t="s">
         <v>398</v>
       </c>
@@ -6088,20 +6088,20 @@
       </c>
     </row>
     <row r="285" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="49"/>
+      <c r="A285" s="43"/>
       <c r="B285" s="40"/>
       <c r="C285" s="37"/>
-      <c r="D285" s="46"/>
+      <c r="D285" s="34"/>
       <c r="E285" s="19" t="s">
         <v>400</v>
       </c>
       <c r="F285" s="5"/>
     </row>
     <row r="286" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="49"/>
+      <c r="A286" s="43"/>
       <c r="B286" s="40"/>
       <c r="C286" s="37"/>
-      <c r="D286" s="46"/>
+      <c r="D286" s="34"/>
       <c r="E286" s="19" t="s">
         <v>401</v>
       </c>
@@ -6110,10 +6110,10 @@
       </c>
     </row>
     <row r="287" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="49"/>
+      <c r="A287" s="43"/>
       <c r="B287" s="40"/>
       <c r="C287" s="37"/>
-      <c r="D287" s="46"/>
+      <c r="D287" s="34"/>
       <c r="E287" s="19" t="s">
         <v>406</v>
       </c>
@@ -6122,17 +6122,17 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="50"/>
+      <c r="A288" s="44"/>
       <c r="B288" s="41"/>
       <c r="C288" s="38"/>
-      <c r="D288" s="47"/>
+      <c r="D288" s="35"/>
       <c r="E288" s="18"/>
       <c r="F288" s="11" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="42" t="s">
+      <c r="A289" s="45" t="s">
         <v>411</v>
       </c>
       <c r="B289" s="39" t="s">
@@ -6141,7 +6141,7 @@
       <c r="C289" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="D289" s="45" t="s">
+      <c r="D289" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E289" s="19" t="s">
@@ -6150,20 +6150,20 @@
       <c r="F289" s="5"/>
     </row>
     <row r="290" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="43"/>
+      <c r="A290" s="46"/>
       <c r="B290" s="40"/>
       <c r="C290" s="37"/>
-      <c r="D290" s="46"/>
+      <c r="D290" s="34"/>
       <c r="E290" s="19" t="s">
         <v>249</v>
       </c>
       <c r="F290" s="5"/>
     </row>
     <row r="291" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="43"/>
+      <c r="A291" s="46"/>
       <c r="B291" s="40"/>
       <c r="C291" s="37"/>
-      <c r="D291" s="46"/>
+      <c r="D291" s="34"/>
       <c r="E291" s="19" t="s">
         <v>413</v>
       </c>
@@ -6172,10 +6172,10 @@
       </c>
     </row>
     <row r="292" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="44"/>
+      <c r="A292" s="47"/>
       <c r="B292" s="41"/>
       <c r="C292" s="38"/>
-      <c r="D292" s="47"/>
+      <c r="D292" s="35"/>
       <c r="E292" s="18" t="s">
         <v>415</v>
       </c>
@@ -6186,140 +6186,86 @@
     <row r="293" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="242">
-    <mergeCell ref="D281:D288"/>
-    <mergeCell ref="C281:C288"/>
-    <mergeCell ref="B281:B288"/>
-    <mergeCell ref="A281:A288"/>
-    <mergeCell ref="C289:C292"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="A289:A292"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="C185:C188"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="A189:A193"/>
-    <mergeCell ref="B189:B193"/>
-    <mergeCell ref="C189:C193"/>
-    <mergeCell ref="D189:D193"/>
-    <mergeCell ref="C194:C198"/>
-    <mergeCell ref="D194:D198"/>
-    <mergeCell ref="B194:B198"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="D173:D176"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="D177:D180"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="D181:D184"/>
-    <mergeCell ref="D160:D164"/>
-    <mergeCell ref="C160:C164"/>
-    <mergeCell ref="B160:B164"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="D165:D168"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="D169:D172"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="D93:D97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D88:D92"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="D274:D280"/>
+    <mergeCell ref="C274:C280"/>
+    <mergeCell ref="B274:B280"/>
+    <mergeCell ref="A274:A280"/>
+    <mergeCell ref="D259:D265"/>
+    <mergeCell ref="C259:C265"/>
+    <mergeCell ref="B259:B265"/>
+    <mergeCell ref="A259:A265"/>
+    <mergeCell ref="D266:D273"/>
+    <mergeCell ref="C266:C273"/>
+    <mergeCell ref="B266:B273"/>
+    <mergeCell ref="A266:A273"/>
+    <mergeCell ref="D247:D251"/>
+    <mergeCell ref="C247:C251"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="D256:D258"/>
+    <mergeCell ref="B256:B258"/>
+    <mergeCell ref="A256:A258"/>
+    <mergeCell ref="D239:D246"/>
+    <mergeCell ref="B239:B246"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="C239:C246"/>
+    <mergeCell ref="C214:C220"/>
+    <mergeCell ref="D214:D220"/>
+    <mergeCell ref="B214:B220"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="C221:C226"/>
+    <mergeCell ref="D221:D226"/>
+    <mergeCell ref="B221:B226"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="D227:D232"/>
+    <mergeCell ref="C227:C232"/>
+    <mergeCell ref="B227:B232"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="D202:D205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D233:D238"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="B233:B238"/>
+    <mergeCell ref="C233:C238"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="A133:A139"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="A140:A146"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A128:A132"/>
     <mergeCell ref="A112:A117"/>
     <mergeCell ref="B112:B117"/>
     <mergeCell ref="C112:C117"/>
@@ -6344,90 +6290,144 @@
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="B133:B139"/>
-    <mergeCell ref="A133:A139"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="D140:D146"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="A140:A146"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D88:D92"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="D93:D97"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="D160:D164"/>
+    <mergeCell ref="C160:C164"/>
+    <mergeCell ref="B160:B164"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="D165:D168"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="D169:D172"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="D173:D176"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="D177:D180"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="D181:D184"/>
+    <mergeCell ref="D281:D288"/>
+    <mergeCell ref="C281:C288"/>
+    <mergeCell ref="B281:B288"/>
+    <mergeCell ref="A281:A288"/>
+    <mergeCell ref="C289:C292"/>
+    <mergeCell ref="D289:D292"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="A289:A292"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="B189:B193"/>
+    <mergeCell ref="C189:C193"/>
+    <mergeCell ref="D189:D193"/>
+    <mergeCell ref="C194:C198"/>
+    <mergeCell ref="D194:D198"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="A194:A198"/>
     <mergeCell ref="D206:D213"/>
     <mergeCell ref="C206:C213"/>
     <mergeCell ref="B206:B213"/>
     <mergeCell ref="A206:A213"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="D202:D205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D233:D238"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="B233:B238"/>
-    <mergeCell ref="C233:C238"/>
-    <mergeCell ref="D239:D246"/>
-    <mergeCell ref="B239:B246"/>
-    <mergeCell ref="A239:A246"/>
-    <mergeCell ref="C239:C246"/>
-    <mergeCell ref="C214:C220"/>
-    <mergeCell ref="D214:D220"/>
-    <mergeCell ref="B214:B220"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="C221:C226"/>
-    <mergeCell ref="D221:D226"/>
-    <mergeCell ref="B221:B226"/>
-    <mergeCell ref="A221:A226"/>
-    <mergeCell ref="D227:D232"/>
-    <mergeCell ref="C227:C232"/>
-    <mergeCell ref="B227:B232"/>
-    <mergeCell ref="A227:A232"/>
-    <mergeCell ref="D247:D251"/>
-    <mergeCell ref="C247:C251"/>
-    <mergeCell ref="B247:B251"/>
-    <mergeCell ref="A247:A251"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="D256:D258"/>
-    <mergeCell ref="B256:B258"/>
-    <mergeCell ref="A256:A258"/>
-    <mergeCell ref="D274:D280"/>
-    <mergeCell ref="C274:C280"/>
-    <mergeCell ref="B274:B280"/>
-    <mergeCell ref="A274:A280"/>
-    <mergeCell ref="D259:D265"/>
-    <mergeCell ref="C259:C265"/>
-    <mergeCell ref="B259:B265"/>
-    <mergeCell ref="A259:A265"/>
-    <mergeCell ref="D266:D273"/>
-    <mergeCell ref="C266:C273"/>
-    <mergeCell ref="B266:B273"/>
-    <mergeCell ref="A266:A273"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Test Case ID" xr:uid="{7D7A00B9-E086-482D-8546-7E99A9805E4E}"/>
